--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="408">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -931,6 +931,9 @@
     <t>['52', '89']</t>
   </si>
   <si>
+    <t>['28']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -1211,9 +1214,6 @@
   </si>
   <si>
     <t>['39', '63']</t>
-  </si>
-  <si>
-    <t>['28']</t>
   </si>
   <si>
     <t>['38', '40', '88']</t>
@@ -1599,7 +1599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP330"/>
+  <dimension ref="A1:BP331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2064,7 +2064,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2270,7 +2270,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2476,7 +2476,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ6">
         <v>0.88</v>
@@ -2888,7 +2888,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3381,7 +3381,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ9">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3712,7 +3712,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -6802,7 +6802,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -7086,7 +7086,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ27">
         <v>1.5</v>
@@ -7214,7 +7214,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7420,7 +7420,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7626,7 +7626,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7832,7 +7832,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7913,7 +7913,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ31">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -8244,7 +8244,7 @@
         <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -9274,7 +9274,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9686,7 +9686,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9767,7 +9767,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR40">
         <v>2.22</v>
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ43">
         <v>0.71</v>
@@ -10510,7 +10510,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10716,7 +10716,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10922,7 +10922,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11334,7 +11334,7 @@
         <v>97</v>
       </c>
       <c r="P48" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q48">
         <v>2.38</v>
@@ -11746,7 +11746,7 @@
         <v>97</v>
       </c>
       <c r="P50" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -12570,7 +12570,7 @@
         <v>97</v>
       </c>
       <c r="P54" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12776,7 +12776,7 @@
         <v>97</v>
       </c>
       <c r="P55" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -13600,7 +13600,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q59">
         <v>5.5</v>
@@ -13806,7 +13806,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q60">
         <v>4.75</v>
@@ -15042,7 +15042,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -15454,7 +15454,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15866,7 +15866,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15947,7 +15947,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ70">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR70">
         <v>1.37</v>
@@ -16072,7 +16072,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16484,7 +16484,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q73">
         <v>2.1</v>
@@ -16768,7 +16768,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ74">
         <v>0.82</v>
@@ -17514,7 +17514,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17720,7 +17720,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17926,7 +17926,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -18004,7 +18004,7 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ80">
         <v>1.56</v>
@@ -18338,7 +18338,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18750,7 +18750,7 @@
         <v>152</v>
       </c>
       <c r="P84" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -19162,7 +19162,7 @@
         <v>97</v>
       </c>
       <c r="P86" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -19368,7 +19368,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -20810,7 +20810,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20891,7 +20891,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ94">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR94">
         <v>1.18</v>
@@ -21016,7 +21016,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -21634,7 +21634,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -22330,7 +22330,7 @@
         <v>0.2</v>
       </c>
       <c r="AP101">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ101">
         <v>0.71</v>
@@ -22458,7 +22458,7 @@
         <v>97</v>
       </c>
       <c r="P102" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22664,7 +22664,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q103">
         <v>2.63</v>
@@ -23282,7 +23282,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q106">
         <v>1.83</v>
@@ -24518,7 +24518,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24599,7 +24599,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ112">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR112">
         <v>1.55</v>
@@ -24724,7 +24724,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -27608,7 +27608,7 @@
         <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -28432,7 +28432,7 @@
         <v>134</v>
       </c>
       <c r="P131" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28510,7 +28510,7 @@
         <v>1.33</v>
       </c>
       <c r="AP131">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ131">
         <v>1.19</v>
@@ -28638,7 +28638,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28844,7 +28844,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q133">
         <v>3.75</v>
@@ -29256,7 +29256,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -30698,7 +30698,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -31110,7 +31110,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q144">
         <v>2.63</v>
@@ -31603,7 +31603,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ146">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR146">
         <v>1.52</v>
@@ -31728,7 +31728,7 @@
         <v>97</v>
       </c>
       <c r="P147" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32140,7 +32140,7 @@
         <v>178</v>
       </c>
       <c r="P149" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32218,7 +32218,7 @@
         <v>0.75</v>
       </c>
       <c r="AP149">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ149">
         <v>0.82</v>
@@ -32552,7 +32552,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32964,7 +32964,7 @@
         <v>203</v>
       </c>
       <c r="P153" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -33376,7 +33376,7 @@
         <v>123</v>
       </c>
       <c r="P155" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q155">
         <v>2.2</v>
@@ -33582,7 +33582,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q156">
         <v>2.6</v>
@@ -33788,7 +33788,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33869,7 +33869,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ157">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR157">
         <v>1.45</v>
@@ -34200,7 +34200,7 @@
         <v>97</v>
       </c>
       <c r="P159" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -35024,7 +35024,7 @@
         <v>208</v>
       </c>
       <c r="P163" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q163">
         <v>1.95</v>
@@ -37496,7 +37496,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37702,7 +37702,7 @@
         <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q176">
         <v>5</v>
@@ -38114,7 +38114,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38320,7 +38320,7 @@
         <v>218</v>
       </c>
       <c r="P179" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q179">
         <v>2.88</v>
@@ -38526,7 +38526,7 @@
         <v>189</v>
       </c>
       <c r="P180" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -38732,7 +38732,7 @@
         <v>97</v>
       </c>
       <c r="P181" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q181">
         <v>1.91</v>
@@ -39144,7 +39144,7 @@
         <v>97</v>
       </c>
       <c r="P183" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q183">
         <v>2.63</v>
@@ -39968,7 +39968,7 @@
         <v>222</v>
       </c>
       <c r="P187" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q187">
         <v>3.4</v>
@@ -40792,7 +40792,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q191">
         <v>2.63</v>
@@ -40998,7 +40998,7 @@
         <v>226</v>
       </c>
       <c r="P192" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -41079,7 +41079,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ192">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR192">
         <v>1.53</v>
@@ -41204,7 +41204,7 @@
         <v>205</v>
       </c>
       <c r="P193" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41616,7 +41616,7 @@
         <v>97</v>
       </c>
       <c r="P195" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q195">
         <v>2.4</v>
@@ -41694,7 +41694,7 @@
         <v>0.25</v>
       </c>
       <c r="AP195">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ195">
         <v>0.82</v>
@@ -42440,7 +42440,7 @@
         <v>228</v>
       </c>
       <c r="P199" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q199">
         <v>2.6</v>
@@ -42852,7 +42852,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q201">
         <v>3.2</v>
@@ -43345,7 +43345,7 @@
         <v>2</v>
       </c>
       <c r="AQ203">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR203">
         <v>1.59</v>
@@ -43676,7 +43676,7 @@
         <v>233</v>
       </c>
       <c r="P205" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q205">
         <v>4.33</v>
@@ -44500,7 +44500,7 @@
         <v>235</v>
       </c>
       <c r="P209" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q209">
         <v>2.6</v>
@@ -44912,7 +44912,7 @@
         <v>97</v>
       </c>
       <c r="P211" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -45324,7 +45324,7 @@
         <v>134</v>
       </c>
       <c r="P213" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q213">
         <v>2.88</v>
@@ -46148,7 +46148,7 @@
         <v>239</v>
       </c>
       <c r="P217" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -46354,7 +46354,7 @@
         <v>240</v>
       </c>
       <c r="P218" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46560,7 +46560,7 @@
         <v>201</v>
       </c>
       <c r="P219" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q219">
         <v>2.2</v>
@@ -46638,7 +46638,7 @@
         <v>0.3</v>
       </c>
       <c r="AP219">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ219">
         <v>0.5</v>
@@ -46766,7 +46766,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -47384,7 +47384,7 @@
         <v>97</v>
       </c>
       <c r="P223" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q223">
         <v>2.75</v>
@@ -48826,7 +48826,7 @@
         <v>248</v>
       </c>
       <c r="P230" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -49444,7 +49444,7 @@
         <v>249</v>
       </c>
       <c r="P233" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49856,7 +49856,7 @@
         <v>251</v>
       </c>
       <c r="P235" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q235">
         <v>3</v>
@@ -49937,7 +49937,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ235">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR235">
         <v>1.44</v>
@@ -50680,7 +50680,7 @@
         <v>148</v>
       </c>
       <c r="P239" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q239">
         <v>4</v>
@@ -51298,7 +51298,7 @@
         <v>97</v>
       </c>
       <c r="P242" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q242">
         <v>3.75</v>
@@ -51376,7 +51376,7 @@
         <v>1.45</v>
       </c>
       <c r="AP242">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ242">
         <v>1.63</v>
@@ -51710,7 +51710,7 @@
         <v>256</v>
       </c>
       <c r="P244" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q244">
         <v>2.75</v>
@@ -51916,7 +51916,7 @@
         <v>97</v>
       </c>
       <c r="P245" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q245">
         <v>2.75</v>
@@ -52122,7 +52122,7 @@
         <v>257</v>
       </c>
       <c r="P246" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q246">
         <v>2.63</v>
@@ -52200,7 +52200,7 @@
         <v>1.25</v>
       </c>
       <c r="AP246">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ246">
         <v>1.25</v>
@@ -52534,7 +52534,7 @@
         <v>259</v>
       </c>
       <c r="P248" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52946,7 +52946,7 @@
         <v>261</v>
       </c>
       <c r="P250" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q250">
         <v>3.5</v>
@@ -53152,7 +53152,7 @@
         <v>97</v>
       </c>
       <c r="P251" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q251">
         <v>2.75</v>
@@ -53439,7 +53439,7 @@
         <v>2</v>
       </c>
       <c r="AQ252">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR252">
         <v>1.54</v>
@@ -54388,7 +54388,7 @@
         <v>97</v>
       </c>
       <c r="P257" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q257">
         <v>4</v>
@@ -55212,7 +55212,7 @@
         <v>268</v>
       </c>
       <c r="P261" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q261">
         <v>2.5</v>
@@ -55624,7 +55624,7 @@
         <v>269</v>
       </c>
       <c r="P263" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q263">
         <v>3.75</v>
@@ -56036,7 +56036,7 @@
         <v>270</v>
       </c>
       <c r="P265" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q265">
         <v>3.6</v>
@@ -56242,7 +56242,7 @@
         <v>138</v>
       </c>
       <c r="P266" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q266">
         <v>2.3</v>
@@ -56529,7 +56529,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ267">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR267">
         <v>1.86</v>
@@ -57066,7 +57066,7 @@
         <v>272</v>
       </c>
       <c r="P270" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q270">
         <v>3.25</v>
@@ -58920,7 +58920,7 @@
         <v>277</v>
       </c>
       <c r="P279" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q279">
         <v>2.75</v>
@@ -59332,7 +59332,7 @@
         <v>278</v>
       </c>
       <c r="P281" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q281">
         <v>2.3</v>
@@ -59616,7 +59616,7 @@
         <v>1.79</v>
       </c>
       <c r="AP282">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ282">
         <v>1.94</v>
@@ -59744,7 +59744,7 @@
         <v>97</v>
       </c>
       <c r="P283" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q283">
         <v>3.4</v>
@@ -59950,7 +59950,7 @@
         <v>279</v>
       </c>
       <c r="P284" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q284">
         <v>3.1</v>
@@ -60362,7 +60362,7 @@
         <v>125</v>
       </c>
       <c r="P286" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q286">
         <v>2.38</v>
@@ -60568,7 +60568,7 @@
         <v>281</v>
       </c>
       <c r="P287" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q287">
         <v>2.63</v>
@@ -60855,7 +60855,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ288">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR288">
         <v>1.38</v>
@@ -61186,7 +61186,7 @@
         <v>283</v>
       </c>
       <c r="P290" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q290">
         <v>2.2</v>
@@ -62628,7 +62628,7 @@
         <v>286</v>
       </c>
       <c r="P297" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q297">
         <v>5</v>
@@ -63246,7 +63246,7 @@
         <v>288</v>
       </c>
       <c r="P300" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q300">
         <v>1.91</v>
@@ -63658,7 +63658,7 @@
         <v>290</v>
       </c>
       <c r="P302" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q302">
         <v>1.83</v>
@@ -63864,7 +63864,7 @@
         <v>291</v>
       </c>
       <c r="P303" t="s">
-        <v>399</v>
+        <v>305</v>
       </c>
       <c r="Q303">
         <v>2.2</v>
@@ -64148,7 +64148,7 @@
         <v>0.87</v>
       </c>
       <c r="AP304">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ304">
         <v>0.8100000000000001</v>
@@ -66002,7 +66002,7 @@
         <v>0.8</v>
       </c>
       <c r="AP313">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ313">
         <v>0.9399999999999999</v>
@@ -67241,7 +67241,7 @@
         <v>1</v>
       </c>
       <c r="AQ319">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR319">
         <v>1.48</v>
@@ -68602,7 +68602,7 @@
         <v>302</v>
       </c>
       <c r="P326" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q326">
         <v>2.25</v>
@@ -69507,7 +69507,7 @@
         <v>2</v>
       </c>
       <c r="AQ330">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR330">
         <v>1.71</v>
@@ -69583,6 +69583,212 @@
       </c>
       <c r="BP330">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="331" spans="1:68">
+      <c r="A331" s="1">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>7373368</v>
+      </c>
+      <c r="C331" t="s">
+        <v>68</v>
+      </c>
+      <c r="D331" t="s">
+        <v>69</v>
+      </c>
+      <c r="E331" s="2">
+        <v>45612.77083333334</v>
+      </c>
+      <c r="F331">
+        <v>19</v>
+      </c>
+      <c r="G331" t="s">
+        <v>74</v>
+      </c>
+      <c r="H331" t="s">
+        <v>84</v>
+      </c>
+      <c r="I331">
+        <v>1</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331">
+        <v>1</v>
+      </c>
+      <c r="L331">
+        <v>1</v>
+      </c>
+      <c r="M331">
+        <v>0</v>
+      </c>
+      <c r="N331">
+        <v>1</v>
+      </c>
+      <c r="O331" t="s">
+        <v>305</v>
+      </c>
+      <c r="P331" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q331">
+        <v>3</v>
+      </c>
+      <c r="R331">
+        <v>2</v>
+      </c>
+      <c r="S331">
+        <v>4</v>
+      </c>
+      <c r="T331">
+        <v>1.45</v>
+      </c>
+      <c r="U331">
+        <v>2.55</v>
+      </c>
+      <c r="V331">
+        <v>3</v>
+      </c>
+      <c r="W331">
+        <v>1.33</v>
+      </c>
+      <c r="X331">
+        <v>7.5</v>
+      </c>
+      <c r="Y331">
+        <v>1.06</v>
+      </c>
+      <c r="Z331">
+        <v>2.2</v>
+      </c>
+      <c r="AA331">
+        <v>3.2</v>
+      </c>
+      <c r="AB331">
+        <v>3.3</v>
+      </c>
+      <c r="AC331">
+        <v>1.05</v>
+      </c>
+      <c r="AD331">
+        <v>8</v>
+      </c>
+      <c r="AE331">
+        <v>1.3</v>
+      </c>
+      <c r="AF331">
+        <v>3.2</v>
+      </c>
+      <c r="AG331">
+        <v>2.2</v>
+      </c>
+      <c r="AH331">
+        <v>1.65</v>
+      </c>
+      <c r="AI331">
+        <v>1.95</v>
+      </c>
+      <c r="AJ331">
+        <v>1.8</v>
+      </c>
+      <c r="AK331">
+        <v>1.35</v>
+      </c>
+      <c r="AL331">
+        <v>1.28</v>
+      </c>
+      <c r="AM331">
+        <v>1.57</v>
+      </c>
+      <c r="AN331">
+        <v>1.2</v>
+      </c>
+      <c r="AO331">
+        <v>1.13</v>
+      </c>
+      <c r="AP331">
+        <v>1.31</v>
+      </c>
+      <c r="AQ331">
+        <v>1.06</v>
+      </c>
+      <c r="AR331">
+        <v>1.88</v>
+      </c>
+      <c r="AS331">
+        <v>1.43</v>
+      </c>
+      <c r="AT331">
+        <v>3.31</v>
+      </c>
+      <c r="AU331">
+        <v>6</v>
+      </c>
+      <c r="AV331">
+        <v>4</v>
+      </c>
+      <c r="AW331">
+        <v>12</v>
+      </c>
+      <c r="AX331">
+        <v>10</v>
+      </c>
+      <c r="AY331">
+        <v>21</v>
+      </c>
+      <c r="AZ331">
+        <v>19</v>
+      </c>
+      <c r="BA331">
+        <v>4</v>
+      </c>
+      <c r="BB331">
+        <v>3</v>
+      </c>
+      <c r="BC331">
+        <v>7</v>
+      </c>
+      <c r="BD331">
+        <v>1.55</v>
+      </c>
+      <c r="BE331">
+        <v>6.5</v>
+      </c>
+      <c r="BF331">
+        <v>2.7</v>
+      </c>
+      <c r="BG331">
+        <v>1.24</v>
+      </c>
+      <c r="BH331">
+        <v>3.55</v>
+      </c>
+      <c r="BI331">
+        <v>1.43</v>
+      </c>
+      <c r="BJ331">
+        <v>2.6</v>
+      </c>
+      <c r="BK331">
+        <v>2.38</v>
+      </c>
+      <c r="BL331">
+        <v>2.02</v>
+      </c>
+      <c r="BM331">
+        <v>2.08</v>
+      </c>
+      <c r="BN331">
+        <v>1.65</v>
+      </c>
+      <c r="BO331">
+        <v>2.65</v>
+      </c>
+      <c r="BP331">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -69731,25 +69731,25 @@
         <v>4</v>
       </c>
       <c r="AW331">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX331">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AY331">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ331">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="BA331">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB331">
         <v>3</v>
       </c>
       <c r="BC331">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD331">
         <v>1.55</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="414">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -934,6 +934,21 @@
     <t>['28']</t>
   </si>
   <si>
+    <t>['10', '15']</t>
+  </si>
+  <si>
+    <t>['45+4', '65']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['3', '90+3']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -1174,12 +1189,6 @@
     <t>['29', '53']</t>
   </si>
   <si>
-    <t>['27']</t>
-  </si>
-  <si>
-    <t>['59']</t>
-  </si>
-  <si>
     <t>['25', '90']</t>
   </si>
   <si>
@@ -1238,6 +1247,15 @@
   </si>
   <si>
     <t>['2']</t>
+  </si>
+  <si>
+    <t>['41', '89']</t>
+  </si>
+  <si>
+    <t>['63', '90+3']</t>
+  </si>
+  <si>
+    <t>['45+5', '52']</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP331"/>
+  <dimension ref="A1:BP339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2064,7 +2082,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2142,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2270,7 +2288,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2476,7 +2494,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2760,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ6">
         <v>0.88</v>
@@ -2888,7 +2906,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2969,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3378,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ9">
         <v>1.06</v>
@@ -3506,7 +3524,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3587,7 +3605,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3712,7 +3730,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3793,7 +3811,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ11">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3996,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ12">
         <v>0.76</v>
@@ -4202,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ13">
         <v>0.9399999999999999</v>
@@ -4408,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ14">
         <v>0.71</v>
@@ -4820,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ16">
         <v>0.82</v>
@@ -5235,7 +5253,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ18">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5441,7 +5459,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5647,7 +5665,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ20">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -6056,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ22">
         <v>0.88</v>
@@ -6262,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ23">
         <v>0.71</v>
@@ -6468,10 +6486,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ24">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR24">
         <v>1.95</v>
@@ -6677,7 +6695,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ25">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR25">
         <v>1.49</v>
@@ -6802,7 +6820,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -7086,7 +7104,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ27">
         <v>1.5</v>
@@ -7214,7 +7232,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7295,7 +7313,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR28">
         <v>1.21</v>
@@ -7420,7 +7438,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7501,7 +7519,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR29">
         <v>1.4</v>
@@ -7626,7 +7644,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7832,7 +7850,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7910,7 +7928,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ31">
         <v>1.06</v>
@@ -8116,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ32">
         <v>0.82</v>
@@ -8244,7 +8262,7 @@
         <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8325,7 +8343,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR33">
         <v>1.46</v>
@@ -8531,7 +8549,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR34">
         <v>1.46</v>
@@ -8734,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ35">
         <v>0.76</v>
@@ -9274,7 +9292,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9355,7 +9373,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ38">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR38">
         <v>2.13</v>
@@ -9561,7 +9579,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ39">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR39">
         <v>1.75</v>
@@ -9686,7 +9704,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9970,10 +9988,10 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ41">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR41">
         <v>1.4</v>
@@ -10176,7 +10194,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ42">
         <v>1.25</v>
@@ -10382,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ43">
         <v>0.71</v>
@@ -10510,7 +10528,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10591,7 +10609,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ44">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR44">
         <v>1.47</v>
@@ -10716,7 +10734,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10794,10 +10812,10 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ45">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR45">
         <v>0.52</v>
@@ -10922,7 +10940,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11334,7 +11352,7 @@
         <v>97</v>
       </c>
       <c r="P48" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q48">
         <v>2.38</v>
@@ -11621,7 +11639,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ49">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR49">
         <v>1.5</v>
@@ -11746,7 +11764,7 @@
         <v>97</v>
       </c>
       <c r="P50" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11827,7 +11845,7 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR50">
         <v>0.99</v>
@@ -12033,7 +12051,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ51">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR51">
         <v>1.51</v>
@@ -12236,7 +12254,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ52">
         <v>0.59</v>
@@ -12570,7 +12588,7 @@
         <v>97</v>
       </c>
       <c r="P54" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12648,7 +12666,7 @@
         <v>0.67</v>
       </c>
       <c r="AP54">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ54">
         <v>0.59</v>
@@ -12776,7 +12794,7 @@
         <v>97</v>
       </c>
       <c r="P55" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12857,7 +12875,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ55">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR55">
         <v>1.23</v>
@@ -13060,7 +13078,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ56">
         <v>1.5</v>
@@ -13269,7 +13287,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR57">
         <v>1.86</v>
@@ -13472,10 +13490,10 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ58">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR58">
         <v>1.63</v>
@@ -13600,7 +13618,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q59">
         <v>5.5</v>
@@ -13681,7 +13699,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ59">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR59">
         <v>1.58</v>
@@ -13806,7 +13824,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q60">
         <v>4.75</v>
@@ -13884,10 +13902,10 @@
         <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ60">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR60">
         <v>0.99</v>
@@ -14090,7 +14108,7 @@
         <v>1.33</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ61">
         <v>0.82</v>
@@ -14505,7 +14523,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ63">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR63">
         <v>1.52</v>
@@ -14711,7 +14729,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ64">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR64">
         <v>1.58</v>
@@ -14914,10 +14932,10 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ65">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR65">
         <v>0.78</v>
@@ -15042,7 +15060,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -15120,7 +15138,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ66">
         <v>0.88</v>
@@ -15329,7 +15347,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ67">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR67">
         <v>1.39</v>
@@ -15454,7 +15472,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15866,7 +15884,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -15944,7 +15962,7 @@
         <v>1.67</v>
       </c>
       <c r="AP70">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ70">
         <v>1.06</v>
@@ -16072,7 +16090,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16359,7 +16377,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ72">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR72">
         <v>2.08</v>
@@ -16484,7 +16502,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q73">
         <v>2.1</v>
@@ -16768,7 +16786,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ74">
         <v>0.82</v>
@@ -16974,7 +16992,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ75">
         <v>1.25</v>
@@ -17386,10 +17404,10 @@
         <v>0.67</v>
       </c>
       <c r="AP77">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ77">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -17514,7 +17532,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17595,7 +17613,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ78">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR78">
         <v>1.81</v>
@@ -17720,7 +17738,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17798,10 +17816,10 @@
         <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ79">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR79">
         <v>1.69</v>
@@ -17926,7 +17944,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -18004,10 +18022,10 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ80">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR80">
         <v>1.77</v>
@@ -18338,7 +18356,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18416,7 +18434,7 @@
         <v>1.25</v>
       </c>
       <c r="AP82">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ82">
         <v>0.82</v>
@@ -18622,7 +18640,7 @@
         <v>1.33</v>
       </c>
       <c r="AP83">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ83">
         <v>1.25</v>
@@ -18750,7 +18768,7 @@
         <v>152</v>
       </c>
       <c r="P84" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -18828,10 +18846,10 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ84">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR84">
         <v>1.31</v>
@@ -19037,7 +19055,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ85">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR85">
         <v>1.32</v>
@@ -19162,7 +19180,7 @@
         <v>97</v>
       </c>
       <c r="P86" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -19240,10 +19258,10 @@
         <v>2.5</v>
       </c>
       <c r="AP86">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ86">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR86">
         <v>1.61</v>
@@ -19368,7 +19386,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -20810,7 +20828,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -21016,7 +21034,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -21506,10 +21524,10 @@
         <v>2</v>
       </c>
       <c r="AP97">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ97">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -21634,7 +21652,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21712,7 +21730,7 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ98">
         <v>1.5</v>
@@ -21918,10 +21936,10 @@
         <v>1.4</v>
       </c>
       <c r="AP99">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ99">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR99">
         <v>1.16</v>
@@ -22127,7 +22145,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ100">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR100">
         <v>1.35</v>
@@ -22330,7 +22348,7 @@
         <v>0.2</v>
       </c>
       <c r="AP101">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ101">
         <v>0.71</v>
@@ -22458,7 +22476,7 @@
         <v>97</v>
       </c>
       <c r="P102" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22539,7 +22557,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ102">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR102">
         <v>1.72</v>
@@ -22664,7 +22682,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q103">
         <v>2.63</v>
@@ -22742,10 +22760,10 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ103">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR103">
         <v>1.35</v>
@@ -22948,10 +22966,10 @@
         <v>0.5</v>
       </c>
       <c r="AP104">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ104">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR104">
         <v>1.31</v>
@@ -23154,7 +23172,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ105">
         <v>1.25</v>
@@ -23282,7 +23300,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q106">
         <v>1.83</v>
@@ -23363,7 +23381,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ106">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR106">
         <v>1.72</v>
@@ -23978,7 +23996,7 @@
         <v>1.2</v>
       </c>
       <c r="AP109">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ109">
         <v>0.88</v>
@@ -24393,7 +24411,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ111">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR111">
         <v>1.33</v>
@@ -24518,7 +24536,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24724,7 +24742,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24802,7 +24820,7 @@
         <v>0</v>
       </c>
       <c r="AP113">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ113">
         <v>0.71</v>
@@ -25011,7 +25029,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ114">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR114">
         <v>1.34</v>
@@ -25217,7 +25235,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ115">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR115">
         <v>1.49</v>
@@ -25626,7 +25644,7 @@
         <v>0.83</v>
       </c>
       <c r="AP117">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ117">
         <v>0.59</v>
@@ -25835,7 +25853,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ118">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR118">
         <v>1.41</v>
@@ -26038,10 +26056,10 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ119">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR119">
         <v>1.55</v>
@@ -26453,7 +26471,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ121">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR121">
         <v>1.32</v>
@@ -26656,7 +26674,7 @@
         <v>0</v>
       </c>
       <c r="AP122">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ122">
         <v>0.76</v>
@@ -27071,7 +27089,7 @@
         <v>2</v>
       </c>
       <c r="AQ124">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR124">
         <v>1.59</v>
@@ -27274,7 +27292,7 @@
         <v>1.8</v>
       </c>
       <c r="AP125">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ125">
         <v>1.5</v>
@@ -27608,7 +27626,7 @@
         <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27686,10 +27704,10 @@
         <v>1.57</v>
       </c>
       <c r="AP127">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ127">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR127">
         <v>1.11</v>
@@ -27892,10 +27910,10 @@
         <v>0.71</v>
       </c>
       <c r="AP128">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ128">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR128">
         <v>1.53</v>
@@ -28304,10 +28322,10 @@
         <v>1.29</v>
       </c>
       <c r="AP130">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ130">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR130">
         <v>1.4</v>
@@ -28432,7 +28450,7 @@
         <v>134</v>
       </c>
       <c r="P131" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28510,10 +28528,10 @@
         <v>1.33</v>
       </c>
       <c r="AP131">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ131">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR131">
         <v>1.7</v>
@@ -28638,7 +28656,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28716,10 +28734,10 @@
         <v>1.71</v>
       </c>
       <c r="AP132">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ132">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR132">
         <v>1.55</v>
@@ -28844,7 +28862,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q133">
         <v>3.75</v>
@@ -28922,10 +28940,10 @@
         <v>2.17</v>
       </c>
       <c r="AP133">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ133">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR133">
         <v>1.45</v>
@@ -29128,10 +29146,10 @@
         <v>0.33</v>
       </c>
       <c r="AP134">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ134">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR134">
         <v>1.52</v>
@@ -29256,7 +29274,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29334,10 +29352,10 @@
         <v>0.83</v>
       </c>
       <c r="AP135">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ135">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR135">
         <v>1.8</v>
@@ -30698,7 +30716,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -31110,7 +31128,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q144">
         <v>2.63</v>
@@ -31728,7 +31746,7 @@
         <v>97</v>
       </c>
       <c r="P147" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31806,10 +31824,10 @@
         <v>0.63</v>
       </c>
       <c r="AP147">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ147">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR147">
         <v>1.45</v>
@@ -32140,7 +32158,7 @@
         <v>178</v>
       </c>
       <c r="P149" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32218,7 +32236,7 @@
         <v>0.75</v>
       </c>
       <c r="AP149">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ149">
         <v>0.82</v>
@@ -32427,7 +32445,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ150">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR150">
         <v>1.83</v>
@@ -32552,7 +32570,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32836,7 +32854,7 @@
         <v>0</v>
       </c>
       <c r="AP152">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ152">
         <v>0.76</v>
@@ -32964,7 +32982,7 @@
         <v>203</v>
       </c>
       <c r="P153" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -33042,10 +33060,10 @@
         <v>1.57</v>
       </c>
       <c r="AP153">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ153">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR153">
         <v>1.48</v>
@@ -33251,7 +33269,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ154">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR154">
         <v>1.2</v>
@@ -33376,7 +33394,7 @@
         <v>123</v>
       </c>
       <c r="P155" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q155">
         <v>2.2</v>
@@ -33454,7 +33472,7 @@
         <v>1.14</v>
       </c>
       <c r="AP155">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ155">
         <v>0.88</v>
@@ -33582,7 +33600,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q156">
         <v>2.6</v>
@@ -33788,7 +33806,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34072,7 +34090,7 @@
         <v>1.17</v>
       </c>
       <c r="AP158">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ158">
         <v>0.82</v>
@@ -34200,7 +34218,7 @@
         <v>97</v>
       </c>
       <c r="P159" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34693,7 +34711,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ161">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR161">
         <v>1.58</v>
@@ -34899,7 +34917,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ162">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR162">
         <v>1.45</v>
@@ -35024,7 +35042,7 @@
         <v>208</v>
       </c>
       <c r="P163" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q163">
         <v>1.95</v>
@@ -35517,7 +35535,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ165">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR165">
         <v>1.87</v>
@@ -35720,10 +35738,10 @@
         <v>0.63</v>
       </c>
       <c r="AP166">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ166">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR166">
         <v>1.41</v>
@@ -35926,7 +35944,7 @@
         <v>0.22</v>
       </c>
       <c r="AP167">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ167">
         <v>0.71</v>
@@ -36132,7 +36150,7 @@
         <v>0.75</v>
       </c>
       <c r="AP168">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ168">
         <v>0.71</v>
@@ -36338,7 +36356,7 @@
         <v>1.38</v>
       </c>
       <c r="AP169">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ169">
         <v>0.9399999999999999</v>
@@ -36547,7 +36565,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ170">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR170">
         <v>1.36</v>
@@ -36753,7 +36771,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ171">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR171">
         <v>1.42</v>
@@ -36956,7 +36974,7 @@
         <v>0.13</v>
       </c>
       <c r="AP172">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ172">
         <v>0.76</v>
@@ -37162,7 +37180,7 @@
         <v>1.14</v>
       </c>
       <c r="AP173">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ173">
         <v>1.25</v>
@@ -37371,7 +37389,7 @@
         <v>2</v>
       </c>
       <c r="AQ174">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR174">
         <v>1.59</v>
@@ -37496,7 +37514,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37577,7 +37595,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ175">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR175">
         <v>1.48</v>
@@ -37702,7 +37720,7 @@
         <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q176">
         <v>5</v>
@@ -37783,7 +37801,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ176">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR176">
         <v>1.23</v>
@@ -37989,7 +38007,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ177">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR177">
         <v>1.44</v>
@@ -38114,7 +38132,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38320,7 +38338,7 @@
         <v>218</v>
       </c>
       <c r="P179" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q179">
         <v>2.88</v>
@@ -38398,7 +38416,7 @@
         <v>0.14</v>
       </c>
       <c r="AP179">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ179">
         <v>0.82</v>
@@ -38526,7 +38544,7 @@
         <v>189</v>
       </c>
       <c r="P180" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -38732,7 +38750,7 @@
         <v>97</v>
       </c>
       <c r="P181" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q181">
         <v>1.91</v>
@@ -38813,7 +38831,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ181">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR181">
         <v>1.83</v>
@@ -39016,7 +39034,7 @@
         <v>1.38</v>
       </c>
       <c r="AP182">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ182">
         <v>1.5</v>
@@ -39144,7 +39162,7 @@
         <v>97</v>
       </c>
       <c r="P183" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q183">
         <v>2.63</v>
@@ -39225,7 +39243,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ183">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR183">
         <v>1.56</v>
@@ -39431,7 +39449,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ184">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR184">
         <v>1.39</v>
@@ -39634,7 +39652,7 @@
         <v>0.44</v>
       </c>
       <c r="AP185">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ185">
         <v>0.76</v>
@@ -39843,7 +39861,7 @@
         <v>2</v>
       </c>
       <c r="AQ186">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR186">
         <v>1.68</v>
@@ -39968,7 +39986,7 @@
         <v>222</v>
       </c>
       <c r="P187" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q187">
         <v>3.4</v>
@@ -40046,7 +40064,7 @@
         <v>1.22</v>
       </c>
       <c r="AP187">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ187">
         <v>0.9399999999999999</v>
@@ -40252,7 +40270,7 @@
         <v>0.67</v>
       </c>
       <c r="AP188">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ188">
         <v>0.71</v>
@@ -40458,7 +40476,7 @@
         <v>0.5</v>
       </c>
       <c r="AP189">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ189">
         <v>0.71</v>
@@ -40792,7 +40810,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q191">
         <v>2.63</v>
@@ -40998,7 +41016,7 @@
         <v>226</v>
       </c>
       <c r="P192" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -41076,7 +41094,7 @@
         <v>1.5</v>
       </c>
       <c r="AP192">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ192">
         <v>1.06</v>
@@ -41204,7 +41222,7 @@
         <v>205</v>
       </c>
       <c r="P193" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41285,7 +41303,7 @@
         <v>1</v>
       </c>
       <c r="AQ193">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR193">
         <v>1.49</v>
@@ -41491,7 +41509,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ194">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR194">
         <v>1.49</v>
@@ -41616,7 +41634,7 @@
         <v>97</v>
       </c>
       <c r="P195" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q195">
         <v>2.4</v>
@@ -41694,7 +41712,7 @@
         <v>0.25</v>
       </c>
       <c r="AP195">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ195">
         <v>0.82</v>
@@ -42106,10 +42124,10 @@
         <v>0.25</v>
       </c>
       <c r="AP197">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ197">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR197">
         <v>1.69</v>
@@ -42315,7 +42333,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ198">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR198">
         <v>1.62</v>
@@ -42440,7 +42458,7 @@
         <v>228</v>
       </c>
       <c r="P199" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Q199">
         <v>2.6</v>
@@ -42852,7 +42870,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q201">
         <v>3.2</v>
@@ -42930,7 +42948,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP201">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ201">
         <v>0.82</v>
@@ -43136,7 +43154,7 @@
         <v>0.7</v>
       </c>
       <c r="AP202">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ202">
         <v>0.59</v>
@@ -43676,7 +43694,7 @@
         <v>233</v>
       </c>
       <c r="P205" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q205">
         <v>4.33</v>
@@ -43757,7 +43775,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ205">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR205">
         <v>1.34</v>
@@ -43960,10 +43978,10 @@
         <v>0.8</v>
       </c>
       <c r="AP206">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ206">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR206">
         <v>1.55</v>
@@ -44169,7 +44187,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ207">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR207">
         <v>1.49</v>
@@ -44375,7 +44393,7 @@
         <v>2</v>
       </c>
       <c r="AQ208">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR208">
         <v>1.67</v>
@@ -44500,7 +44518,7 @@
         <v>235</v>
       </c>
       <c r="P209" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q209">
         <v>2.6</v>
@@ -44787,7 +44805,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ210">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR210">
         <v>1.62</v>
@@ -44912,7 +44930,7 @@
         <v>97</v>
       </c>
       <c r="P211" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -44990,7 +45008,7 @@
         <v>0.91</v>
       </c>
       <c r="AP211">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ211">
         <v>0.82</v>
@@ -45196,7 +45214,7 @@
         <v>1.22</v>
       </c>
       <c r="AP212">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ212">
         <v>0.88</v>
@@ -45324,7 +45342,7 @@
         <v>134</v>
       </c>
       <c r="P213" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Q213">
         <v>2.88</v>
@@ -45402,7 +45420,7 @@
         <v>1.33</v>
       </c>
       <c r="AP213">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ213">
         <v>1.25</v>
@@ -46023,7 +46041,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ216">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR216">
         <v>1.85</v>
@@ -46148,7 +46166,7 @@
         <v>239</v>
       </c>
       <c r="P217" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -46226,7 +46244,7 @@
         <v>0.6</v>
       </c>
       <c r="AP217">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ217">
         <v>0.71</v>
@@ -46354,7 +46372,7 @@
         <v>240</v>
       </c>
       <c r="P218" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46435,7 +46453,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ218">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR218">
         <v>1.63</v>
@@ -46560,7 +46578,7 @@
         <v>201</v>
       </c>
       <c r="P219" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q219">
         <v>2.2</v>
@@ -46638,10 +46656,10 @@
         <v>0.3</v>
       </c>
       <c r="AP219">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ219">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR219">
         <v>1.75</v>
@@ -46766,7 +46784,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -46847,7 +46865,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ220">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR220">
         <v>1.24</v>
@@ -47053,7 +47071,7 @@
         <v>1</v>
       </c>
       <c r="AQ221">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR221">
         <v>1.44</v>
@@ -47384,7 +47402,7 @@
         <v>97</v>
       </c>
       <c r="P223" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q223">
         <v>2.75</v>
@@ -47462,7 +47480,7 @@
         <v>0.64</v>
       </c>
       <c r="AP223">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ223">
         <v>0.76</v>
@@ -47668,7 +47686,7 @@
         <v>0.8</v>
       </c>
       <c r="AP224">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ224">
         <v>0.82</v>
@@ -48080,10 +48098,10 @@
         <v>1.75</v>
       </c>
       <c r="AP226">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ226">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR226">
         <v>1.49</v>
@@ -48289,7 +48307,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ227">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR227">
         <v>1.48</v>
@@ -48495,7 +48513,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ228">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR228">
         <v>1.7</v>
@@ -48826,7 +48844,7 @@
         <v>248</v>
       </c>
       <c r="P230" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -49110,7 +49128,7 @@
         <v>0.67</v>
       </c>
       <c r="AP231">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ231">
         <v>0.59</v>
@@ -49444,7 +49462,7 @@
         <v>249</v>
       </c>
       <c r="P233" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49522,7 +49540,7 @@
         <v>1</v>
       </c>
       <c r="AP233">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ233">
         <v>0.82</v>
@@ -49856,7 +49874,7 @@
         <v>251</v>
       </c>
       <c r="P235" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="Q235">
         <v>3</v>
@@ -49934,7 +49952,7 @@
         <v>1.3</v>
       </c>
       <c r="AP235">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ235">
         <v>1.06</v>
@@ -50143,7 +50161,7 @@
         <v>2</v>
       </c>
       <c r="AQ236">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR236">
         <v>1.55</v>
@@ -50346,10 +50364,10 @@
         <v>1.64</v>
       </c>
       <c r="AP237">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ237">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR237">
         <v>1.83</v>
@@ -50552,7 +50570,7 @@
         <v>1.08</v>
       </c>
       <c r="AP238">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ238">
         <v>0.82</v>
@@ -50680,7 +50698,7 @@
         <v>148</v>
       </c>
       <c r="P239" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q239">
         <v>4</v>
@@ -51173,7 +51191,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ241">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR241">
         <v>1.42</v>
@@ -51298,7 +51316,7 @@
         <v>97</v>
       </c>
       <c r="P242" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Q242">
         <v>3.75</v>
@@ -51376,10 +51394,10 @@
         <v>1.45</v>
       </c>
       <c r="AP242">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ242">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR242">
         <v>1.78</v>
@@ -51582,10 +51600,10 @@
         <v>0.5</v>
       </c>
       <c r="AP243">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ243">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR243">
         <v>1.33</v>
@@ -51710,7 +51728,7 @@
         <v>256</v>
       </c>
       <c r="P244" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q244">
         <v>2.75</v>
@@ -51916,7 +51934,7 @@
         <v>97</v>
       </c>
       <c r="P245" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q245">
         <v>2.75</v>
@@ -51997,7 +52015,7 @@
         <v>1</v>
       </c>
       <c r="AQ245">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR245">
         <v>1.47</v>
@@ -52122,7 +52140,7 @@
         <v>257</v>
       </c>
       <c r="P246" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q246">
         <v>2.63</v>
@@ -52200,7 +52218,7 @@
         <v>1.25</v>
       </c>
       <c r="AP246">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ246">
         <v>1.25</v>
@@ -52534,7 +52552,7 @@
         <v>259</v>
       </c>
       <c r="P248" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52612,7 +52630,7 @@
         <v>1</v>
       </c>
       <c r="AP248">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ248">
         <v>0.82</v>
@@ -52946,7 +52964,7 @@
         <v>261</v>
       </c>
       <c r="P250" t="s">
-        <v>386</v>
+        <v>308</v>
       </c>
       <c r="Q250">
         <v>3.5</v>
@@ -53152,7 +53170,7 @@
         <v>97</v>
       </c>
       <c r="P251" t="s">
-        <v>387</v>
+        <v>309</v>
       </c>
       <c r="Q251">
         <v>2.75</v>
@@ -53233,7 +53251,7 @@
         <v>2</v>
       </c>
       <c r="AQ251">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR251">
         <v>1.54</v>
@@ -53436,7 +53454,7 @@
         <v>1.45</v>
       </c>
       <c r="AP252">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ252">
         <v>1.06</v>
@@ -54057,7 +54075,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ255">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR255">
         <v>1.3</v>
@@ -54260,10 +54278,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP256">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ256">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR256">
         <v>1.79</v>
@@ -54388,7 +54406,7 @@
         <v>97</v>
       </c>
       <c r="P257" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q257">
         <v>4</v>
@@ -54469,7 +54487,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ257">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR257">
         <v>1.41</v>
@@ -54881,7 +54899,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ259">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR259">
         <v>1.36</v>
@@ -55084,7 +55102,7 @@
         <v>0.62</v>
       </c>
       <c r="AP260">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ260">
         <v>0.59</v>
@@ -55212,7 +55230,7 @@
         <v>268</v>
       </c>
       <c r="P261" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q261">
         <v>2.5</v>
@@ -55290,10 +55308,10 @@
         <v>1.5</v>
       </c>
       <c r="AP261">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ261">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR261">
         <v>1.42</v>
@@ -55496,10 +55514,10 @@
         <v>0.92</v>
       </c>
       <c r="AP262">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ262">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR262">
         <v>1.31</v>
@@ -55624,7 +55642,7 @@
         <v>269</v>
       </c>
       <c r="P263" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q263">
         <v>3.75</v>
@@ -55908,7 +55926,7 @@
         <v>1.25</v>
       </c>
       <c r="AP264">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ264">
         <v>0.9399999999999999</v>
@@ -56036,7 +56054,7 @@
         <v>270</v>
       </c>
       <c r="P265" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q265">
         <v>3.6</v>
@@ -56114,7 +56132,7 @@
         <v>1.46</v>
       </c>
       <c r="AP265">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ265">
         <v>1.5</v>
@@ -56242,7 +56260,7 @@
         <v>138</v>
       </c>
       <c r="P266" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q266">
         <v>2.3</v>
@@ -56320,7 +56338,7 @@
         <v>0.83</v>
       </c>
       <c r="AP266">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ266">
         <v>0.82</v>
@@ -57066,7 +57084,7 @@
         <v>272</v>
       </c>
       <c r="P270" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q270">
         <v>3.25</v>
@@ -57765,7 +57783,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ273">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR273">
         <v>1.77</v>
@@ -58174,7 +58192,7 @@
         <v>1</v>
       </c>
       <c r="AP275">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ275">
         <v>0.82</v>
@@ -58586,10 +58604,10 @@
         <v>0.64</v>
       </c>
       <c r="AP277">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ277">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR277">
         <v>1.57</v>
@@ -58795,7 +58813,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ278">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR278">
         <v>1.43</v>
@@ -58920,7 +58938,7 @@
         <v>277</v>
       </c>
       <c r="P279" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q279">
         <v>2.75</v>
@@ -58998,7 +59016,7 @@
         <v>1.23</v>
       </c>
       <c r="AP279">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ279">
         <v>1.25</v>
@@ -59204,10 +59222,10 @@
         <v>1.69</v>
       </c>
       <c r="AP280">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ280">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR280">
         <v>1.46</v>
@@ -59332,7 +59350,7 @@
         <v>278</v>
       </c>
       <c r="P281" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q281">
         <v>2.3</v>
@@ -59410,10 +59428,10 @@
         <v>0.79</v>
       </c>
       <c r="AP281">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ281">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR281">
         <v>1.45</v>
@@ -59616,10 +59634,10 @@
         <v>1.79</v>
       </c>
       <c r="AP282">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ282">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR282">
         <v>1.85</v>
@@ -59744,7 +59762,7 @@
         <v>97</v>
       </c>
       <c r="P283" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q283">
         <v>3.4</v>
@@ -59822,10 +59840,10 @@
         <v>1.38</v>
       </c>
       <c r="AP283">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ283">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR283">
         <v>1.56</v>
@@ -59950,7 +59968,7 @@
         <v>279</v>
       </c>
       <c r="P284" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q284">
         <v>3.1</v>
@@ -60028,7 +60046,7 @@
         <v>1.43</v>
       </c>
       <c r="AP284">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ284">
         <v>1.5</v>
@@ -60234,10 +60252,10 @@
         <v>1.15</v>
       </c>
       <c r="AP285">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ285">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR285">
         <v>1.31</v>
@@ -60362,7 +60380,7 @@
         <v>125</v>
       </c>
       <c r="P286" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q286">
         <v>2.38</v>
@@ -60443,7 +60461,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ286">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR286">
         <v>1.35</v>
@@ -60568,7 +60586,7 @@
         <v>281</v>
       </c>
       <c r="P287" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q287">
         <v>2.63</v>
@@ -60646,7 +60664,7 @@
         <v>1</v>
       </c>
       <c r="AP287">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ287">
         <v>0.82</v>
@@ -61186,7 +61204,7 @@
         <v>283</v>
       </c>
       <c r="P290" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q290">
         <v>2.2</v>
@@ -61264,7 +61282,7 @@
         <v>1.14</v>
       </c>
       <c r="AP290">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ290">
         <v>0.9399999999999999</v>
@@ -62628,7 +62646,7 @@
         <v>286</v>
       </c>
       <c r="P297" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q297">
         <v>5</v>
@@ -62709,7 +62727,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ297">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR297">
         <v>1.4</v>
@@ -63246,7 +63264,7 @@
         <v>288</v>
       </c>
       <c r="P300" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q300">
         <v>1.91</v>
@@ -63327,7 +63345,7 @@
         <v>2</v>
       </c>
       <c r="AQ300">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AR300">
         <v>1.66</v>
@@ -63658,7 +63676,7 @@
         <v>290</v>
       </c>
       <c r="P302" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q302">
         <v>1.83</v>
@@ -63942,10 +63960,10 @@
         <v>0.6</v>
       </c>
       <c r="AP303">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ303">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR303">
         <v>1.42</v>
@@ -64148,10 +64166,10 @@
         <v>0.87</v>
       </c>
       <c r="AP304">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ304">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR304">
         <v>1.86</v>
@@ -64276,7 +64294,7 @@
         <v>264</v>
       </c>
       <c r="P305" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q305">
         <v>4</v>
@@ -64354,7 +64372,7 @@
         <v>1.4</v>
       </c>
       <c r="AP305">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ305">
         <v>1.5</v>
@@ -64560,10 +64578,10 @@
         <v>1.87</v>
       </c>
       <c r="AP306">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ306">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AR306">
         <v>1.46</v>
@@ -64766,10 +64784,10 @@
         <v>1.07</v>
       </c>
       <c r="AP307">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ307">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR307">
         <v>1.57</v>
@@ -64972,7 +64990,7 @@
         <v>0.4</v>
       </c>
       <c r="AP308">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AQ308">
         <v>0.71</v>
@@ -65100,7 +65118,7 @@
         <v>293</v>
       </c>
       <c r="P309" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q309">
         <v>3.4</v>
@@ -65387,7 +65405,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ310">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR310">
         <v>1.72</v>
@@ -65512,7 +65530,7 @@
         <v>295</v>
       </c>
       <c r="P311" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q311">
         <v>3</v>
@@ -65796,7 +65814,7 @@
         <v>0.87</v>
       </c>
       <c r="AP312">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ312">
         <v>0.88</v>
@@ -65924,7 +65942,7 @@
         <v>227</v>
       </c>
       <c r="P313" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q313">
         <v>2.4</v>
@@ -66002,10 +66020,10 @@
         <v>0.8</v>
       </c>
       <c r="AP313">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ313">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR313">
         <v>1.85</v>
@@ -66130,7 +66148,7 @@
         <v>97</v>
       </c>
       <c r="P314" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q314">
         <v>3.25</v>
@@ -66414,10 +66432,10 @@
         <v>1.73</v>
       </c>
       <c r="AP315">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ315">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR315">
         <v>1.77</v>
@@ -66748,7 +66766,7 @@
         <v>97</v>
       </c>
       <c r="P317" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q317">
         <v>2.88</v>
@@ -66826,10 +66844,10 @@
         <v>1.07</v>
       </c>
       <c r="AP317">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ317">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR317">
         <v>1.52</v>
@@ -67447,7 +67465,7 @@
         <v>2</v>
       </c>
       <c r="AQ320">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AR320">
         <v>1.53</v>
@@ -68190,7 +68208,7 @@
         <v>118</v>
       </c>
       <c r="P324" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q324">
         <v>3.75</v>
@@ -68602,7 +68620,7 @@
         <v>302</v>
       </c>
       <c r="P326" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q326">
         <v>2.25</v>
@@ -68808,7 +68826,7 @@
         <v>303</v>
       </c>
       <c r="P327" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q327">
         <v>3.2</v>
@@ -69710,7 +69728,7 @@
         <v>1.13</v>
       </c>
       <c r="AP331">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ331">
         <v>1.06</v>
@@ -69789,6 +69807,1654 @@
       </c>
       <c r="BP331">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="332" spans="1:68">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>7373609</v>
+      </c>
+      <c r="C332" t="s">
+        <v>68</v>
+      </c>
+      <c r="D332" t="s">
+        <v>69</v>
+      </c>
+      <c r="E332" s="2">
+        <v>45616.45833333334</v>
+      </c>
+      <c r="F332">
+        <v>34</v>
+      </c>
+      <c r="G332" t="s">
+        <v>77</v>
+      </c>
+      <c r="H332" t="s">
+        <v>78</v>
+      </c>
+      <c r="I332">
+        <v>2</v>
+      </c>
+      <c r="J332">
+        <v>1</v>
+      </c>
+      <c r="K332">
+        <v>3</v>
+      </c>
+      <c r="L332">
+        <v>2</v>
+      </c>
+      <c r="M332">
+        <v>1</v>
+      </c>
+      <c r="N332">
+        <v>3</v>
+      </c>
+      <c r="O332" t="s">
+        <v>306</v>
+      </c>
+      <c r="P332" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q332">
+        <v>1.95</v>
+      </c>
+      <c r="R332">
+        <v>2.3</v>
+      </c>
+      <c r="S332">
+        <v>7.5</v>
+      </c>
+      <c r="T332">
+        <v>1.5</v>
+      </c>
+      <c r="U332">
+        <v>2.5</v>
+      </c>
+      <c r="V332">
+        <v>3.4</v>
+      </c>
+      <c r="W332">
+        <v>1.3</v>
+      </c>
+      <c r="X332">
+        <v>10</v>
+      </c>
+      <c r="Y332">
+        <v>1.06</v>
+      </c>
+      <c r="Z332">
+        <v>1.4</v>
+      </c>
+      <c r="AA332">
+        <v>4.5</v>
+      </c>
+      <c r="AB332">
+        <v>7.5</v>
+      </c>
+      <c r="AC332">
+        <v>1.07</v>
+      </c>
+      <c r="AD332">
+        <v>8.5</v>
+      </c>
+      <c r="AE332">
+        <v>1.42</v>
+      </c>
+      <c r="AF332">
+        <v>2.85</v>
+      </c>
+      <c r="AG332">
+        <v>1.95</v>
+      </c>
+      <c r="AH332">
+        <v>1.85</v>
+      </c>
+      <c r="AI332">
+        <v>2.2</v>
+      </c>
+      <c r="AJ332">
+        <v>1.62</v>
+      </c>
+      <c r="AK332">
+        <v>1.06</v>
+      </c>
+      <c r="AL332">
+        <v>1.17</v>
+      </c>
+      <c r="AM332">
+        <v>2.95</v>
+      </c>
+      <c r="AN332">
+        <v>1.81</v>
+      </c>
+      <c r="AO332">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP332">
+        <v>1.88</v>
+      </c>
+      <c r="AQ332">
+        <v>0.76</v>
+      </c>
+      <c r="AR332">
+        <v>1.71</v>
+      </c>
+      <c r="AS332">
+        <v>1.25</v>
+      </c>
+      <c r="AT332">
+        <v>2.96</v>
+      </c>
+      <c r="AU332">
+        <v>10</v>
+      </c>
+      <c r="AV332">
+        <v>3</v>
+      </c>
+      <c r="AW332">
+        <v>4</v>
+      </c>
+      <c r="AX332">
+        <v>6</v>
+      </c>
+      <c r="AY332">
+        <v>15</v>
+      </c>
+      <c r="AZ332">
+        <v>9</v>
+      </c>
+      <c r="BA332">
+        <v>3</v>
+      </c>
+      <c r="BB332">
+        <v>4</v>
+      </c>
+      <c r="BC332">
+        <v>7</v>
+      </c>
+      <c r="BD332">
+        <v>1.35</v>
+      </c>
+      <c r="BE332">
+        <v>7</v>
+      </c>
+      <c r="BF332">
+        <v>3.55</v>
+      </c>
+      <c r="BG332">
+        <v>1.15</v>
+      </c>
+      <c r="BH332">
+        <v>4.6</v>
+      </c>
+      <c r="BI332">
+        <v>1.28</v>
+      </c>
+      <c r="BJ332">
+        <v>3.3</v>
+      </c>
+      <c r="BK332">
+        <v>2.1</v>
+      </c>
+      <c r="BL332">
+        <v>2.45</v>
+      </c>
+      <c r="BM332">
+        <v>1.75</v>
+      </c>
+      <c r="BN332">
+        <v>1.95</v>
+      </c>
+      <c r="BO332">
+        <v>2.15</v>
+      </c>
+      <c r="BP332">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="333" spans="1:68">
+      <c r="A333" s="1">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>7373617</v>
+      </c>
+      <c r="C333" t="s">
+        <v>68</v>
+      </c>
+      <c r="D333" t="s">
+        <v>69</v>
+      </c>
+      <c r="E333" s="2">
+        <v>45616.6875</v>
+      </c>
+      <c r="F333">
+        <v>34</v>
+      </c>
+      <c r="G333" t="s">
+        <v>71</v>
+      </c>
+      <c r="H333" t="s">
+        <v>79</v>
+      </c>
+      <c r="I333">
+        <v>0</v>
+      </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
+      <c r="K333">
+        <v>0</v>
+      </c>
+      <c r="L333">
+        <v>0</v>
+      </c>
+      <c r="M333">
+        <v>1</v>
+      </c>
+      <c r="N333">
+        <v>1</v>
+      </c>
+      <c r="O333" t="s">
+        <v>97</v>
+      </c>
+      <c r="P333" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q333">
+        <v>2.88</v>
+      </c>
+      <c r="R333">
+        <v>2.05</v>
+      </c>
+      <c r="S333">
+        <v>4</v>
+      </c>
+      <c r="T333">
+        <v>1.44</v>
+      </c>
+      <c r="U333">
+        <v>2.63</v>
+      </c>
+      <c r="V333">
+        <v>3.4</v>
+      </c>
+      <c r="W333">
+        <v>1.3</v>
+      </c>
+      <c r="X333">
+        <v>10</v>
+      </c>
+      <c r="Y333">
+        <v>1.06</v>
+      </c>
+      <c r="Z333">
+        <v>2.1</v>
+      </c>
+      <c r="AA333">
+        <v>3.3</v>
+      </c>
+      <c r="AB333">
+        <v>3.6</v>
+      </c>
+      <c r="AC333">
+        <v>1.07</v>
+      </c>
+      <c r="AD333">
+        <v>9</v>
+      </c>
+      <c r="AE333">
+        <v>1.38</v>
+      </c>
+      <c r="AF333">
+        <v>3</v>
+      </c>
+      <c r="AG333">
+        <v>2.1</v>
+      </c>
+      <c r="AH333">
+        <v>1.65</v>
+      </c>
+      <c r="AI333">
+        <v>1.95</v>
+      </c>
+      <c r="AJ333">
+        <v>1.8</v>
+      </c>
+      <c r="AK333">
+        <v>1.3</v>
+      </c>
+      <c r="AL333">
+        <v>1.28</v>
+      </c>
+      <c r="AM333">
+        <v>1.72</v>
+      </c>
+      <c r="AN333">
+        <v>1.44</v>
+      </c>
+      <c r="AO333">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP333">
+        <v>1.35</v>
+      </c>
+      <c r="AQ333">
+        <v>1.06</v>
+      </c>
+      <c r="AR333">
+        <v>1.54</v>
+      </c>
+      <c r="AS333">
+        <v>1.19</v>
+      </c>
+      <c r="AT333">
+        <v>2.73</v>
+      </c>
+      <c r="AU333">
+        <v>2</v>
+      </c>
+      <c r="AV333">
+        <v>4</v>
+      </c>
+      <c r="AW333">
+        <v>8</v>
+      </c>
+      <c r="AX333">
+        <v>8</v>
+      </c>
+      <c r="AY333">
+        <v>14</v>
+      </c>
+      <c r="AZ333">
+        <v>15</v>
+      </c>
+      <c r="BA333">
+        <v>6</v>
+      </c>
+      <c r="BB333">
+        <v>5</v>
+      </c>
+      <c r="BC333">
+        <v>11</v>
+      </c>
+      <c r="BD333">
+        <v>1.8</v>
+      </c>
+      <c r="BE333">
+        <v>6.75</v>
+      </c>
+      <c r="BF333">
+        <v>2.17</v>
+      </c>
+      <c r="BG333">
+        <v>1.2</v>
+      </c>
+      <c r="BH333">
+        <v>3.9</v>
+      </c>
+      <c r="BI333">
+        <v>1.37</v>
+      </c>
+      <c r="BJ333">
+        <v>2.8</v>
+      </c>
+      <c r="BK333">
+        <v>1.91</v>
+      </c>
+      <c r="BL333">
+        <v>2.15</v>
+      </c>
+      <c r="BM333">
+        <v>1.97</v>
+      </c>
+      <c r="BN333">
+        <v>1.73</v>
+      </c>
+      <c r="BO333">
+        <v>2.48</v>
+      </c>
+      <c r="BP333">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="334" spans="1:68">
+      <c r="A334" s="1">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>7373613</v>
+      </c>
+      <c r="C334" t="s">
+        <v>68</v>
+      </c>
+      <c r="D334" t="s">
+        <v>69</v>
+      </c>
+      <c r="E334" s="2">
+        <v>45616.6875</v>
+      </c>
+      <c r="F334">
+        <v>34</v>
+      </c>
+      <c r="G334" t="s">
+        <v>74</v>
+      </c>
+      <c r="H334" t="s">
+        <v>75</v>
+      </c>
+      <c r="I334">
+        <v>1</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334">
+        <v>1</v>
+      </c>
+      <c r="L334">
+        <v>2</v>
+      </c>
+      <c r="M334">
+        <v>0</v>
+      </c>
+      <c r="N334">
+        <v>2</v>
+      </c>
+      <c r="O334" t="s">
+        <v>307</v>
+      </c>
+      <c r="P334" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q334">
+        <v>2.1</v>
+      </c>
+      <c r="R334">
+        <v>2.2</v>
+      </c>
+      <c r="S334">
+        <v>6</v>
+      </c>
+      <c r="T334">
+        <v>1.4</v>
+      </c>
+      <c r="U334">
+        <v>2.75</v>
+      </c>
+      <c r="V334">
+        <v>3</v>
+      </c>
+      <c r="W334">
+        <v>1.36</v>
+      </c>
+      <c r="X334">
+        <v>8</v>
+      </c>
+      <c r="Y334">
+        <v>1.08</v>
+      </c>
+      <c r="Z334">
+        <v>1.55</v>
+      </c>
+      <c r="AA334">
+        <v>3.9</v>
+      </c>
+      <c r="AB334">
+        <v>6</v>
+      </c>
+      <c r="AC334">
+        <v>1.05</v>
+      </c>
+      <c r="AD334">
+        <v>11</v>
+      </c>
+      <c r="AE334">
+        <v>1.3</v>
+      </c>
+      <c r="AF334">
+        <v>3.4</v>
+      </c>
+      <c r="AG334">
+        <v>2</v>
+      </c>
+      <c r="AH334">
+        <v>1.88</v>
+      </c>
+      <c r="AI334">
+        <v>2</v>
+      </c>
+      <c r="AJ334">
+        <v>1.75</v>
+      </c>
+      <c r="AK334">
+        <v>1.12</v>
+      </c>
+      <c r="AL334">
+        <v>1.2</v>
+      </c>
+      <c r="AM334">
+        <v>2.4</v>
+      </c>
+      <c r="AN334">
+        <v>1.31</v>
+      </c>
+      <c r="AO334">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP334">
+        <v>1.41</v>
+      </c>
+      <c r="AQ334">
+        <v>0.53</v>
+      </c>
+      <c r="AR334">
+        <v>1.87</v>
+      </c>
+      <c r="AS334">
+        <v>1.42</v>
+      </c>
+      <c r="AT334">
+        <v>3.29</v>
+      </c>
+      <c r="AU334">
+        <v>9</v>
+      </c>
+      <c r="AV334">
+        <v>7</v>
+      </c>
+      <c r="AW334">
+        <v>3</v>
+      </c>
+      <c r="AX334">
+        <v>7</v>
+      </c>
+      <c r="AY334">
+        <v>12</v>
+      </c>
+      <c r="AZ334">
+        <v>21</v>
+      </c>
+      <c r="BA334">
+        <v>6</v>
+      </c>
+      <c r="BB334">
+        <v>9</v>
+      </c>
+      <c r="BC334">
+        <v>15</v>
+      </c>
+      <c r="BD334">
+        <v>1.38</v>
+      </c>
+      <c r="BE334">
+        <v>7</v>
+      </c>
+      <c r="BF334">
+        <v>3.4</v>
+      </c>
+      <c r="BG334">
+        <v>1.24</v>
+      </c>
+      <c r="BH334">
+        <v>3.55</v>
+      </c>
+      <c r="BI334">
+        <v>1.44</v>
+      </c>
+      <c r="BJ334">
+        <v>2.55</v>
+      </c>
+      <c r="BK334">
+        <v>1.83</v>
+      </c>
+      <c r="BL334">
+        <v>1.98</v>
+      </c>
+      <c r="BM334">
+        <v>2.12</v>
+      </c>
+      <c r="BN334">
+        <v>1.63</v>
+      </c>
+      <c r="BO334">
+        <v>2.65</v>
+      </c>
+      <c r="BP334">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:68">
+      <c r="A335" s="1">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>7373611</v>
+      </c>
+      <c r="C335" t="s">
+        <v>68</v>
+      </c>
+      <c r="D335" t="s">
+        <v>69</v>
+      </c>
+      <c r="E335" s="2">
+        <v>45616.6875</v>
+      </c>
+      <c r="F335">
+        <v>34</v>
+      </c>
+      <c r="G335" t="s">
+        <v>82</v>
+      </c>
+      <c r="H335" t="s">
+        <v>73</v>
+      </c>
+      <c r="I335">
+        <v>1</v>
+      </c>
+      <c r="J335">
+        <v>1</v>
+      </c>
+      <c r="K335">
+        <v>2</v>
+      </c>
+      <c r="L335">
+        <v>1</v>
+      </c>
+      <c r="M335">
+        <v>1</v>
+      </c>
+      <c r="N335">
+        <v>2</v>
+      </c>
+      <c r="O335" t="s">
+        <v>228</v>
+      </c>
+      <c r="P335" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q335">
+        <v>3.4</v>
+      </c>
+      <c r="R335">
+        <v>1.91</v>
+      </c>
+      <c r="S335">
+        <v>3.75</v>
+      </c>
+      <c r="T335">
+        <v>1.53</v>
+      </c>
+      <c r="U335">
+        <v>2.38</v>
+      </c>
+      <c r="V335">
+        <v>3.75</v>
+      </c>
+      <c r="W335">
+        <v>1.25</v>
+      </c>
+      <c r="X335">
+        <v>11</v>
+      </c>
+      <c r="Y335">
+        <v>1.05</v>
+      </c>
+      <c r="Z335">
+        <v>2.7</v>
+      </c>
+      <c r="AA335">
+        <v>3.2</v>
+      </c>
+      <c r="AB335">
+        <v>2.6</v>
+      </c>
+      <c r="AC335">
+        <v>1.09</v>
+      </c>
+      <c r="AD335">
+        <v>7.5</v>
+      </c>
+      <c r="AE335">
+        <v>1.45</v>
+      </c>
+      <c r="AF335">
+        <v>2.7</v>
+      </c>
+      <c r="AG335">
+        <v>2.4</v>
+      </c>
+      <c r="AH335">
+        <v>1.5</v>
+      </c>
+      <c r="AI335">
+        <v>2.05</v>
+      </c>
+      <c r="AJ335">
+        <v>1.7</v>
+      </c>
+      <c r="AK335">
+        <v>1.5</v>
+      </c>
+      <c r="AL335">
+        <v>1.33</v>
+      </c>
+      <c r="AM335">
+        <v>1.44</v>
+      </c>
+      <c r="AN335">
+        <v>1.63</v>
+      </c>
+      <c r="AO335">
+        <v>1.19</v>
+      </c>
+      <c r="AP335">
+        <v>1.59</v>
+      </c>
+      <c r="AQ335">
+        <v>1.18</v>
+      </c>
+      <c r="AR335">
+        <v>1.44</v>
+      </c>
+      <c r="AS335">
+        <v>1.26</v>
+      </c>
+      <c r="AT335">
+        <v>2.7</v>
+      </c>
+      <c r="AU335">
+        <v>6</v>
+      </c>
+      <c r="AV335">
+        <v>3</v>
+      </c>
+      <c r="AW335">
+        <v>11</v>
+      </c>
+      <c r="AX335">
+        <v>4</v>
+      </c>
+      <c r="AY335">
+        <v>19</v>
+      </c>
+      <c r="AZ335">
+        <v>11</v>
+      </c>
+      <c r="BA335">
+        <v>1</v>
+      </c>
+      <c r="BB335">
+        <v>1</v>
+      </c>
+      <c r="BC335">
+        <v>2</v>
+      </c>
+      <c r="BD335">
+        <v>1.83</v>
+      </c>
+      <c r="BE335">
+        <v>6.75</v>
+      </c>
+      <c r="BF335">
+        <v>2.15</v>
+      </c>
+      <c r="BG335">
+        <v>1.24</v>
+      </c>
+      <c r="BH335">
+        <v>3.55</v>
+      </c>
+      <c r="BI335">
+        <v>1.44</v>
+      </c>
+      <c r="BJ335">
+        <v>2.55</v>
+      </c>
+      <c r="BK335">
+        <v>2</v>
+      </c>
+      <c r="BL335">
+        <v>1.98</v>
+      </c>
+      <c r="BM335">
+        <v>2.14</v>
+      </c>
+      <c r="BN335">
+        <v>1.62</v>
+      </c>
+      <c r="BO335">
+        <v>2.7</v>
+      </c>
+      <c r="BP335">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:68">
+      <c r="A336" s="1">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>7373603</v>
+      </c>
+      <c r="C336" t="s">
+        <v>68</v>
+      </c>
+      <c r="D336" t="s">
+        <v>69</v>
+      </c>
+      <c r="E336" s="2">
+        <v>45616.75</v>
+      </c>
+      <c r="F336">
+        <v>34</v>
+      </c>
+      <c r="G336" t="s">
+        <v>80</v>
+      </c>
+      <c r="H336" t="s">
+        <v>83</v>
+      </c>
+      <c r="I336">
+        <v>1</v>
+      </c>
+      <c r="J336">
+        <v>1</v>
+      </c>
+      <c r="K336">
+        <v>2</v>
+      </c>
+      <c r="L336">
+        <v>1</v>
+      </c>
+      <c r="M336">
+        <v>2</v>
+      </c>
+      <c r="N336">
+        <v>3</v>
+      </c>
+      <c r="O336" t="s">
+        <v>308</v>
+      </c>
+      <c r="P336" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q336">
+        <v>3.6</v>
+      </c>
+      <c r="R336">
+        <v>2.25</v>
+      </c>
+      <c r="S336">
+        <v>2.75</v>
+      </c>
+      <c r="T336">
+        <v>1.44</v>
+      </c>
+      <c r="U336">
+        <v>2.63</v>
+      </c>
+      <c r="V336">
+        <v>3.25</v>
+      </c>
+      <c r="W336">
+        <v>1.33</v>
+      </c>
+      <c r="X336">
+        <v>10</v>
+      </c>
+      <c r="Y336">
+        <v>1.06</v>
+      </c>
+      <c r="Z336">
+        <v>3.2</v>
+      </c>
+      <c r="AA336">
+        <v>3.5</v>
+      </c>
+      <c r="AB336">
+        <v>2.15</v>
+      </c>
+      <c r="AC336">
+        <v>1.06</v>
+      </c>
+      <c r="AD336">
+        <v>10</v>
+      </c>
+      <c r="AE336">
+        <v>1.36</v>
+      </c>
+      <c r="AF336">
+        <v>3.1</v>
+      </c>
+      <c r="AG336">
+        <v>1.67</v>
+      </c>
+      <c r="AH336">
+        <v>2.15</v>
+      </c>
+      <c r="AI336">
+        <v>1.62</v>
+      </c>
+      <c r="AJ336">
+        <v>2.2</v>
+      </c>
+      <c r="AK336">
+        <v>1.66</v>
+      </c>
+      <c r="AL336">
+        <v>1.25</v>
+      </c>
+      <c r="AM336">
+        <v>1.36</v>
+      </c>
+      <c r="AN336">
+        <v>2</v>
+      </c>
+      <c r="AO336">
+        <v>1.63</v>
+      </c>
+      <c r="AP336">
+        <v>1.88</v>
+      </c>
+      <c r="AQ336">
+        <v>1.71</v>
+      </c>
+      <c r="AR336">
+        <v>1.55</v>
+      </c>
+      <c r="AS336">
+        <v>1.57</v>
+      </c>
+      <c r="AT336">
+        <v>3.12</v>
+      </c>
+      <c r="AU336">
+        <v>7</v>
+      </c>
+      <c r="AV336">
+        <v>3</v>
+      </c>
+      <c r="AW336">
+        <v>9</v>
+      </c>
+      <c r="AX336">
+        <v>3</v>
+      </c>
+      <c r="AY336">
+        <v>19</v>
+      </c>
+      <c r="AZ336">
+        <v>13</v>
+      </c>
+      <c r="BA336">
+        <v>4</v>
+      </c>
+      <c r="BB336">
+        <v>5</v>
+      </c>
+      <c r="BC336">
+        <v>9</v>
+      </c>
+      <c r="BD336">
+        <v>2.17</v>
+      </c>
+      <c r="BE336">
+        <v>6.5</v>
+      </c>
+      <c r="BF336">
+        <v>1.83</v>
+      </c>
+      <c r="BG336">
+        <v>1.55</v>
+      </c>
+      <c r="BH336">
+        <v>2.25</v>
+      </c>
+      <c r="BI336">
+        <v>1.92</v>
+      </c>
+      <c r="BJ336">
+        <v>1.77</v>
+      </c>
+      <c r="BK336">
+        <v>2.1</v>
+      </c>
+      <c r="BL336">
+        <v>1.46</v>
+      </c>
+      <c r="BM336">
+        <v>3.3</v>
+      </c>
+      <c r="BN336">
+        <v>1.27</v>
+      </c>
+      <c r="BO336">
+        <v>4.4</v>
+      </c>
+      <c r="BP336">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="337" spans="1:68">
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>7373615</v>
+      </c>
+      <c r="C337" t="s">
+        <v>68</v>
+      </c>
+      <c r="D337" t="s">
+        <v>69</v>
+      </c>
+      <c r="E337" s="2">
+        <v>45616.79166666666</v>
+      </c>
+      <c r="F337">
+        <v>34</v>
+      </c>
+      <c r="G337" t="s">
+        <v>89</v>
+      </c>
+      <c r="H337" t="s">
+        <v>87</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337">
+        <v>0</v>
+      </c>
+      <c r="L337">
+        <v>1</v>
+      </c>
+      <c r="M337">
+        <v>2</v>
+      </c>
+      <c r="N337">
+        <v>3</v>
+      </c>
+      <c r="O337" t="s">
+        <v>309</v>
+      </c>
+      <c r="P337" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q337">
+        <v>4.75</v>
+      </c>
+      <c r="R337">
+        <v>2</v>
+      </c>
+      <c r="S337">
+        <v>2.75</v>
+      </c>
+      <c r="T337">
+        <v>1.53</v>
+      </c>
+      <c r="U337">
+        <v>2.38</v>
+      </c>
+      <c r="V337">
+        <v>3.75</v>
+      </c>
+      <c r="W337">
+        <v>1.25</v>
+      </c>
+      <c r="X337">
+        <v>11</v>
+      </c>
+      <c r="Y337">
+        <v>1.05</v>
+      </c>
+      <c r="Z337">
+        <v>3.9</v>
+      </c>
+      <c r="AA337">
+        <v>3.4</v>
+      </c>
+      <c r="AB337">
+        <v>1.95</v>
+      </c>
+      <c r="AC337">
+        <v>1.08</v>
+      </c>
+      <c r="AD337">
+        <v>8</v>
+      </c>
+      <c r="AE337">
+        <v>1.5</v>
+      </c>
+      <c r="AF337">
+        <v>2.4</v>
+      </c>
+      <c r="AG337">
+        <v>2.3</v>
+      </c>
+      <c r="AH337">
+        <v>1.6</v>
+      </c>
+      <c r="AI337">
+        <v>2.05</v>
+      </c>
+      <c r="AJ337">
+        <v>1.7</v>
+      </c>
+      <c r="AK337">
+        <v>1.87</v>
+      </c>
+      <c r="AL337">
+        <v>1.25</v>
+      </c>
+      <c r="AM337">
+        <v>1.22</v>
+      </c>
+      <c r="AN337">
+        <v>0.88</v>
+      </c>
+      <c r="AO337">
+        <v>1.56</v>
+      </c>
+      <c r="AP337">
+        <v>0.82</v>
+      </c>
+      <c r="AQ337">
+        <v>1.65</v>
+      </c>
+      <c r="AR337">
+        <v>1.28</v>
+      </c>
+      <c r="AS337">
+        <v>1.45</v>
+      </c>
+      <c r="AT337">
+        <v>2.73</v>
+      </c>
+      <c r="AU337">
+        <v>5</v>
+      </c>
+      <c r="AV337">
+        <v>8</v>
+      </c>
+      <c r="AW337">
+        <v>2</v>
+      </c>
+      <c r="AX337">
+        <v>8</v>
+      </c>
+      <c r="AY337">
+        <v>7</v>
+      </c>
+      <c r="AZ337">
+        <v>20</v>
+      </c>
+      <c r="BA337">
+        <v>4</v>
+      </c>
+      <c r="BB337">
+        <v>11</v>
+      </c>
+      <c r="BC337">
+        <v>15</v>
+      </c>
+      <c r="BD337">
+        <v>2.4</v>
+      </c>
+      <c r="BE337">
+        <v>6.75</v>
+      </c>
+      <c r="BF337">
+        <v>1.68</v>
+      </c>
+      <c r="BG337">
+        <v>1.26</v>
+      </c>
+      <c r="BH337">
+        <v>3.4</v>
+      </c>
+      <c r="BI337">
+        <v>1.46</v>
+      </c>
+      <c r="BJ337">
+        <v>2.48</v>
+      </c>
+      <c r="BK337">
+        <v>2.1</v>
+      </c>
+      <c r="BL337">
+        <v>1.92</v>
+      </c>
+      <c r="BM337">
+        <v>2.2</v>
+      </c>
+      <c r="BN337">
+        <v>1.57</v>
+      </c>
+      <c r="BO337">
+        <v>2.8</v>
+      </c>
+      <c r="BP337">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="338" spans="1:68">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>7373599</v>
+      </c>
+      <c r="C338" t="s">
+        <v>68</v>
+      </c>
+      <c r="D338" t="s">
+        <v>69</v>
+      </c>
+      <c r="E338" s="2">
+        <v>45616.79166666666</v>
+      </c>
+      <c r="F338">
+        <v>34</v>
+      </c>
+      <c r="G338" t="s">
+        <v>81</v>
+      </c>
+      <c r="H338" t="s">
+        <v>85</v>
+      </c>
+      <c r="I338">
+        <v>1</v>
+      </c>
+      <c r="J338">
+        <v>1</v>
+      </c>
+      <c r="K338">
+        <v>2</v>
+      </c>
+      <c r="L338">
+        <v>2</v>
+      </c>
+      <c r="M338">
+        <v>2</v>
+      </c>
+      <c r="N338">
+        <v>4</v>
+      </c>
+      <c r="O338" t="s">
+        <v>310</v>
+      </c>
+      <c r="P338" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q338">
+        <v>2.4</v>
+      </c>
+      <c r="R338">
+        <v>2.2</v>
+      </c>
+      <c r="S338">
+        <v>4.75</v>
+      </c>
+      <c r="T338">
+        <v>1.36</v>
+      </c>
+      <c r="U338">
+        <v>3</v>
+      </c>
+      <c r="V338">
+        <v>2.75</v>
+      </c>
+      <c r="W338">
+        <v>1.4</v>
+      </c>
+      <c r="X338">
+        <v>7</v>
+      </c>
+      <c r="Y338">
+        <v>1.1</v>
+      </c>
+      <c r="Z338">
+        <v>1.8</v>
+      </c>
+      <c r="AA338">
+        <v>3.5</v>
+      </c>
+      <c r="AB338">
+        <v>4.75</v>
+      </c>
+      <c r="AC338">
+        <v>1.03</v>
+      </c>
+      <c r="AD338">
+        <v>13</v>
+      </c>
+      <c r="AE338">
+        <v>1.25</v>
+      </c>
+      <c r="AF338">
+        <v>3.75</v>
+      </c>
+      <c r="AG338">
+        <v>1.95</v>
+      </c>
+      <c r="AH338">
+        <v>1.85</v>
+      </c>
+      <c r="AI338">
+        <v>1.8</v>
+      </c>
+      <c r="AJ338">
+        <v>1.95</v>
+      </c>
+      <c r="AK338">
+        <v>1.15</v>
+      </c>
+      <c r="AL338">
+        <v>1.2</v>
+      </c>
+      <c r="AM338">
+        <v>2.35</v>
+      </c>
+      <c r="AN338">
+        <v>1.56</v>
+      </c>
+      <c r="AO338">
+        <v>0.5</v>
+      </c>
+      <c r="AP338">
+        <v>1.53</v>
+      </c>
+      <c r="AQ338">
+        <v>0.53</v>
+      </c>
+      <c r="AR338">
+        <v>1.41</v>
+      </c>
+      <c r="AS338">
+        <v>1.15</v>
+      </c>
+      <c r="AT338">
+        <v>2.56</v>
+      </c>
+      <c r="AU338">
+        <v>5</v>
+      </c>
+      <c r="AV338">
+        <v>6</v>
+      </c>
+      <c r="AW338">
+        <v>6</v>
+      </c>
+      <c r="AX338">
+        <v>4</v>
+      </c>
+      <c r="AY338">
+        <v>12</v>
+      </c>
+      <c r="AZ338">
+        <v>12</v>
+      </c>
+      <c r="BA338">
+        <v>5</v>
+      </c>
+      <c r="BB338">
+        <v>4</v>
+      </c>
+      <c r="BC338">
+        <v>9</v>
+      </c>
+      <c r="BD338">
+        <v>1.52</v>
+      </c>
+      <c r="BE338">
+        <v>7</v>
+      </c>
+      <c r="BF338">
+        <v>2.8</v>
+      </c>
+      <c r="BG338">
+        <v>1.27</v>
+      </c>
+      <c r="BH338">
+        <v>3.3</v>
+      </c>
+      <c r="BI338">
+        <v>1.46</v>
+      </c>
+      <c r="BJ338">
+        <v>2.48</v>
+      </c>
+      <c r="BK338">
+        <v>2.1</v>
+      </c>
+      <c r="BL338">
+        <v>1.93</v>
+      </c>
+      <c r="BM338">
+        <v>2.18</v>
+      </c>
+      <c r="BN338">
+        <v>1.58</v>
+      </c>
+      <c r="BO338">
+        <v>2.8</v>
+      </c>
+      <c r="BP338">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="339" spans="1:68">
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>7373601</v>
+      </c>
+      <c r="C339" t="s">
+        <v>68</v>
+      </c>
+      <c r="D339" t="s">
+        <v>69</v>
+      </c>
+      <c r="E339" s="2">
+        <v>45616.89583333334</v>
+      </c>
+      <c r="F339">
+        <v>34</v>
+      </c>
+      <c r="G339" t="s">
+        <v>84</v>
+      </c>
+      <c r="H339" t="s">
+        <v>88</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>0</v>
+      </c>
+      <c r="L339">
+        <v>0</v>
+      </c>
+      <c r="M339">
+        <v>0</v>
+      </c>
+      <c r="N339">
+        <v>0</v>
+      </c>
+      <c r="O339" t="s">
+        <v>97</v>
+      </c>
+      <c r="P339" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q339">
+        <v>4</v>
+      </c>
+      <c r="R339">
+        <v>2</v>
+      </c>
+      <c r="S339">
+        <v>3</v>
+      </c>
+      <c r="T339">
+        <v>1.44</v>
+      </c>
+      <c r="U339">
+        <v>2.63</v>
+      </c>
+      <c r="V339">
+        <v>3.25</v>
+      </c>
+      <c r="W339">
+        <v>1.33</v>
+      </c>
+      <c r="X339">
+        <v>9</v>
+      </c>
+      <c r="Y339">
+        <v>1.07</v>
+      </c>
+      <c r="Z339">
+        <v>3.4</v>
+      </c>
+      <c r="AA339">
+        <v>3.2</v>
+      </c>
+      <c r="AB339">
+        <v>2.25</v>
+      </c>
+      <c r="AC339">
+        <v>1.06</v>
+      </c>
+      <c r="AD339">
+        <v>10</v>
+      </c>
+      <c r="AE339">
+        <v>1.36</v>
+      </c>
+      <c r="AF339">
+        <v>3.2</v>
+      </c>
+      <c r="AG339">
+        <v>2.25</v>
+      </c>
+      <c r="AH339">
+        <v>1.62</v>
+      </c>
+      <c r="AI339">
+        <v>1.95</v>
+      </c>
+      <c r="AJ339">
+        <v>1.8</v>
+      </c>
+      <c r="AK339">
+        <v>1.65</v>
+      </c>
+      <c r="AL339">
+        <v>1.25</v>
+      </c>
+      <c r="AM339">
+        <v>1.36</v>
+      </c>
+      <c r="AN339">
+        <v>1.5</v>
+      </c>
+      <c r="AO339">
+        <v>1.94</v>
+      </c>
+      <c r="AP339">
+        <v>1.47</v>
+      </c>
+      <c r="AQ339">
+        <v>1.88</v>
+      </c>
+      <c r="AR339">
+        <v>1.42</v>
+      </c>
+      <c r="AS339">
+        <v>1.33</v>
+      </c>
+      <c r="AT339">
+        <v>2.75</v>
+      </c>
+      <c r="AU339">
+        <v>0</v>
+      </c>
+      <c r="AV339">
+        <v>5</v>
+      </c>
+      <c r="AW339">
+        <v>3</v>
+      </c>
+      <c r="AX339">
+        <v>14</v>
+      </c>
+      <c r="AY339">
+        <v>4</v>
+      </c>
+      <c r="AZ339">
+        <v>28</v>
+      </c>
+      <c r="BA339">
+        <v>1</v>
+      </c>
+      <c r="BB339">
+        <v>11</v>
+      </c>
+      <c r="BC339">
+        <v>12</v>
+      </c>
+      <c r="BD339">
+        <v>2.05</v>
+      </c>
+      <c r="BE339">
+        <v>6.25</v>
+      </c>
+      <c r="BF339">
+        <v>1.97</v>
+      </c>
+      <c r="BG339">
+        <v>1.35</v>
+      </c>
+      <c r="BH339">
+        <v>2.88</v>
+      </c>
+      <c r="BI339">
+        <v>1.61</v>
+      </c>
+      <c r="BJ339">
+        <v>2.15</v>
+      </c>
+      <c r="BK339">
+        <v>2.38</v>
+      </c>
+      <c r="BL339">
+        <v>1.72</v>
+      </c>
+      <c r="BM339">
+        <v>2.55</v>
+      </c>
+      <c r="BN339">
+        <v>1.44</v>
+      </c>
+      <c r="BO339">
+        <v>3.3</v>
+      </c>
+      <c r="BP339">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="417">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -949,6 +949,9 @@
     <t>['3', '90+3']</t>
   </si>
   <si>
+    <t>['11', '85']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -1256,6 +1259,12 @@
   </si>
   <si>
     <t>['45+5', '52']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['19', '43']</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP339"/>
+  <dimension ref="A1:BP341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2082,7 +2091,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2288,7 +2297,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2366,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ4">
         <v>0.59</v>
@@ -2494,7 +2503,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2575,7 +2584,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ5">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2906,7 +2915,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3190,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ8">
         <v>0.82</v>
@@ -3524,7 +3533,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3730,7 +3739,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -4635,7 +4644,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5868,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ21">
         <v>0.71</v>
@@ -6820,7 +6829,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -7107,7 +7116,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR27">
         <v>2.21</v>
@@ -7232,7 +7241,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7438,7 +7447,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7644,7 +7653,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7722,7 +7731,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ30">
         <v>0.82</v>
@@ -7850,7 +7859,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -8262,7 +8271,7 @@
         <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -9292,7 +9301,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9704,7 +9713,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9782,7 +9791,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ40">
         <v>1.06</v>
@@ -10197,7 +10206,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ42">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR42">
         <v>1.3</v>
@@ -10528,7 +10537,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10734,7 +10743,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10940,7 +10949,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11352,7 +11361,7 @@
         <v>97</v>
       </c>
       <c r="P48" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q48">
         <v>2.38</v>
@@ -11764,7 +11773,7 @@
         <v>97</v>
       </c>
       <c r="P50" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -12048,7 +12057,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ51">
         <v>1.06</v>
@@ -12588,7 +12597,7 @@
         <v>97</v>
       </c>
       <c r="P54" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12794,7 +12803,7 @@
         <v>97</v>
       </c>
       <c r="P55" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -13081,7 +13090,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR56">
         <v>0.68</v>
@@ -13284,7 +13293,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ57">
         <v>0.53</v>
@@ -13618,7 +13627,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q59">
         <v>5.5</v>
@@ -13696,7 +13705,7 @@
         <v>1.67</v>
       </c>
       <c r="AP59">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ59">
         <v>1.65</v>
@@ -13824,7 +13833,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q60">
         <v>4.75</v>
@@ -15060,7 +15069,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -15472,7 +15481,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15884,7 +15893,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -16090,7 +16099,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16502,7 +16511,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q73">
         <v>2.1</v>
@@ -16995,7 +17004,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ75">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR75">
         <v>1.32</v>
@@ -17532,7 +17541,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17610,7 +17619,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ78">
         <v>0.53</v>
@@ -17738,7 +17747,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17944,7 +17953,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -18231,7 +18240,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ81">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR81">
         <v>1.16</v>
@@ -18356,7 +18365,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18643,7 +18652,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ83">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR83">
         <v>0.8</v>
@@ -18768,7 +18777,7 @@
         <v>152</v>
       </c>
       <c r="P84" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -19052,7 +19061,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ85">
         <v>0.76</v>
@@ -19180,7 +19189,7 @@
         <v>97</v>
       </c>
       <c r="P86" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -19386,7 +19395,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -20828,7 +20837,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -21034,7 +21043,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -21652,7 +21661,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21733,7 +21742,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ98">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR98">
         <v>1.35</v>
@@ -22142,7 +22151,7 @@
         <v>1.6</v>
       </c>
       <c r="AP100">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ100">
         <v>1.18</v>
@@ -22476,7 +22485,7 @@
         <v>97</v>
       </c>
       <c r="P102" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22554,7 +22563,7 @@
         <v>1.8</v>
       </c>
       <c r="AP102">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ102">
         <v>1.65</v>
@@ -22682,7 +22691,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q103">
         <v>2.63</v>
@@ -23175,7 +23184,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ105">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR105">
         <v>1.47</v>
@@ -23300,7 +23309,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q106">
         <v>1.83</v>
@@ -24536,7 +24545,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24742,7 +24751,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -25232,7 +25241,7 @@
         <v>0.4</v>
       </c>
       <c r="AP115">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ115">
         <v>1.06</v>
@@ -25850,7 +25859,7 @@
         <v>1.67</v>
       </c>
       <c r="AP118">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ118">
         <v>1.88</v>
@@ -27295,7 +27304,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ125">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR125">
         <v>1.49</v>
@@ -27626,7 +27635,7 @@
         <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -28116,10 +28125,10 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ129">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR129">
         <v>1.35</v>
@@ -28450,7 +28459,7 @@
         <v>134</v>
       </c>
       <c r="P131" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28656,7 +28665,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28862,7 +28871,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q133">
         <v>3.75</v>
@@ -29274,7 +29283,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29558,10 +29567,10 @@
         <v>1.67</v>
       </c>
       <c r="AP136">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ136">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR136">
         <v>1.48</v>
@@ -30716,7 +30725,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -31128,7 +31137,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q144">
         <v>2.63</v>
@@ -31746,7 +31755,7 @@
         <v>97</v>
       </c>
       <c r="P147" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32030,7 +32039,7 @@
         <v>0.25</v>
       </c>
       <c r="AP148">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ148">
         <v>0.71</v>
@@ -32158,7 +32167,7 @@
         <v>178</v>
       </c>
       <c r="P149" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32570,7 +32579,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32651,7 +32660,7 @@
         <v>2</v>
       </c>
       <c r="AQ151">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR151">
         <v>1.6</v>
@@ -32982,7 +32991,7 @@
         <v>203</v>
       </c>
       <c r="P153" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -33394,7 +33403,7 @@
         <v>123</v>
       </c>
       <c r="P155" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q155">
         <v>2.2</v>
@@ -33600,7 +33609,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q156">
         <v>2.6</v>
@@ -33806,7 +33815,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34218,7 +34227,7 @@
         <v>97</v>
       </c>
       <c r="P159" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -35042,7 +35051,7 @@
         <v>208</v>
       </c>
       <c r="P163" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q163">
         <v>1.95</v>
@@ -35329,7 +35338,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ164">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR164">
         <v>1.59</v>
@@ -37183,7 +37192,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ173">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR173">
         <v>1.5</v>
@@ -37514,7 +37523,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37720,7 +37729,7 @@
         <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q176">
         <v>5</v>
@@ -38004,7 +38013,7 @@
         <v>1.75</v>
       </c>
       <c r="AP177">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ177">
         <v>1.71</v>
@@ -38132,7 +38141,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38338,7 +38347,7 @@
         <v>218</v>
       </c>
       <c r="P179" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q179">
         <v>2.88</v>
@@ -38544,7 +38553,7 @@
         <v>189</v>
       </c>
       <c r="P180" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -38750,7 +38759,7 @@
         <v>97</v>
       </c>
       <c r="P181" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q181">
         <v>1.91</v>
@@ -39037,7 +39046,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ182">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR182">
         <v>1.62</v>
@@ -39162,7 +39171,7 @@
         <v>97</v>
       </c>
       <c r="P183" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q183">
         <v>2.63</v>
@@ -39986,7 +39995,7 @@
         <v>222</v>
       </c>
       <c r="P187" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q187">
         <v>3.4</v>
@@ -40810,7 +40819,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q191">
         <v>2.63</v>
@@ -40888,7 +40897,7 @@
         <v>0.67</v>
       </c>
       <c r="AP191">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ191">
         <v>0.59</v>
@@ -41016,7 +41025,7 @@
         <v>226</v>
       </c>
       <c r="P192" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -41222,7 +41231,7 @@
         <v>205</v>
       </c>
       <c r="P193" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41634,7 +41643,7 @@
         <v>97</v>
       </c>
       <c r="P195" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q195">
         <v>2.4</v>
@@ -41918,7 +41927,7 @@
         <v>1</v>
       </c>
       <c r="AP196">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ196">
         <v>0.82</v>
@@ -42458,7 +42467,7 @@
         <v>228</v>
       </c>
       <c r="P199" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q199">
         <v>2.6</v>
@@ -42539,7 +42548,7 @@
         <v>2</v>
       </c>
       <c r="AQ199">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR199">
         <v>1.56</v>
@@ -42870,7 +42879,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q201">
         <v>3.2</v>
@@ -43566,7 +43575,7 @@
         <v>0.7</v>
       </c>
       <c r="AP204">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ204">
         <v>0.76</v>
@@ -43694,7 +43703,7 @@
         <v>233</v>
       </c>
       <c r="P205" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q205">
         <v>4.33</v>
@@ -44518,7 +44527,7 @@
         <v>235</v>
       </c>
       <c r="P209" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q209">
         <v>2.6</v>
@@ -44930,7 +44939,7 @@
         <v>97</v>
       </c>
       <c r="P211" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -45342,7 +45351,7 @@
         <v>134</v>
       </c>
       <c r="P213" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q213">
         <v>2.88</v>
@@ -45423,7 +45432,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ213">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR213">
         <v>1.36</v>
@@ -45626,7 +45635,7 @@
         <v>0.45</v>
       </c>
       <c r="AP214">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ214">
         <v>0.71</v>
@@ -45835,7 +45844,7 @@
         <v>1</v>
       </c>
       <c r="AQ215">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR215">
         <v>1.44</v>
@@ -46166,7 +46175,7 @@
         <v>239</v>
       </c>
       <c r="P217" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -46372,7 +46381,7 @@
         <v>240</v>
       </c>
       <c r="P218" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46578,7 +46587,7 @@
         <v>201</v>
       </c>
       <c r="P219" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q219">
         <v>2.2</v>
@@ -46784,7 +46793,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -47402,7 +47411,7 @@
         <v>97</v>
       </c>
       <c r="P223" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q223">
         <v>2.75</v>
@@ -48844,7 +48853,7 @@
         <v>248</v>
       </c>
       <c r="P230" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -48922,7 +48931,7 @@
         <v>1.36</v>
       </c>
       <c r="AP230">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ230">
         <v>0.9399999999999999</v>
@@ -49337,7 +49346,7 @@
         <v>2</v>
       </c>
       <c r="AQ232">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR232">
         <v>1.51</v>
@@ -49462,7 +49471,7 @@
         <v>249</v>
       </c>
       <c r="P233" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49749,7 +49758,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ234">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR234">
         <v>1.67</v>
@@ -49874,7 +49883,7 @@
         <v>251</v>
       </c>
       <c r="P235" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q235">
         <v>3</v>
@@ -50698,7 +50707,7 @@
         <v>148</v>
       </c>
       <c r="P239" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q239">
         <v>4</v>
@@ -50779,7 +50788,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ239">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR239">
         <v>1.36</v>
@@ -51188,7 +51197,7 @@
         <v>1.09</v>
       </c>
       <c r="AP241">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ241">
         <v>1.18</v>
@@ -51316,7 +51325,7 @@
         <v>97</v>
       </c>
       <c r="P242" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q242">
         <v>3.75</v>
@@ -51728,7 +51737,7 @@
         <v>256</v>
       </c>
       <c r="P244" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q244">
         <v>2.75</v>
@@ -51809,7 +51818,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ244">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR244">
         <v>1.75</v>
@@ -51934,7 +51943,7 @@
         <v>97</v>
       </c>
       <c r="P245" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q245">
         <v>2.75</v>
@@ -52140,7 +52149,7 @@
         <v>257</v>
       </c>
       <c r="P246" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q246">
         <v>2.63</v>
@@ -52221,7 +52230,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ246">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR246">
         <v>1.8</v>
@@ -52552,7 +52561,7 @@
         <v>259</v>
       </c>
       <c r="P248" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -54406,7 +54415,7 @@
         <v>97</v>
       </c>
       <c r="P257" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q257">
         <v>4</v>
@@ -54484,7 +54493,7 @@
         <v>1.69</v>
       </c>
       <c r="AP257">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ257">
         <v>1.88</v>
@@ -54896,7 +54905,7 @@
         <v>1.58</v>
       </c>
       <c r="AP259">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ259">
         <v>1.71</v>
@@ -55230,7 +55239,7 @@
         <v>268</v>
       </c>
       <c r="P261" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q261">
         <v>2.5</v>
@@ -55642,7 +55651,7 @@
         <v>269</v>
       </c>
       <c r="P263" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q263">
         <v>3.75</v>
@@ -55723,7 +55732,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ263">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR263">
         <v>1.46</v>
@@ -56054,7 +56063,7 @@
         <v>270</v>
       </c>
       <c r="P265" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q265">
         <v>3.6</v>
@@ -56135,7 +56144,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ265">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR265">
         <v>1.49</v>
@@ -56260,7 +56269,7 @@
         <v>138</v>
       </c>
       <c r="P266" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q266">
         <v>2.3</v>
@@ -57084,7 +57093,7 @@
         <v>272</v>
       </c>
       <c r="P270" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q270">
         <v>3.25</v>
@@ -58810,7 +58819,7 @@
         <v>0.93</v>
       </c>
       <c r="AP278">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ278">
         <v>0.76</v>
@@ -58938,7 +58947,7 @@
         <v>277</v>
       </c>
       <c r="P279" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q279">
         <v>2.75</v>
@@ -59019,7 +59028,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ279">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR279">
         <v>1.4</v>
@@ -59350,7 +59359,7 @@
         <v>278</v>
       </c>
       <c r="P281" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q281">
         <v>2.3</v>
@@ -59762,7 +59771,7 @@
         <v>97</v>
       </c>
       <c r="P283" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q283">
         <v>3.4</v>
@@ -59968,7 +59977,7 @@
         <v>279</v>
       </c>
       <c r="P284" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q284">
         <v>3.1</v>
@@ -60049,7 +60058,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ284">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR284">
         <v>1.79</v>
@@ -60380,7 +60389,7 @@
         <v>125</v>
       </c>
       <c r="P286" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q286">
         <v>2.38</v>
@@ -60458,7 +60467,7 @@
         <v>0.5</v>
       </c>
       <c r="AP286">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ286">
         <v>0.53</v>
@@ -60586,7 +60595,7 @@
         <v>281</v>
       </c>
       <c r="P287" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q287">
         <v>2.63</v>
@@ -61204,7 +61213,7 @@
         <v>283</v>
       </c>
       <c r="P290" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q290">
         <v>2.2</v>
@@ -62646,7 +62655,7 @@
         <v>286</v>
       </c>
       <c r="P297" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q297">
         <v>5</v>
@@ -62930,7 +62939,7 @@
         <v>1.07</v>
       </c>
       <c r="AP298">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ298">
         <v>0.9399999999999999</v>
@@ -63136,7 +63145,7 @@
         <v>0.93</v>
       </c>
       <c r="AP299">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ299">
         <v>0.88</v>
@@ -63264,7 +63273,7 @@
         <v>288</v>
       </c>
       <c r="P300" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q300">
         <v>1.91</v>
@@ -63676,7 +63685,7 @@
         <v>290</v>
       </c>
       <c r="P302" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q302">
         <v>1.83</v>
@@ -63757,7 +63766,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ302">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR302">
         <v>1.85</v>
@@ -64294,7 +64303,7 @@
         <v>264</v>
       </c>
       <c r="P305" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q305">
         <v>4</v>
@@ -64375,7 +64384,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ305">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR305">
         <v>1.44</v>
@@ -65118,7 +65127,7 @@
         <v>293</v>
       </c>
       <c r="P309" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q309">
         <v>3.4</v>
@@ -65196,7 +65205,7 @@
         <v>0.93</v>
       </c>
       <c r="AP309">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ309">
         <v>0.82</v>
@@ -65530,7 +65539,7 @@
         <v>295</v>
       </c>
       <c r="P311" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q311">
         <v>3</v>
@@ -65608,7 +65617,7 @@
         <v>0.87</v>
       </c>
       <c r="AP311">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ311">
         <v>0.82</v>
@@ -65942,7 +65951,7 @@
         <v>227</v>
       </c>
       <c r="P313" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q313">
         <v>2.4</v>
@@ -66148,7 +66157,7 @@
         <v>97</v>
       </c>
       <c r="P314" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q314">
         <v>3.25</v>
@@ -66229,7 +66238,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ314">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR314">
         <v>1.44</v>
@@ -66766,7 +66775,7 @@
         <v>97</v>
       </c>
       <c r="P317" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q317">
         <v>2.88</v>
@@ -68208,7 +68217,7 @@
         <v>118</v>
       </c>
       <c r="P324" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q324">
         <v>3.75</v>
@@ -68620,7 +68629,7 @@
         <v>302</v>
       </c>
       <c r="P326" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q326">
         <v>2.25</v>
@@ -68826,7 +68835,7 @@
         <v>303</v>
       </c>
       <c r="P327" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q327">
         <v>3.2</v>
@@ -70680,7 +70689,7 @@
         <v>308</v>
       </c>
       <c r="P336" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q336">
         <v>3.6</v>
@@ -70886,7 +70895,7 @@
         <v>309</v>
       </c>
       <c r="P337" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q337">
         <v>4.75</v>
@@ -71000,10 +71009,10 @@
         <v>4</v>
       </c>
       <c r="BB337">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC337">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD337">
         <v>2.4</v>
@@ -71092,7 +71101,7 @@
         <v>310</v>
       </c>
       <c r="P338" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q338">
         <v>2.4</v>
@@ -71197,7 +71206,7 @@
         <v>4</v>
       </c>
       <c r="AY338">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ338">
         <v>12</v>
@@ -71455,6 +71464,418 @@
       </c>
       <c r="BP339">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="340" spans="1:68">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>7373607</v>
+      </c>
+      <c r="C340" t="s">
+        <v>68</v>
+      </c>
+      <c r="D340" t="s">
+        <v>69</v>
+      </c>
+      <c r="E340" s="2">
+        <v>45617.83333333334</v>
+      </c>
+      <c r="F340">
+        <v>34</v>
+      </c>
+      <c r="G340" t="s">
+        <v>76</v>
+      </c>
+      <c r="H340" t="s">
+        <v>70</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340">
+        <v>0</v>
+      </c>
+      <c r="L340">
+        <v>0</v>
+      </c>
+      <c r="M340">
+        <v>1</v>
+      </c>
+      <c r="N340">
+        <v>1</v>
+      </c>
+      <c r="O340" t="s">
+        <v>97</v>
+      </c>
+      <c r="P340" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q340">
+        <v>4</v>
+      </c>
+      <c r="R340">
+        <v>2.05</v>
+      </c>
+      <c r="S340">
+        <v>2.88</v>
+      </c>
+      <c r="T340">
+        <v>1.5</v>
+      </c>
+      <c r="U340">
+        <v>2.5</v>
+      </c>
+      <c r="V340">
+        <v>3.4</v>
+      </c>
+      <c r="W340">
+        <v>1.3</v>
+      </c>
+      <c r="X340">
+        <v>10</v>
+      </c>
+      <c r="Y340">
+        <v>1.06</v>
+      </c>
+      <c r="Z340">
+        <v>3.5</v>
+      </c>
+      <c r="AA340">
+        <v>3.2</v>
+      </c>
+      <c r="AB340">
+        <v>2.2</v>
+      </c>
+      <c r="AC340">
+        <v>1.08</v>
+      </c>
+      <c r="AD340">
+        <v>8.5</v>
+      </c>
+      <c r="AE340">
+        <v>1.42</v>
+      </c>
+      <c r="AF340">
+        <v>2.85</v>
+      </c>
+      <c r="AG340">
+        <v>2.1</v>
+      </c>
+      <c r="AH340">
+        <v>1.7</v>
+      </c>
+      <c r="AI340">
+        <v>1.91</v>
+      </c>
+      <c r="AJ340">
+        <v>1.91</v>
+      </c>
+      <c r="AK340">
+        <v>1.68</v>
+      </c>
+      <c r="AL340">
+        <v>1.3</v>
+      </c>
+      <c r="AM340">
+        <v>1.3</v>
+      </c>
+      <c r="AN340">
+        <v>1.94</v>
+      </c>
+      <c r="AO340">
+        <v>1.5</v>
+      </c>
+      <c r="AP340">
+        <v>1.82</v>
+      </c>
+      <c r="AQ340">
+        <v>1.59</v>
+      </c>
+      <c r="AR340">
+        <v>1.34</v>
+      </c>
+      <c r="AS340">
+        <v>1.29</v>
+      </c>
+      <c r="AT340">
+        <v>2.63</v>
+      </c>
+      <c r="AU340">
+        <v>3</v>
+      </c>
+      <c r="AV340">
+        <v>8</v>
+      </c>
+      <c r="AW340">
+        <v>6</v>
+      </c>
+      <c r="AX340">
+        <v>5</v>
+      </c>
+      <c r="AY340">
+        <v>13</v>
+      </c>
+      <c r="AZ340">
+        <v>17</v>
+      </c>
+      <c r="BA340">
+        <v>8</v>
+      </c>
+      <c r="BB340">
+        <v>3</v>
+      </c>
+      <c r="BC340">
+        <v>11</v>
+      </c>
+      <c r="BD340">
+        <v>2.68</v>
+      </c>
+      <c r="BE340">
+        <v>10.5</v>
+      </c>
+      <c r="BF340">
+        <v>1.66</v>
+      </c>
+      <c r="BG340">
+        <v>1.32</v>
+      </c>
+      <c r="BH340">
+        <v>3.2</v>
+      </c>
+      <c r="BI340">
+        <v>1.57</v>
+      </c>
+      <c r="BJ340">
+        <v>2.3</v>
+      </c>
+      <c r="BK340">
+        <v>2.38</v>
+      </c>
+      <c r="BL340">
+        <v>1.8</v>
+      </c>
+      <c r="BM340">
+        <v>2.5</v>
+      </c>
+      <c r="BN340">
+        <v>1.5</v>
+      </c>
+      <c r="BO340">
+        <v>3.35</v>
+      </c>
+      <c r="BP340">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:68">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>7373605</v>
+      </c>
+      <c r="C341" t="s">
+        <v>68</v>
+      </c>
+      <c r="D341" t="s">
+        <v>69</v>
+      </c>
+      <c r="E341" s="2">
+        <v>45618.89583333334</v>
+      </c>
+      <c r="F341">
+        <v>34</v>
+      </c>
+      <c r="G341" t="s">
+        <v>72</v>
+      </c>
+      <c r="H341" t="s">
+        <v>86</v>
+      </c>
+      <c r="I341">
+        <v>1</v>
+      </c>
+      <c r="J341">
+        <v>2</v>
+      </c>
+      <c r="K341">
+        <v>3</v>
+      </c>
+      <c r="L341">
+        <v>2</v>
+      </c>
+      <c r="M341">
+        <v>2</v>
+      </c>
+      <c r="N341">
+        <v>4</v>
+      </c>
+      <c r="O341" t="s">
+        <v>311</v>
+      </c>
+      <c r="P341" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q341">
+        <v>2.88</v>
+      </c>
+      <c r="R341">
+        <v>1.91</v>
+      </c>
+      <c r="S341">
+        <v>4.75</v>
+      </c>
+      <c r="T341">
+        <v>1.52</v>
+      </c>
+      <c r="U341">
+        <v>2.55</v>
+      </c>
+      <c r="V341">
+        <v>3.4</v>
+      </c>
+      <c r="W341">
+        <v>1.28</v>
+      </c>
+      <c r="X341">
+        <v>9.5</v>
+      </c>
+      <c r="Y341">
+        <v>1.04</v>
+      </c>
+      <c r="Z341">
+        <v>2.05</v>
+      </c>
+      <c r="AA341">
+        <v>3.2</v>
+      </c>
+      <c r="AB341">
+        <v>3.9</v>
+      </c>
+      <c r="AC341">
+        <v>1.02</v>
+      </c>
+      <c r="AD341">
+        <v>1.02</v>
+      </c>
+      <c r="AE341">
+        <v>1.45</v>
+      </c>
+      <c r="AF341">
+        <v>2.75</v>
+      </c>
+      <c r="AG341">
+        <v>2.6</v>
+      </c>
+      <c r="AH341">
+        <v>1.48</v>
+      </c>
+      <c r="AI341">
+        <v>2.2</v>
+      </c>
+      <c r="AJ341">
+        <v>1.62</v>
+      </c>
+      <c r="AK341">
+        <v>1.28</v>
+      </c>
+      <c r="AL341">
+        <v>1.28</v>
+      </c>
+      <c r="AM341">
+        <v>1.75</v>
+      </c>
+      <c r="AN341">
+        <v>1.5</v>
+      </c>
+      <c r="AO341">
+        <v>1.25</v>
+      </c>
+      <c r="AP341">
+        <v>1.47</v>
+      </c>
+      <c r="AQ341">
+        <v>1.24</v>
+      </c>
+      <c r="AR341">
+        <v>1.48</v>
+      </c>
+      <c r="AS341">
+        <v>1.09</v>
+      </c>
+      <c r="AT341">
+        <v>2.57</v>
+      </c>
+      <c r="AU341">
+        <v>6</v>
+      </c>
+      <c r="AV341">
+        <v>6</v>
+      </c>
+      <c r="AW341">
+        <v>3</v>
+      </c>
+      <c r="AX341">
+        <v>5</v>
+      </c>
+      <c r="AY341">
+        <v>12</v>
+      </c>
+      <c r="AZ341">
+        <v>13</v>
+      </c>
+      <c r="BA341">
+        <v>8</v>
+      </c>
+      <c r="BB341">
+        <v>3</v>
+      </c>
+      <c r="BC341">
+        <v>11</v>
+      </c>
+      <c r="BD341">
+        <v>1.57</v>
+      </c>
+      <c r="BE341">
+        <v>10.5</v>
+      </c>
+      <c r="BF341">
+        <v>2.97</v>
+      </c>
+      <c r="BG341">
+        <v>1.25</v>
+      </c>
+      <c r="BH341">
+        <v>3.6</v>
+      </c>
+      <c r="BI341">
+        <v>1.47</v>
+      </c>
+      <c r="BJ341">
+        <v>2.6</v>
+      </c>
+      <c r="BK341">
+        <v>2.2</v>
+      </c>
+      <c r="BL341">
+        <v>1.97</v>
+      </c>
+      <c r="BM341">
+        <v>2.25</v>
+      </c>
+      <c r="BN341">
+        <v>1.6</v>
+      </c>
+      <c r="BO341">
+        <v>2.95</v>
+      </c>
+      <c r="BP341">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="422">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -952,6 +952,21 @@
     <t>['11', '85']</t>
   </si>
   <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['24', '45+2']</t>
+  </si>
+  <si>
+    <t>['4', '27', '86', '88']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['11', '15', '25']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -1103,9 +1118,6 @@
   </si>
   <si>
     <t>['22', '51']</t>
-  </si>
-  <si>
-    <t>['90+5']</t>
   </si>
   <si>
     <t>['51']</t>
@@ -1265,6 +1277,9 @@
   </si>
   <si>
     <t>['19', '43']</t>
+  </si>
+  <si>
+    <t>['1', '18']</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP341"/>
+  <dimension ref="A1:BP348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1963,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ2">
         <v>0.82</v>
@@ -2091,7 +2106,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2297,7 +2312,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2378,7 +2393,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ4">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2503,7 +2518,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2581,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ5">
         <v>1.24</v>
@@ -2790,7 +2805,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ6">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2915,7 +2930,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2993,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ7">
         <v>1.65</v>
@@ -3405,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ9">
         <v>1.06</v>
@@ -3533,7 +3548,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3739,7 +3754,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3820,7 +3835,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ11">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4023,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ12">
         <v>0.76</v>
@@ -4438,7 +4453,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ14">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -5053,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17">
         <v>0.71</v>
@@ -5671,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ20">
         <v>0.53</v>
@@ -5880,7 +5895,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ21">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR21">
         <v>2.75</v>
@@ -6086,7 +6101,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ22">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR22">
         <v>1.64</v>
@@ -6829,7 +6844,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -7241,7 +7256,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7319,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ28">
         <v>1.18</v>
@@ -7447,7 +7462,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7525,7 +7540,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ29">
         <v>0.53</v>
@@ -7653,7 +7668,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7859,7 +7874,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -8143,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ32">
         <v>0.82</v>
@@ -8271,7 +8286,7 @@
         <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8761,7 +8776,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ35">
         <v>0.76</v>
@@ -8967,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ36">
         <v>0.9399999999999999</v>
@@ -9176,7 +9191,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ37">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR37">
         <v>1.19</v>
@@ -9301,7 +9316,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9379,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ38">
         <v>0.53</v>
@@ -9585,10 +9600,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ39">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR39">
         <v>1.75</v>
@@ -9713,7 +9728,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -10203,7 +10218,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ42">
         <v>1.24</v>
@@ -10412,7 +10427,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ43">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR43">
         <v>1.32</v>
@@ -10537,7 +10552,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10743,7 +10758,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10824,7 +10839,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ45">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR45">
         <v>0.52</v>
@@ -10949,7 +10964,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11027,7 +11042,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ46">
         <v>0.82</v>
@@ -11361,7 +11376,7 @@
         <v>97</v>
       </c>
       <c r="P48" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q48">
         <v>2.38</v>
@@ -11773,7 +11788,7 @@
         <v>97</v>
       </c>
       <c r="P50" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -11851,7 +11866,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ50">
         <v>0.76</v>
@@ -12263,10 +12278,10 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ52">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR52">
         <v>1.45</v>
@@ -12469,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ53">
         <v>0.76</v>
@@ -12597,7 +12612,7 @@
         <v>97</v>
       </c>
       <c r="P54" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12678,7 +12693,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ54">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR54">
         <v>1.51</v>
@@ -12803,7 +12818,7 @@
         <v>97</v>
       </c>
       <c r="P55" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -13499,7 +13514,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ58">
         <v>1.88</v>
@@ -13627,7 +13642,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q59">
         <v>5.5</v>
@@ -13833,7 +13848,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q60">
         <v>4.75</v>
@@ -13914,7 +13929,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ60">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR60">
         <v>0.99</v>
@@ -14529,7 +14544,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ63">
         <v>0.76</v>
@@ -14735,7 +14750,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ64">
         <v>0.53</v>
@@ -15069,7 +15084,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -15150,7 +15165,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ66">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR66">
         <v>1.13</v>
@@ -15353,7 +15368,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ67">
         <v>1.06</v>
@@ -15481,7 +15496,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15559,7 +15574,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ68">
         <v>0.71</v>
@@ -15765,7 +15780,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ69">
         <v>0.76</v>
@@ -15893,7 +15908,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -16099,7 +16114,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16180,7 +16195,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR71">
         <v>1.56</v>
@@ -16383,7 +16398,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ72">
         <v>1.18</v>
@@ -16511,7 +16526,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q73">
         <v>2.1</v>
@@ -17001,7 +17016,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ75">
         <v>1.24</v>
@@ -17210,7 +17225,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ76">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR76">
         <v>1.45</v>
@@ -17541,7 +17556,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17747,7 +17762,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17825,7 +17840,7 @@
         <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ79">
         <v>1.18</v>
@@ -17953,7 +17968,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -18365,7 +18380,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18777,7 +18792,7 @@
         <v>152</v>
       </c>
       <c r="P84" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -19189,7 +19204,7 @@
         <v>97</v>
       </c>
       <c r="P86" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -19270,7 +19285,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ86">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR86">
         <v>1.61</v>
@@ -19395,7 +19410,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -19473,7 +19488,7 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ87">
         <v>0.82</v>
@@ -19679,7 +19694,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ88">
         <v>0.9399999999999999</v>
@@ -19885,10 +19900,10 @@
         <v>0.75</v>
       </c>
       <c r="AP89">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ89">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -20297,10 +20312,10 @@
         <v>0</v>
       </c>
       <c r="AP91">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ91">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR91">
         <v>1.35</v>
@@ -20503,7 +20518,7 @@
         <v>0.25</v>
       </c>
       <c r="AP92">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ92">
         <v>0.71</v>
@@ -20837,7 +20852,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -21043,7 +21058,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -21330,7 +21345,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ96">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR96">
         <v>1.68</v>
@@ -21661,7 +21676,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -22485,7 +22500,7 @@
         <v>97</v>
       </c>
       <c r="P102" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22691,7 +22706,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q103">
         <v>2.63</v>
@@ -22769,7 +22784,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ103">
         <v>0.76</v>
@@ -23309,7 +23324,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q106">
         <v>1.83</v>
@@ -23799,10 +23814,10 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ108">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR108">
         <v>1.54</v>
@@ -24005,10 +24020,10 @@
         <v>1.2</v>
       </c>
       <c r="AP109">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ109">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR109">
         <v>1.71</v>
@@ -24211,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="AP110">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ110">
         <v>0.82</v>
@@ -24417,7 +24432,7 @@
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ111">
         <v>1.65</v>
@@ -24545,7 +24560,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24623,7 +24638,7 @@
         <v>1.6</v>
       </c>
       <c r="AP112">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ112">
         <v>1.06</v>
@@ -24751,7 +24766,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24829,10 +24844,10 @@
         <v>0</v>
       </c>
       <c r="AP113">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ113">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR113">
         <v>1.4</v>
@@ -25038,7 +25053,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ114">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR114">
         <v>1.34</v>
@@ -25447,7 +25462,7 @@
         <v>1.75</v>
       </c>
       <c r="AP116">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ116">
         <v>0.82</v>
@@ -25656,7 +25671,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ117">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR117">
         <v>1.17</v>
@@ -26271,7 +26286,7 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ120">
         <v>0.82</v>
@@ -27635,7 +27650,7 @@
         <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -28459,7 +28474,7 @@
         <v>134</v>
       </c>
       <c r="P131" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28665,7 +28680,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28871,7 +28886,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q133">
         <v>3.75</v>
@@ -28952,7 +28967,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ133">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR133">
         <v>1.45</v>
@@ -29155,7 +29170,7 @@
         <v>0.33</v>
       </c>
       <c r="AP134">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ134">
         <v>0.53</v>
@@ -29283,7 +29298,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29361,7 +29376,7 @@
         <v>0.83</v>
       </c>
       <c r="AP135">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ135">
         <v>1.06</v>
@@ -29776,7 +29791,7 @@
         <v>2</v>
       </c>
       <c r="AQ137">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR137">
         <v>1.48</v>
@@ -29979,10 +29994,10 @@
         <v>0.86</v>
       </c>
       <c r="AP138">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ138">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR138">
         <v>1.5</v>
@@ -30185,7 +30200,7 @@
         <v>0.2</v>
       </c>
       <c r="AP139">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ139">
         <v>0.82</v>
@@ -30725,7 +30740,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30803,10 +30818,10 @@
         <v>0</v>
       </c>
       <c r="AP142">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ142">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR142">
         <v>1.54</v>
@@ -31137,7 +31152,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q144">
         <v>2.63</v>
@@ -31215,7 +31230,7 @@
         <v>1.14</v>
       </c>
       <c r="AP144">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ144">
         <v>0.9399999999999999</v>
@@ -31627,7 +31642,7 @@
         <v>1.83</v>
       </c>
       <c r="AP146">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ146">
         <v>1.06</v>
@@ -31755,7 +31770,7 @@
         <v>97</v>
       </c>
       <c r="P147" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32167,7 +32182,7 @@
         <v>178</v>
       </c>
       <c r="P149" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32579,7 +32594,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32991,7 +33006,7 @@
         <v>203</v>
       </c>
       <c r="P153" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -33403,7 +33418,7 @@
         <v>123</v>
       </c>
       <c r="P155" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q155">
         <v>2.2</v>
@@ -33481,10 +33496,10 @@
         <v>1.14</v>
       </c>
       <c r="AP155">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ155">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR155">
         <v>1.6</v>
@@ -33609,7 +33624,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="Q156">
         <v>2.6</v>
@@ -33690,7 +33705,7 @@
         <v>2</v>
       </c>
       <c r="AQ156">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR156">
         <v>1.63</v>
@@ -33815,7 +33830,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33893,7 +33908,7 @@
         <v>1.57</v>
       </c>
       <c r="AP157">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ157">
         <v>1.06</v>
@@ -34099,7 +34114,7 @@
         <v>1.17</v>
       </c>
       <c r="AP158">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ158">
         <v>0.82</v>
@@ -34227,7 +34242,7 @@
         <v>97</v>
       </c>
       <c r="P159" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34305,10 +34320,10 @@
         <v>0.43</v>
       </c>
       <c r="AP159">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ159">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR159">
         <v>1.42</v>
@@ -34511,7 +34526,7 @@
         <v>0.17</v>
       </c>
       <c r="AP160">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ160">
         <v>0.82</v>
@@ -34717,10 +34732,10 @@
         <v>2</v>
       </c>
       <c r="AP161">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ161">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR161">
         <v>1.58</v>
@@ -35051,7 +35066,7 @@
         <v>208</v>
       </c>
       <c r="P163" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q163">
         <v>1.95</v>
@@ -35335,7 +35350,7 @@
         <v>1.57</v>
       </c>
       <c r="AP164">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ164">
         <v>1.59</v>
@@ -35953,7 +35968,7 @@
         <v>0.22</v>
       </c>
       <c r="AP167">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ167">
         <v>0.71</v>
@@ -36162,7 +36177,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ168">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR168">
         <v>1.49</v>
@@ -36571,7 +36586,7 @@
         <v>1.38</v>
       </c>
       <c r="AP170">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ170">
         <v>1.18</v>
@@ -37523,7 +37538,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37601,7 +37616,7 @@
         <v>1.89</v>
       </c>
       <c r="AP175">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ175">
         <v>1.88</v>
@@ -37729,7 +37744,7 @@
         <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q176">
         <v>5</v>
@@ -38016,7 +38031,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ177">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR177">
         <v>1.44</v>
@@ -38141,7 +38156,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38219,7 +38234,7 @@
         <v>1</v>
       </c>
       <c r="AP178">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ178">
         <v>0.82</v>
@@ -38347,7 +38362,7 @@
         <v>218</v>
       </c>
       <c r="P179" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q179">
         <v>2.88</v>
@@ -38425,7 +38440,7 @@
         <v>0.14</v>
       </c>
       <c r="AP179">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ179">
         <v>0.82</v>
@@ -38553,7 +38568,7 @@
         <v>189</v>
       </c>
       <c r="P180" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -38631,7 +38646,7 @@
         <v>0.88</v>
       </c>
       <c r="AP180">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ180">
         <v>0.82</v>
@@ -38759,7 +38774,7 @@
         <v>97</v>
       </c>
       <c r="P181" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q181">
         <v>1.91</v>
@@ -39043,7 +39058,7 @@
         <v>1.38</v>
       </c>
       <c r="AP182">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ182">
         <v>1.59</v>
@@ -39171,7 +39186,7 @@
         <v>97</v>
       </c>
       <c r="P183" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q183">
         <v>2.63</v>
@@ -39249,7 +39264,7 @@
         <v>0.8</v>
       </c>
       <c r="AP183">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ183">
         <v>0.76</v>
@@ -39995,7 +40010,7 @@
         <v>222</v>
       </c>
       <c r="P187" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q187">
         <v>3.4</v>
@@ -40282,7 +40297,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ188">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR188">
         <v>1.43</v>
@@ -40694,7 +40709,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ190">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR190">
         <v>1.23</v>
@@ -40819,7 +40834,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q191">
         <v>2.63</v>
@@ -40900,7 +40915,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ191">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR191">
         <v>1.42</v>
@@ -41025,7 +41040,7 @@
         <v>226</v>
       </c>
       <c r="P192" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -41231,7 +41246,7 @@
         <v>205</v>
       </c>
       <c r="P193" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41309,7 +41324,7 @@
         <v>1.8</v>
       </c>
       <c r="AP193">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ193">
         <v>1.88</v>
@@ -41515,7 +41530,7 @@
         <v>2</v>
       </c>
       <c r="AP194">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ194">
         <v>1.65</v>
@@ -41643,7 +41658,7 @@
         <v>97</v>
       </c>
       <c r="P195" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q195">
         <v>2.4</v>
@@ -42133,7 +42148,7 @@
         <v>0.25</v>
       </c>
       <c r="AP197">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ197">
         <v>0.53</v>
@@ -42339,10 +42354,10 @@
         <v>1.56</v>
       </c>
       <c r="AP198">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ198">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR198">
         <v>1.62</v>
@@ -42467,7 +42482,7 @@
         <v>228</v>
       </c>
       <c r="P199" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q199">
         <v>2.6</v>
@@ -42879,7 +42894,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q201">
         <v>3.2</v>
@@ -43163,10 +43178,10 @@
         <v>0.7</v>
       </c>
       <c r="AP202">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ202">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR202">
         <v>1.81</v>
@@ -43703,7 +43718,7 @@
         <v>233</v>
       </c>
       <c r="P205" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q205">
         <v>4.33</v>
@@ -43781,7 +43796,7 @@
         <v>1.91</v>
       </c>
       <c r="AP205">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ205">
         <v>1.88</v>
@@ -43987,7 +44002,7 @@
         <v>0.8</v>
       </c>
       <c r="AP206">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ206">
         <v>1.06</v>
@@ -44193,7 +44208,7 @@
         <v>0.82</v>
       </c>
       <c r="AP207">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ207">
         <v>0.53</v>
@@ -44402,7 +44417,7 @@
         <v>2</v>
       </c>
       <c r="AQ208">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR208">
         <v>1.67</v>
@@ -44527,7 +44542,7 @@
         <v>235</v>
       </c>
       <c r="P209" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q209">
         <v>2.6</v>
@@ -44605,7 +44620,7 @@
         <v>1.4</v>
       </c>
       <c r="AP209">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ209">
         <v>0.9399999999999999</v>
@@ -44811,7 +44826,7 @@
         <v>0.33</v>
       </c>
       <c r="AP210">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ210">
         <v>0.53</v>
@@ -44939,7 +44954,7 @@
         <v>97</v>
       </c>
       <c r="P211" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -45226,7 +45241,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ212">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR212">
         <v>1.43</v>
@@ -45351,7 +45366,7 @@
         <v>134</v>
       </c>
       <c r="P213" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q213">
         <v>2.88</v>
@@ -45841,7 +45856,7 @@
         <v>1.33</v>
       </c>
       <c r="AP215">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ215">
         <v>1.59</v>
@@ -46175,7 +46190,7 @@
         <v>239</v>
       </c>
       <c r="P217" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -46256,7 +46271,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ217">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR217">
         <v>1.5</v>
@@ -46381,7 +46396,7 @@
         <v>240</v>
       </c>
       <c r="P218" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46459,7 +46474,7 @@
         <v>1.8</v>
       </c>
       <c r="AP218">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ218">
         <v>1.65</v>
@@ -46587,7 +46602,7 @@
         <v>201</v>
       </c>
       <c r="P219" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q219">
         <v>2.2</v>
@@ -46793,7 +46808,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -47077,7 +47092,7 @@
         <v>0.55</v>
       </c>
       <c r="AP221">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ221">
         <v>0.53</v>
@@ -47286,7 +47301,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ222">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR222">
         <v>1.87</v>
@@ -47411,7 +47426,7 @@
         <v>97</v>
       </c>
       <c r="P223" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q223">
         <v>2.75</v>
@@ -48107,7 +48122,7 @@
         <v>1.75</v>
       </c>
       <c r="AP226">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ226">
         <v>1.88</v>
@@ -48313,7 +48328,7 @@
         <v>0.73</v>
       </c>
       <c r="AP227">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ227">
         <v>1.06</v>
@@ -48519,7 +48534,7 @@
         <v>1</v>
       </c>
       <c r="AP228">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ228">
         <v>0.76</v>
@@ -48728,7 +48743,7 @@
         <v>2</v>
       </c>
       <c r="AQ229">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR229">
         <v>1.65</v>
@@ -48853,7 +48868,7 @@
         <v>248</v>
       </c>
       <c r="P230" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -49140,7 +49155,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ231">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR231">
         <v>1.56</v>
@@ -49471,7 +49486,7 @@
         <v>249</v>
       </c>
       <c r="P233" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49755,7 +49770,7 @@
         <v>1.5</v>
       </c>
       <c r="AP234">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ234">
         <v>1.24</v>
@@ -49883,7 +49898,7 @@
         <v>251</v>
       </c>
       <c r="P235" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q235">
         <v>3</v>
@@ -50373,7 +50388,7 @@
         <v>1.64</v>
       </c>
       <c r="AP237">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ237">
         <v>1.65</v>
@@ -50707,7 +50722,7 @@
         <v>148</v>
       </c>
       <c r="P239" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q239">
         <v>4</v>
@@ -50785,7 +50800,7 @@
         <v>1.18</v>
       </c>
       <c r="AP239">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ239">
         <v>1.59</v>
@@ -50994,7 +51009,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ240">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR240">
         <v>1.26</v>
@@ -51325,7 +51340,7 @@
         <v>97</v>
       </c>
       <c r="P242" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q242">
         <v>3.75</v>
@@ -51406,7 +51421,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ242">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR242">
         <v>1.78</v>
@@ -51737,7 +51752,7 @@
         <v>256</v>
       </c>
       <c r="P244" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q244">
         <v>2.75</v>
@@ -51815,7 +51830,7 @@
         <v>1.36</v>
       </c>
       <c r="AP244">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ244">
         <v>1.24</v>
@@ -51943,7 +51958,7 @@
         <v>97</v>
       </c>
       <c r="P245" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q245">
         <v>2.75</v>
@@ -52021,7 +52036,7 @@
         <v>0.67</v>
       </c>
       <c r="AP245">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ245">
         <v>1.06</v>
@@ -52149,7 +52164,7 @@
         <v>257</v>
       </c>
       <c r="P246" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q246">
         <v>2.63</v>
@@ -52433,7 +52448,7 @@
         <v>0.46</v>
       </c>
       <c r="AP247">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ247">
         <v>0.71</v>
@@ -52561,7 +52576,7 @@
         <v>259</v>
       </c>
       <c r="P248" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -53051,7 +53066,7 @@
         <v>0.83</v>
       </c>
       <c r="AP250">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ250">
         <v>0.76</v>
@@ -53463,7 +53478,7 @@
         <v>1.45</v>
       </c>
       <c r="AP252">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ252">
         <v>1.06</v>
@@ -53672,7 +53687,7 @@
         <v>2</v>
       </c>
       <c r="AQ253">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR253">
         <v>1.66</v>
@@ -53875,10 +53890,10 @@
         <v>1.09</v>
       </c>
       <c r="AP254">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ254">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR254">
         <v>1.75</v>
@@ -54287,7 +54302,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP256">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ256">
         <v>0.53</v>
@@ -54415,7 +54430,7 @@
         <v>97</v>
       </c>
       <c r="P257" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="Q257">
         <v>4</v>
@@ -54908,7 +54923,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ259">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR259">
         <v>1.36</v>
@@ -55114,7 +55129,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ260">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR260">
         <v>1.42</v>
@@ -55239,7 +55254,7 @@
         <v>268</v>
       </c>
       <c r="P261" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q261">
         <v>2.5</v>
@@ -55651,7 +55666,7 @@
         <v>269</v>
       </c>
       <c r="P263" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q263">
         <v>3.75</v>
@@ -55729,7 +55744,7 @@
         <v>1.33</v>
       </c>
       <c r="AP263">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ263">
         <v>1.59</v>
@@ -56063,7 +56078,7 @@
         <v>270</v>
       </c>
       <c r="P265" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q265">
         <v>3.6</v>
@@ -56269,7 +56284,7 @@
         <v>138</v>
       </c>
       <c r="P266" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q266">
         <v>2.3</v>
@@ -56759,7 +56774,7 @@
         <v>1</v>
       </c>
       <c r="AP268">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ268">
         <v>0.82</v>
@@ -56965,10 +56980,10 @@
         <v>0.57</v>
       </c>
       <c r="AP269">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ269">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR269">
         <v>1.39</v>
@@ -57093,7 +57108,7 @@
         <v>272</v>
       </c>
       <c r="P270" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q270">
         <v>3.25</v>
@@ -57171,7 +57186,7 @@
         <v>0.43</v>
       </c>
       <c r="AP270">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ270">
         <v>0.71</v>
@@ -57380,7 +57395,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ271">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR271">
         <v>1.36</v>
@@ -57583,7 +57598,7 @@
         <v>0.77</v>
       </c>
       <c r="AP272">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ272">
         <v>0.76</v>
@@ -57789,7 +57804,7 @@
         <v>0.85</v>
       </c>
       <c r="AP273">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ273">
         <v>1.06</v>
@@ -57998,7 +58013,7 @@
         <v>2</v>
       </c>
       <c r="AQ274">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR274">
         <v>1.52</v>
@@ -58201,7 +58216,7 @@
         <v>1</v>
       </c>
       <c r="AP275">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ275">
         <v>0.82</v>
@@ -58947,7 +58962,7 @@
         <v>277</v>
       </c>
       <c r="P279" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q279">
         <v>2.75</v>
@@ -59234,7 +59249,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ280">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR280">
         <v>1.46</v>
@@ -59359,7 +59374,7 @@
         <v>278</v>
       </c>
       <c r="P281" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q281">
         <v>2.3</v>
@@ -59771,7 +59786,7 @@
         <v>97</v>
       </c>
       <c r="P283" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q283">
         <v>3.4</v>
@@ -59849,7 +59864,7 @@
         <v>1.38</v>
       </c>
       <c r="AP283">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ283">
         <v>1.65</v>
@@ -59977,7 +59992,7 @@
         <v>279</v>
       </c>
       <c r="P284" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q284">
         <v>3.1</v>
@@ -60055,7 +60070,7 @@
         <v>1.43</v>
       </c>
       <c r="AP284">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ284">
         <v>1.59</v>
@@ -60389,7 +60404,7 @@
         <v>125</v>
       </c>
       <c r="P286" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q286">
         <v>2.38</v>
@@ -60595,7 +60610,7 @@
         <v>281</v>
       </c>
       <c r="P287" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q287">
         <v>2.63</v>
@@ -61085,10 +61100,10 @@
         <v>0.86</v>
       </c>
       <c r="AP289">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ289">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR289">
         <v>1.45</v>
@@ -61213,7 +61228,7 @@
         <v>283</v>
       </c>
       <c r="P290" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q290">
         <v>2.2</v>
@@ -61291,7 +61306,7 @@
         <v>1.14</v>
       </c>
       <c r="AP290">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ290">
         <v>0.9399999999999999</v>
@@ -61703,10 +61718,10 @@
         <v>0.92</v>
       </c>
       <c r="AP292">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ292">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR292">
         <v>1.46</v>
@@ -61909,7 +61924,7 @@
         <v>0.93</v>
       </c>
       <c r="AP293">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ293">
         <v>0.82</v>
@@ -62321,7 +62336,7 @@
         <v>0.93</v>
       </c>
       <c r="AP295">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ295">
         <v>0.82</v>
@@ -62530,7 +62545,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ296">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR296">
         <v>1.29</v>
@@ -62655,7 +62670,7 @@
         <v>286</v>
       </c>
       <c r="P297" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q297">
         <v>5</v>
@@ -62733,10 +62748,10 @@
         <v>1.64</v>
       </c>
       <c r="AP297">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ297">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR297">
         <v>1.4</v>
@@ -63148,7 +63163,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ299">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR299">
         <v>1.34</v>
@@ -63273,7 +63288,7 @@
         <v>288</v>
       </c>
       <c r="P300" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q300">
         <v>1.91</v>
@@ -63685,7 +63700,7 @@
         <v>290</v>
       </c>
       <c r="P302" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q302">
         <v>1.83</v>
@@ -64303,7 +64318,7 @@
         <v>264</v>
       </c>
       <c r="P305" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q305">
         <v>4</v>
@@ -65127,7 +65142,7 @@
         <v>293</v>
       </c>
       <c r="P309" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q309">
         <v>3.4</v>
@@ -65411,7 +65426,7 @@
         <v>1.5</v>
       </c>
       <c r="AP310">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ310">
         <v>1.65</v>
@@ -65539,7 +65554,7 @@
         <v>295</v>
       </c>
       <c r="P311" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q311">
         <v>3</v>
@@ -65826,7 +65841,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ312">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR312">
         <v>1.4</v>
@@ -65951,7 +65966,7 @@
         <v>227</v>
       </c>
       <c r="P313" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q313">
         <v>2.4</v>
@@ -66157,7 +66172,7 @@
         <v>97</v>
       </c>
       <c r="P314" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q314">
         <v>3.25</v>
@@ -66235,7 +66250,7 @@
         <v>1.13</v>
       </c>
       <c r="AP314">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ314">
         <v>1.24</v>
@@ -66441,10 +66456,10 @@
         <v>1.73</v>
       </c>
       <c r="AP315">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ315">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR315">
         <v>1.77</v>
@@ -66647,7 +66662,7 @@
         <v>0.93</v>
       </c>
       <c r="AP316">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ316">
         <v>0.82</v>
@@ -66775,7 +66790,7 @@
         <v>97</v>
       </c>
       <c r="P317" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q317">
         <v>2.88</v>
@@ -66853,7 +66868,7 @@
         <v>1.07</v>
       </c>
       <c r="AP317">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ317">
         <v>1.18</v>
@@ -67059,10 +67074,10 @@
         <v>0.8</v>
       </c>
       <c r="AP318">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ318">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR318">
         <v>1.75</v>
@@ -67265,7 +67280,7 @@
         <v>1.21</v>
       </c>
       <c r="AP319">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ319">
         <v>1.06</v>
@@ -67677,7 +67692,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP321">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ321">
         <v>0.76</v>
@@ -68089,10 +68104,10 @@
         <v>0.88</v>
       </c>
       <c r="AP323">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AQ323">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR323">
         <v>1.75</v>
@@ -68217,7 +68232,7 @@
         <v>118</v>
       </c>
       <c r="P324" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q324">
         <v>3.75</v>
@@ -68504,7 +68519,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ325">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR325">
         <v>1.36</v>
@@ -68629,7 +68644,7 @@
         <v>302</v>
       </c>
       <c r="P326" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q326">
         <v>2.25</v>
@@ -68835,7 +68850,7 @@
         <v>303</v>
       </c>
       <c r="P327" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q327">
         <v>3.2</v>
@@ -68913,7 +68928,7 @@
         <v>0.88</v>
       </c>
       <c r="AP327">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ327">
         <v>0.82</v>
@@ -69119,10 +69134,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP328">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ328">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR328">
         <v>1.47</v>
@@ -69325,7 +69340,7 @@
         <v>1</v>
       </c>
       <c r="AP329">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AQ329">
         <v>0.9399999999999999</v>
@@ -69943,7 +69958,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP332">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ332">
         <v>0.76</v>
@@ -70689,7 +70704,7 @@
         <v>308</v>
       </c>
       <c r="P336" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q336">
         <v>3.6</v>
@@ -70767,10 +70782,10 @@
         <v>1.63</v>
       </c>
       <c r="AP336">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ336">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR336">
         <v>1.55</v>
@@ -70895,7 +70910,7 @@
         <v>309</v>
       </c>
       <c r="P337" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q337">
         <v>4.75</v>
@@ -71101,7 +71116,7 @@
         <v>310</v>
       </c>
       <c r="P338" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q338">
         <v>2.4</v>
@@ -71513,7 +71528,7 @@
         <v>97</v>
       </c>
       <c r="P340" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q340">
         <v>4</v>
@@ -71719,7 +71734,7 @@
         <v>311</v>
       </c>
       <c r="P341" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q341">
         <v>2.88</v>
@@ -71876,6 +71891,1448 @@
       </c>
       <c r="BP341">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="342" spans="1:68">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>7373636</v>
+      </c>
+      <c r="C342" t="s">
+        <v>68</v>
+      </c>
+      <c r="D342" t="s">
+        <v>69</v>
+      </c>
+      <c r="E342" s="2">
+        <v>45619.8125</v>
+      </c>
+      <c r="F342">
+        <v>35</v>
+      </c>
+      <c r="G342" t="s">
+        <v>75</v>
+      </c>
+      <c r="H342" t="s">
+        <v>83</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>1</v>
+      </c>
+      <c r="K342">
+        <v>1</v>
+      </c>
+      <c r="L342">
+        <v>0</v>
+      </c>
+      <c r="M342">
+        <v>1</v>
+      </c>
+      <c r="N342">
+        <v>1</v>
+      </c>
+      <c r="O342" t="s">
+        <v>97</v>
+      </c>
+      <c r="P342" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q342">
+        <v>7.5</v>
+      </c>
+      <c r="R342">
+        <v>2.4</v>
+      </c>
+      <c r="S342">
+        <v>1.83</v>
+      </c>
+      <c r="T342">
+        <v>1.4</v>
+      </c>
+      <c r="U342">
+        <v>2.75</v>
+      </c>
+      <c r="V342">
+        <v>2.75</v>
+      </c>
+      <c r="W342">
+        <v>1.4</v>
+      </c>
+      <c r="X342">
+        <v>8</v>
+      </c>
+      <c r="Y342">
+        <v>1.08</v>
+      </c>
+      <c r="Z342">
+        <v>8</v>
+      </c>
+      <c r="AA342">
+        <v>5.25</v>
+      </c>
+      <c r="AB342">
+        <v>1.33</v>
+      </c>
+      <c r="AC342">
+        <v>1.05</v>
+      </c>
+      <c r="AD342">
+        <v>9.5</v>
+      </c>
+      <c r="AE342">
+        <v>1.3</v>
+      </c>
+      <c r="AF342">
+        <v>3.4</v>
+      </c>
+      <c r="AG342">
+        <v>1.73</v>
+      </c>
+      <c r="AH342">
+        <v>2.08</v>
+      </c>
+      <c r="AI342">
+        <v>2</v>
+      </c>
+      <c r="AJ342">
+        <v>1.75</v>
+      </c>
+      <c r="AK342">
+        <v>2.9</v>
+      </c>
+      <c r="AL342">
+        <v>1.15</v>
+      </c>
+      <c r="AM342">
+        <v>1.07</v>
+      </c>
+      <c r="AN342">
+        <v>1</v>
+      </c>
+      <c r="AO342">
+        <v>1.71</v>
+      </c>
+      <c r="AP342">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ342">
+        <v>1.78</v>
+      </c>
+      <c r="AR342">
+        <v>1.45</v>
+      </c>
+      <c r="AS342">
+        <v>1.53</v>
+      </c>
+      <c r="AT342">
+        <v>2.98</v>
+      </c>
+      <c r="AU342">
+        <v>3</v>
+      </c>
+      <c r="AV342">
+        <v>4</v>
+      </c>
+      <c r="AW342">
+        <v>5</v>
+      </c>
+      <c r="AX342">
+        <v>6</v>
+      </c>
+      <c r="AY342">
+        <v>11</v>
+      </c>
+      <c r="AZ342">
+        <v>11</v>
+      </c>
+      <c r="BA342">
+        <v>4</v>
+      </c>
+      <c r="BB342">
+        <v>2</v>
+      </c>
+      <c r="BC342">
+        <v>6</v>
+      </c>
+      <c r="BD342">
+        <v>4.38</v>
+      </c>
+      <c r="BE342">
+        <v>13</v>
+      </c>
+      <c r="BF342">
+        <v>1.31</v>
+      </c>
+      <c r="BG342">
+        <v>1.12</v>
+      </c>
+      <c r="BH342">
+        <v>4.5</v>
+      </c>
+      <c r="BI342">
+        <v>1.26</v>
+      </c>
+      <c r="BJ342">
+        <v>3.08</v>
+      </c>
+      <c r="BK342">
+        <v>2.2</v>
+      </c>
+      <c r="BL342">
+        <v>1.95</v>
+      </c>
+      <c r="BM342">
+        <v>1.91</v>
+      </c>
+      <c r="BN342">
+        <v>1.8</v>
+      </c>
+      <c r="BO342">
+        <v>2.35</v>
+      </c>
+      <c r="BP342">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="343" spans="1:68">
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>7373627</v>
+      </c>
+      <c r="C343" t="s">
+        <v>68</v>
+      </c>
+      <c r="D343" t="s">
+        <v>69</v>
+      </c>
+      <c r="E343" s="2">
+        <v>45619.8125</v>
+      </c>
+      <c r="F343">
+        <v>35</v>
+      </c>
+      <c r="G343" t="s">
+        <v>88</v>
+      </c>
+      <c r="H343" t="s">
+        <v>79</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>1</v>
+      </c>
+      <c r="K343">
+        <v>1</v>
+      </c>
+      <c r="L343">
+        <v>1</v>
+      </c>
+      <c r="M343">
+        <v>1</v>
+      </c>
+      <c r="N343">
+        <v>2</v>
+      </c>
+      <c r="O343" t="s">
+        <v>217</v>
+      </c>
+      <c r="P343" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q343">
+        <v>1.83</v>
+      </c>
+      <c r="R343">
+        <v>2.4</v>
+      </c>
+      <c r="S343">
+        <v>8</v>
+      </c>
+      <c r="T343">
+        <v>1.36</v>
+      </c>
+      <c r="U343">
+        <v>3</v>
+      </c>
+      <c r="V343">
+        <v>2.75</v>
+      </c>
+      <c r="W343">
+        <v>1.4</v>
+      </c>
+      <c r="X343">
+        <v>8</v>
+      </c>
+      <c r="Y343">
+        <v>1.08</v>
+      </c>
+      <c r="Z343">
+        <v>1.36</v>
+      </c>
+      <c r="AA343">
+        <v>4.75</v>
+      </c>
+      <c r="AB343">
+        <v>8.5</v>
+      </c>
+      <c r="AC343">
+        <v>1.05</v>
+      </c>
+      <c r="AD343">
+        <v>9.5</v>
+      </c>
+      <c r="AE343">
+        <v>1.28</v>
+      </c>
+      <c r="AF343">
+        <v>3.55</v>
+      </c>
+      <c r="AG343">
+        <v>1.8</v>
+      </c>
+      <c r="AH343">
+        <v>2</v>
+      </c>
+      <c r="AI343">
+        <v>2.1</v>
+      </c>
+      <c r="AJ343">
+        <v>1.67</v>
+      </c>
+      <c r="AK343">
+        <v>1.05</v>
+      </c>
+      <c r="AL343">
+        <v>1.15</v>
+      </c>
+      <c r="AM343">
+        <v>3.25</v>
+      </c>
+      <c r="AN343">
+        <v>2.18</v>
+      </c>
+      <c r="AO343">
+        <v>1.06</v>
+      </c>
+      <c r="AP343">
+        <v>2.11</v>
+      </c>
+      <c r="AQ343">
+        <v>1.06</v>
+      </c>
+      <c r="AR343">
+        <v>1.8</v>
+      </c>
+      <c r="AS343">
+        <v>1.2</v>
+      </c>
+      <c r="AT343">
+        <v>3</v>
+      </c>
+      <c r="AU343">
+        <v>10</v>
+      </c>
+      <c r="AV343">
+        <v>5</v>
+      </c>
+      <c r="AW343">
+        <v>9</v>
+      </c>
+      <c r="AX343">
+        <v>5</v>
+      </c>
+      <c r="AY343">
+        <v>28</v>
+      </c>
+      <c r="AZ343">
+        <v>11</v>
+      </c>
+      <c r="BA343">
+        <v>10</v>
+      </c>
+      <c r="BB343">
+        <v>1</v>
+      </c>
+      <c r="BC343">
+        <v>11</v>
+      </c>
+      <c r="BD343">
+        <v>1.28</v>
+      </c>
+      <c r="BE343">
+        <v>13.5</v>
+      </c>
+      <c r="BF343">
+        <v>4.68</v>
+      </c>
+      <c r="BG343">
+        <v>1.16</v>
+      </c>
+      <c r="BH343">
+        <v>3.88</v>
+      </c>
+      <c r="BI343">
+        <v>1.34</v>
+      </c>
+      <c r="BJ343">
+        <v>2.69</v>
+      </c>
+      <c r="BK343">
+        <v>2.1</v>
+      </c>
+      <c r="BL343">
+        <v>1.8</v>
+      </c>
+      <c r="BM343">
+        <v>2.09</v>
+      </c>
+      <c r="BN343">
+        <v>1.66</v>
+      </c>
+      <c r="BO343">
+        <v>2.69</v>
+      </c>
+      <c r="BP343">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="344" spans="1:68">
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>7373638</v>
+      </c>
+      <c r="C344" t="s">
+        <v>68</v>
+      </c>
+      <c r="D344" t="s">
+        <v>69</v>
+      </c>
+      <c r="E344" s="2">
+        <v>45619.8125</v>
+      </c>
+      <c r="F344">
+        <v>35</v>
+      </c>
+      <c r="G344" t="s">
+        <v>85</v>
+      </c>
+      <c r="H344" t="s">
+        <v>89</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="K344">
+        <v>0</v>
+      </c>
+      <c r="L344">
+        <v>1</v>
+      </c>
+      <c r="M344">
+        <v>1</v>
+      </c>
+      <c r="N344">
+        <v>2</v>
+      </c>
+      <c r="O344" t="s">
+        <v>312</v>
+      </c>
+      <c r="P344" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q344">
+        <v>2.25</v>
+      </c>
+      <c r="R344">
+        <v>2.1</v>
+      </c>
+      <c r="S344">
+        <v>6.5</v>
+      </c>
+      <c r="T344">
+        <v>1.57</v>
+      </c>
+      <c r="U344">
+        <v>2.25</v>
+      </c>
+      <c r="V344">
+        <v>3.75</v>
+      </c>
+      <c r="W344">
+        <v>1.25</v>
+      </c>
+      <c r="X344">
+        <v>11</v>
+      </c>
+      <c r="Y344">
+        <v>1.05</v>
+      </c>
+      <c r="Z344">
+        <v>1.6</v>
+      </c>
+      <c r="AA344">
+        <v>3.7</v>
+      </c>
+      <c r="AB344">
+        <v>6.25</v>
+      </c>
+      <c r="AC344">
+        <v>1.09</v>
+      </c>
+      <c r="AD344">
+        <v>7</v>
+      </c>
+      <c r="AE344">
+        <v>1.5</v>
+      </c>
+      <c r="AF344">
+        <v>2.55</v>
+      </c>
+      <c r="AG344">
+        <v>2.25</v>
+      </c>
+      <c r="AH344">
+        <v>1.62</v>
+      </c>
+      <c r="AI344">
+        <v>2.2</v>
+      </c>
+      <c r="AJ344">
+        <v>1.62</v>
+      </c>
+      <c r="AK344">
+        <v>1.25</v>
+      </c>
+      <c r="AL344">
+        <v>1.25</v>
+      </c>
+      <c r="AM344">
+        <v>1.77</v>
+      </c>
+      <c r="AN344">
+        <v>1.71</v>
+      </c>
+      <c r="AO344">
+        <v>0.88</v>
+      </c>
+      <c r="AP344">
+        <v>1.67</v>
+      </c>
+      <c r="AQ344">
+        <v>0.89</v>
+      </c>
+      <c r="AR344">
+        <v>1.5</v>
+      </c>
+      <c r="AS344">
+        <v>0.97</v>
+      </c>
+      <c r="AT344">
+        <v>2.47</v>
+      </c>
+      <c r="AU344">
+        <v>5</v>
+      </c>
+      <c r="AV344">
+        <v>2</v>
+      </c>
+      <c r="AW344">
+        <v>11</v>
+      </c>
+      <c r="AX344">
+        <v>4</v>
+      </c>
+      <c r="AY344">
+        <v>20</v>
+      </c>
+      <c r="AZ344">
+        <v>8</v>
+      </c>
+      <c r="BA344">
+        <v>6</v>
+      </c>
+      <c r="BB344">
+        <v>5</v>
+      </c>
+      <c r="BC344">
+        <v>11</v>
+      </c>
+      <c r="BD344">
+        <v>1.49</v>
+      </c>
+      <c r="BE344">
+        <v>9.5</v>
+      </c>
+      <c r="BF344">
+        <v>3.4</v>
+      </c>
+      <c r="BG344">
+        <v>1.28</v>
+      </c>
+      <c r="BH344">
+        <v>3.45</v>
+      </c>
+      <c r="BI344">
+        <v>1.5</v>
+      </c>
+      <c r="BJ344">
+        <v>2.45</v>
+      </c>
+      <c r="BK344">
+        <v>2.1</v>
+      </c>
+      <c r="BL344">
+        <v>1.95</v>
+      </c>
+      <c r="BM344">
+        <v>2.35</v>
+      </c>
+      <c r="BN344">
+        <v>1.55</v>
+      </c>
+      <c r="BO344">
+        <v>3.1</v>
+      </c>
+      <c r="BP344">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="345" spans="1:68">
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>7373632</v>
+      </c>
+      <c r="C345" t="s">
+        <v>68</v>
+      </c>
+      <c r="D345" t="s">
+        <v>69</v>
+      </c>
+      <c r="E345" s="2">
+        <v>45619.89583333334</v>
+      </c>
+      <c r="F345">
+        <v>35</v>
+      </c>
+      <c r="G345" t="s">
+        <v>73</v>
+      </c>
+      <c r="H345" t="s">
+        <v>84</v>
+      </c>
+      <c r="I345">
+        <v>2</v>
+      </c>
+      <c r="J345">
+        <v>2</v>
+      </c>
+      <c r="K345">
+        <v>4</v>
+      </c>
+      <c r="L345">
+        <v>2</v>
+      </c>
+      <c r="M345">
+        <v>2</v>
+      </c>
+      <c r="N345">
+        <v>4</v>
+      </c>
+      <c r="O345" t="s">
+        <v>313</v>
+      </c>
+      <c r="P345" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q345">
+        <v>2.75</v>
+      </c>
+      <c r="R345">
+        <v>1.91</v>
+      </c>
+      <c r="S345">
+        <v>5.5</v>
+      </c>
+      <c r="T345">
+        <v>1.5</v>
+      </c>
+      <c r="U345">
+        <v>2.5</v>
+      </c>
+      <c r="V345">
+        <v>3.4</v>
+      </c>
+      <c r="W345">
+        <v>1.3</v>
+      </c>
+      <c r="X345">
+        <v>10</v>
+      </c>
+      <c r="Y345">
+        <v>1.06</v>
+      </c>
+      <c r="Z345">
+        <v>1.91</v>
+      </c>
+      <c r="AA345">
+        <v>3.1</v>
+      </c>
+      <c r="AB345">
+        <v>4.75</v>
+      </c>
+      <c r="AC345">
+        <v>1.07</v>
+      </c>
+      <c r="AD345">
+        <v>8</v>
+      </c>
+      <c r="AE345">
+        <v>1.42</v>
+      </c>
+      <c r="AF345">
+        <v>2.85</v>
+      </c>
+      <c r="AG345">
+        <v>2.6</v>
+      </c>
+      <c r="AH345">
+        <v>1.48</v>
+      </c>
+      <c r="AI345">
+        <v>2.25</v>
+      </c>
+      <c r="AJ345">
+        <v>1.57</v>
+      </c>
+      <c r="AK345">
+        <v>1.18</v>
+      </c>
+      <c r="AL345">
+        <v>1.22</v>
+      </c>
+      <c r="AM345">
+        <v>2.05</v>
+      </c>
+      <c r="AN345">
+        <v>2.24</v>
+      </c>
+      <c r="AO345">
+        <v>1.06</v>
+      </c>
+      <c r="AP345">
+        <v>2.17</v>
+      </c>
+      <c r="AQ345">
+        <v>1.06</v>
+      </c>
+      <c r="AR345">
+        <v>1.43</v>
+      </c>
+      <c r="AS345">
+        <v>1.43</v>
+      </c>
+      <c r="AT345">
+        <v>2.86</v>
+      </c>
+      <c r="AU345">
+        <v>5</v>
+      </c>
+      <c r="AV345">
+        <v>4</v>
+      </c>
+      <c r="AW345">
+        <v>7</v>
+      </c>
+      <c r="AX345">
+        <v>1</v>
+      </c>
+      <c r="AY345">
+        <v>14</v>
+      </c>
+      <c r="AZ345">
+        <v>5</v>
+      </c>
+      <c r="BA345">
+        <v>7</v>
+      </c>
+      <c r="BB345">
+        <v>1</v>
+      </c>
+      <c r="BC345">
+        <v>8</v>
+      </c>
+      <c r="BD345">
+        <v>1.48</v>
+      </c>
+      <c r="BE345">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF345">
+        <v>3.5</v>
+      </c>
+      <c r="BG345">
+        <v>1.21</v>
+      </c>
+      <c r="BH345">
+        <v>3.44</v>
+      </c>
+      <c r="BI345">
+        <v>1.43</v>
+      </c>
+      <c r="BJ345">
+        <v>2.46</v>
+      </c>
+      <c r="BK345">
+        <v>2.38</v>
+      </c>
+      <c r="BL345">
+        <v>1.85</v>
+      </c>
+      <c r="BM345">
+        <v>2.26</v>
+      </c>
+      <c r="BN345">
+        <v>1.51</v>
+      </c>
+      <c r="BO345">
+        <v>2.97</v>
+      </c>
+      <c r="BP345">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="346" spans="1:68">
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>7373619</v>
+      </c>
+      <c r="C346" t="s">
+        <v>68</v>
+      </c>
+      <c r="D346" t="s">
+        <v>69</v>
+      </c>
+      <c r="E346" s="2">
+        <v>45620.66666666666</v>
+      </c>
+      <c r="F346">
+        <v>35</v>
+      </c>
+      <c r="G346" t="s">
+        <v>70</v>
+      </c>
+      <c r="H346" t="s">
+        <v>82</v>
+      </c>
+      <c r="I346">
+        <v>2</v>
+      </c>
+      <c r="J346">
+        <v>1</v>
+      </c>
+      <c r="K346">
+        <v>3</v>
+      </c>
+      <c r="L346">
+        <v>4</v>
+      </c>
+      <c r="M346">
+        <v>1</v>
+      </c>
+      <c r="N346">
+        <v>5</v>
+      </c>
+      <c r="O346" t="s">
+        <v>314</v>
+      </c>
+      <c r="P346" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q346">
+        <v>2.2</v>
+      </c>
+      <c r="R346">
+        <v>2.25</v>
+      </c>
+      <c r="S346">
+        <v>6</v>
+      </c>
+      <c r="T346">
+        <v>1.4</v>
+      </c>
+      <c r="U346">
+        <v>2.75</v>
+      </c>
+      <c r="V346">
+        <v>3</v>
+      </c>
+      <c r="W346">
+        <v>1.36</v>
+      </c>
+      <c r="X346">
+        <v>8</v>
+      </c>
+      <c r="Y346">
+        <v>1.08</v>
+      </c>
+      <c r="Z346">
+        <v>1.45</v>
+      </c>
+      <c r="AA346">
+        <v>3.72</v>
+      </c>
+      <c r="AB346">
+        <v>5.9</v>
+      </c>
+      <c r="AC346">
+        <v>1.05</v>
+      </c>
+      <c r="AD346">
+        <v>9.5</v>
+      </c>
+      <c r="AE346">
+        <v>1.3</v>
+      </c>
+      <c r="AF346">
+        <v>3.35</v>
+      </c>
+      <c r="AG346">
+        <v>2.06</v>
+      </c>
+      <c r="AH346">
+        <v>1.78</v>
+      </c>
+      <c r="AI346">
+        <v>1.95</v>
+      </c>
+      <c r="AJ346">
+        <v>1.8</v>
+      </c>
+      <c r="AK346">
+        <v>1.09</v>
+      </c>
+      <c r="AL346">
+        <v>1.17</v>
+      </c>
+      <c r="AM346">
+        <v>2.7</v>
+      </c>
+      <c r="AN346">
+        <v>2.06</v>
+      </c>
+      <c r="AO346">
+        <v>0.59</v>
+      </c>
+      <c r="AP346">
+        <v>2.11</v>
+      </c>
+      <c r="AQ346">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR346">
+        <v>1.78</v>
+      </c>
+      <c r="AS346">
+        <v>1.42</v>
+      </c>
+      <c r="AT346">
+        <v>3.2</v>
+      </c>
+      <c r="AU346">
+        <v>8</v>
+      </c>
+      <c r="AV346">
+        <v>2</v>
+      </c>
+      <c r="AW346">
+        <v>4</v>
+      </c>
+      <c r="AX346">
+        <v>3</v>
+      </c>
+      <c r="AY346">
+        <v>17</v>
+      </c>
+      <c r="AZ346">
+        <v>6</v>
+      </c>
+      <c r="BA346">
+        <v>8</v>
+      </c>
+      <c r="BB346">
+        <v>4</v>
+      </c>
+      <c r="BC346">
+        <v>12</v>
+      </c>
+      <c r="BD346">
+        <v>1.34</v>
+      </c>
+      <c r="BE346">
+        <v>10.5</v>
+      </c>
+      <c r="BF346">
+        <v>4.39</v>
+      </c>
+      <c r="BG346">
+        <v>1.26</v>
+      </c>
+      <c r="BH346">
+        <v>3.4</v>
+      </c>
+      <c r="BI346">
+        <v>1.46</v>
+      </c>
+      <c r="BJ346">
+        <v>2.48</v>
+      </c>
+      <c r="BK346">
+        <v>2</v>
+      </c>
+      <c r="BL346">
+        <v>2.05</v>
+      </c>
+      <c r="BM346">
+        <v>2.18</v>
+      </c>
+      <c r="BN346">
+        <v>1.58</v>
+      </c>
+      <c r="BO346">
+        <v>2.8</v>
+      </c>
+      <c r="BP346">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="347" spans="1:68">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>7373623</v>
+      </c>
+      <c r="C347" t="s">
+        <v>68</v>
+      </c>
+      <c r="D347" t="s">
+        <v>69</v>
+      </c>
+      <c r="E347" s="2">
+        <v>45620.66666666666</v>
+      </c>
+      <c r="F347">
+        <v>35</v>
+      </c>
+      <c r="G347" t="s">
+        <v>80</v>
+      </c>
+      <c r="H347" t="s">
+        <v>74</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>0</v>
+      </c>
+      <c r="L347">
+        <v>1</v>
+      </c>
+      <c r="M347">
+        <v>1</v>
+      </c>
+      <c r="N347">
+        <v>2</v>
+      </c>
+      <c r="O347" t="s">
+        <v>315</v>
+      </c>
+      <c r="P347" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q347">
+        <v>2.3</v>
+      </c>
+      <c r="R347">
+        <v>2.3</v>
+      </c>
+      <c r="S347">
+        <v>4.75</v>
+      </c>
+      <c r="T347">
+        <v>1.44</v>
+      </c>
+      <c r="U347">
+        <v>2.63</v>
+      </c>
+      <c r="V347">
+        <v>3.25</v>
+      </c>
+      <c r="W347">
+        <v>1.33</v>
+      </c>
+      <c r="X347">
+        <v>9</v>
+      </c>
+      <c r="Y347">
+        <v>1.07</v>
+      </c>
+      <c r="Z347">
+        <v>1.78</v>
+      </c>
+      <c r="AA347">
+        <v>3.25</v>
+      </c>
+      <c r="AB347">
+        <v>3.89</v>
+      </c>
+      <c r="AC347">
+        <v>1.06</v>
+      </c>
+      <c r="AD347">
+        <v>8.5</v>
+      </c>
+      <c r="AE347">
+        <v>1.35</v>
+      </c>
+      <c r="AF347">
+        <v>3.1</v>
+      </c>
+      <c r="AG347">
+        <v>1.97</v>
+      </c>
+      <c r="AH347">
+        <v>1.87</v>
+      </c>
+      <c r="AI347">
+        <v>1.7</v>
+      </c>
+      <c r="AJ347">
+        <v>2.05</v>
+      </c>
+      <c r="AK347">
+        <v>1.2</v>
+      </c>
+      <c r="AL347">
+        <v>1.25</v>
+      </c>
+      <c r="AM347">
+        <v>1.95</v>
+      </c>
+      <c r="AN347">
+        <v>1.88</v>
+      </c>
+      <c r="AO347">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP347">
+        <v>1.83</v>
+      </c>
+      <c r="AQ347">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR347">
+        <v>1.57</v>
+      </c>
+      <c r="AS347">
+        <v>1.28</v>
+      </c>
+      <c r="AT347">
+        <v>2.85</v>
+      </c>
+      <c r="AU347">
+        <v>9</v>
+      </c>
+      <c r="AV347">
+        <v>4</v>
+      </c>
+      <c r="AW347">
+        <v>12</v>
+      </c>
+      <c r="AX347">
+        <v>2</v>
+      </c>
+      <c r="AY347">
+        <v>26</v>
+      </c>
+      <c r="AZ347">
+        <v>7</v>
+      </c>
+      <c r="BA347">
+        <v>11</v>
+      </c>
+      <c r="BB347">
+        <v>1</v>
+      </c>
+      <c r="BC347">
+        <v>12</v>
+      </c>
+      <c r="BD347">
+        <v>1.51</v>
+      </c>
+      <c r="BE347">
+        <v>9.5</v>
+      </c>
+      <c r="BF347">
+        <v>3.3</v>
+      </c>
+      <c r="BG347">
+        <v>1.22</v>
+      </c>
+      <c r="BH347">
+        <v>4</v>
+      </c>
+      <c r="BI347">
+        <v>1.4</v>
+      </c>
+      <c r="BJ347">
+        <v>2.8</v>
+      </c>
+      <c r="BK347">
+        <v>2.1</v>
+      </c>
+      <c r="BL347">
+        <v>2.05</v>
+      </c>
+      <c r="BM347">
+        <v>2.05</v>
+      </c>
+      <c r="BN347">
+        <v>1.7</v>
+      </c>
+      <c r="BO347">
+        <v>2.75</v>
+      </c>
+      <c r="BP347">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="348" spans="1:68">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>7373630</v>
+      </c>
+      <c r="C348" t="s">
+        <v>68</v>
+      </c>
+      <c r="D348" t="s">
+        <v>69</v>
+      </c>
+      <c r="E348" s="2">
+        <v>45620.66666666666</v>
+      </c>
+      <c r="F348">
+        <v>35</v>
+      </c>
+      <c r="G348" t="s">
+        <v>77</v>
+      </c>
+      <c r="H348" t="s">
+        <v>76</v>
+      </c>
+      <c r="I348">
+        <v>3</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348">
+        <v>3</v>
+      </c>
+      <c r="L348">
+        <v>3</v>
+      </c>
+      <c r="M348">
+        <v>1</v>
+      </c>
+      <c r="N348">
+        <v>4</v>
+      </c>
+      <c r="O348" t="s">
+        <v>316</v>
+      </c>
+      <c r="P348" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q348">
+        <v>2.1</v>
+      </c>
+      <c r="R348">
+        <v>2.25</v>
+      </c>
+      <c r="S348">
+        <v>6</v>
+      </c>
+      <c r="T348">
+        <v>1.5</v>
+      </c>
+      <c r="U348">
+        <v>2.5</v>
+      </c>
+      <c r="V348">
+        <v>3.4</v>
+      </c>
+      <c r="W348">
+        <v>1.3</v>
+      </c>
+      <c r="X348">
+        <v>10</v>
+      </c>
+      <c r="Y348">
+        <v>1.06</v>
+      </c>
+      <c r="Z348">
+        <v>1.53</v>
+      </c>
+      <c r="AA348">
+        <v>3.72</v>
+      </c>
+      <c r="AB348">
+        <v>5.5</v>
+      </c>
+      <c r="AC348">
+        <v>1.06</v>
+      </c>
+      <c r="AD348">
+        <v>8.5</v>
+      </c>
+      <c r="AE348">
+        <v>1.38</v>
+      </c>
+      <c r="AF348">
+        <v>2.95</v>
+      </c>
+      <c r="AG348">
+        <v>2.04</v>
+      </c>
+      <c r="AH348">
+        <v>1.8</v>
+      </c>
+      <c r="AI348">
+        <v>2</v>
+      </c>
+      <c r="AJ348">
+        <v>1.75</v>
+      </c>
+      <c r="AK348">
+        <v>1.14</v>
+      </c>
+      <c r="AL348">
+        <v>1.22</v>
+      </c>
+      <c r="AM348">
+        <v>2.25</v>
+      </c>
+      <c r="AN348">
+        <v>1.88</v>
+      </c>
+      <c r="AO348">
+        <v>0.71</v>
+      </c>
+      <c r="AP348">
+        <v>1.94</v>
+      </c>
+      <c r="AQ348">
+        <v>0.67</v>
+      </c>
+      <c r="AR348">
+        <v>1.72</v>
+      </c>
+      <c r="AS348">
+        <v>1.11</v>
+      </c>
+      <c r="AT348">
+        <v>2.83</v>
+      </c>
+      <c r="AU348">
+        <v>9</v>
+      </c>
+      <c r="AV348">
+        <v>3</v>
+      </c>
+      <c r="AW348">
+        <v>10</v>
+      </c>
+      <c r="AX348">
+        <v>3</v>
+      </c>
+      <c r="AY348">
+        <v>24</v>
+      </c>
+      <c r="AZ348">
+        <v>9</v>
+      </c>
+      <c r="BA348">
+        <v>7</v>
+      </c>
+      <c r="BB348">
+        <v>6</v>
+      </c>
+      <c r="BC348">
+        <v>13</v>
+      </c>
+      <c r="BD348">
+        <v>1.36</v>
+      </c>
+      <c r="BE348">
+        <v>10.5</v>
+      </c>
+      <c r="BF348">
+        <v>4.19</v>
+      </c>
+      <c r="BG348">
+        <v>1.2</v>
+      </c>
+      <c r="BH348">
+        <v>3.95</v>
+      </c>
+      <c r="BI348">
+        <v>1.35</v>
+      </c>
+      <c r="BJ348">
+        <v>2.9</v>
+      </c>
+      <c r="BK348">
+        <v>1.91</v>
+      </c>
+      <c r="BL348">
+        <v>2.2</v>
+      </c>
+      <c r="BM348">
+        <v>1.95</v>
+      </c>
+      <c r="BN348">
+        <v>1.77</v>
+      </c>
+      <c r="BO348">
+        <v>2.38</v>
+      </c>
+      <c r="BP348">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="422">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1641,7 +1641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP348"/>
+  <dimension ref="A1:BP350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ4">
         <v>0.5600000000000001</v>
@@ -3011,7 +3011,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ7">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -4865,7 +4865,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ16">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AQ18">
         <v>0.76</v>
@@ -5892,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ21">
         <v>0.67</v>
@@ -6719,7 +6719,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ25">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR25">
         <v>1.49</v>
@@ -7749,7 +7749,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ30">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR30">
         <v>1.35</v>
@@ -9188,7 +9188,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AQ37">
         <v>0.5600000000000001</v>
@@ -9806,7 +9806,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ40">
         <v>1.06</v>
@@ -10015,7 +10015,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ41">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR41">
         <v>1.4</v>
@@ -11660,7 +11660,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AQ49">
         <v>1.88</v>
@@ -13308,7 +13308,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ57">
         <v>0.53</v>
@@ -13723,7 +13723,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ59">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR59">
         <v>1.58</v>
@@ -14338,7 +14338,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AQ62">
         <v>0.9399999999999999</v>
@@ -16813,7 +16813,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ74">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR74">
         <v>1.66</v>
@@ -17634,7 +17634,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ78">
         <v>0.53</v>
@@ -18049,7 +18049,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ80">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR80">
         <v>1.77</v>
@@ -19491,7 +19491,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ87">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR87">
         <v>1.45</v>
@@ -20106,7 +20106,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AQ90">
         <v>0.82</v>
@@ -22578,10 +22578,10 @@
         <v>1.8</v>
       </c>
       <c r="AP102">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ102">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR102">
         <v>1.72</v>
@@ -24435,7 +24435,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ111">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR111">
         <v>1.33</v>
@@ -25050,7 +25050,7 @@
         <v>2.6</v>
       </c>
       <c r="AP114">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AQ114">
         <v>1.78</v>
@@ -25256,7 +25256,7 @@
         <v>0.4</v>
       </c>
       <c r="AP115">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ115">
         <v>1.06</v>
@@ -25465,7 +25465,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ116">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR116">
         <v>1.55</v>
@@ -26492,7 +26492,7 @@
         <v>0.4</v>
       </c>
       <c r="AP121">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AQ121">
         <v>0.53</v>
@@ -28761,7 +28761,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ132">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR132">
         <v>1.55</v>
@@ -29582,7 +29582,7 @@
         <v>1.67</v>
       </c>
       <c r="AP136">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ136">
         <v>1.59</v>
@@ -30612,7 +30612,7 @@
         <v>0</v>
       </c>
       <c r="AP141">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AQ141">
         <v>0.76</v>
@@ -31439,7 +31439,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ145">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR145">
         <v>1.23</v>
@@ -34117,7 +34117,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ158">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR158">
         <v>1.73</v>
@@ -34938,7 +34938,7 @@
         <v>0.71</v>
       </c>
       <c r="AP162">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AQ162">
         <v>1.06</v>
@@ -35147,7 +35147,7 @@
         <v>2</v>
       </c>
       <c r="AQ163">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR163">
         <v>1.66</v>
@@ -36792,7 +36792,7 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AQ171">
         <v>0.53</v>
@@ -37825,7 +37825,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ176">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR176">
         <v>1.23</v>
@@ -38028,7 +38028,7 @@
         <v>1.75</v>
       </c>
       <c r="AP177">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ177">
         <v>1.78</v>
@@ -38649,7 +38649,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ180">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR180">
         <v>1.33</v>
@@ -39470,7 +39470,7 @@
         <v>1.33</v>
       </c>
       <c r="AP184">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AQ184">
         <v>1.18</v>
@@ -41533,7 +41533,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ194">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR194">
         <v>1.49</v>
@@ -41942,7 +41942,7 @@
         <v>1</v>
       </c>
       <c r="AP196">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ196">
         <v>0.82</v>
@@ -42766,10 +42766,10 @@
         <v>1.11</v>
       </c>
       <c r="AP200">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AQ200">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR200">
         <v>1.37</v>
@@ -45650,7 +45650,7 @@
         <v>0.45</v>
       </c>
       <c r="AP214">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ214">
         <v>0.71</v>
@@ -46477,7 +46477,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ218">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR218">
         <v>1.63</v>
@@ -47916,7 +47916,7 @@
         <v>0.5</v>
       </c>
       <c r="AP225">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AQ225">
         <v>0.71</v>
@@ -49567,7 +49567,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ233">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR233">
         <v>1.3</v>
@@ -50391,7 +50391,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ237">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR237">
         <v>1.83</v>
@@ -51212,7 +51212,7 @@
         <v>1.09</v>
       </c>
       <c r="AP241">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ241">
         <v>1.18</v>
@@ -52863,7 +52863,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ249">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR249">
         <v>1.87</v>
@@ -54508,7 +54508,7 @@
         <v>1.69</v>
       </c>
       <c r="AP257">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ257">
         <v>1.88</v>
@@ -54714,7 +54714,7 @@
         <v>1</v>
       </c>
       <c r="AP258">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AQ258">
         <v>0.82</v>
@@ -55335,7 +55335,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ261">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR261">
         <v>1.42</v>
@@ -56365,7 +56365,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ266">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR266">
         <v>1.4</v>
@@ -57392,7 +57392,7 @@
         <v>1</v>
       </c>
       <c r="AP271">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AQ271">
         <v>0.89</v>
@@ -58219,7 +58219,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ275">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR275">
         <v>1.52</v>
@@ -58834,7 +58834,7 @@
         <v>0.93</v>
       </c>
       <c r="AP278">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ278">
         <v>0.76</v>
@@ -59867,7 +59867,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ283">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR283">
         <v>1.56</v>
@@ -60894,7 +60894,7 @@
         <v>1.23</v>
       </c>
       <c r="AP288">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AQ288">
         <v>1.06</v>
@@ -61927,7 +61927,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ293">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR293">
         <v>1.72</v>
@@ -62954,7 +62954,7 @@
         <v>1.07</v>
       </c>
       <c r="AP298">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ298">
         <v>0.9399999999999999</v>
@@ -65429,7 +65429,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ310">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR310">
         <v>1.72</v>
@@ -65632,7 +65632,7 @@
         <v>0.87</v>
       </c>
       <c r="AP311">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ311">
         <v>0.82</v>
@@ -66665,7 +66665,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ316">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR316">
         <v>1.74</v>
@@ -67489,7 +67489,7 @@
         <v>2</v>
       </c>
       <c r="AQ320">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR320">
         <v>1.53</v>
@@ -68516,7 +68516,7 @@
         <v>0.75</v>
       </c>
       <c r="AP325">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AQ325">
         <v>0.67</v>
@@ -68725,7 +68725,7 @@
         <v>2</v>
       </c>
       <c r="AQ326">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR326">
         <v>1.53</v>
@@ -70991,7 +70991,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ337">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AR337">
         <v>1.28</v>
@@ -71812,7 +71812,7 @@
         <v>1.25</v>
       </c>
       <c r="AP341">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ341">
         <v>1.24</v>
@@ -73333,6 +73333,418 @@
       </c>
       <c r="BP348">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:68">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>7373625</v>
+      </c>
+      <c r="C349" t="s">
+        <v>68</v>
+      </c>
+      <c r="D349" t="s">
+        <v>69</v>
+      </c>
+      <c r="E349" s="2">
+        <v>45622.79166666666</v>
+      </c>
+      <c r="F349">
+        <v>35</v>
+      </c>
+      <c r="G349" t="s">
+        <v>72</v>
+      </c>
+      <c r="H349" t="s">
+        <v>71</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>0</v>
+      </c>
+      <c r="L349">
+        <v>0</v>
+      </c>
+      <c r="M349">
+        <v>0</v>
+      </c>
+      <c r="N349">
+        <v>0</v>
+      </c>
+      <c r="O349" t="s">
+        <v>97</v>
+      </c>
+      <c r="P349" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q349">
+        <v>2.25</v>
+      </c>
+      <c r="R349">
+        <v>2.1</v>
+      </c>
+      <c r="S349">
+        <v>6</v>
+      </c>
+      <c r="T349">
+        <v>1.44</v>
+      </c>
+      <c r="U349">
+        <v>2.63</v>
+      </c>
+      <c r="V349">
+        <v>3.25</v>
+      </c>
+      <c r="W349">
+        <v>1.33</v>
+      </c>
+      <c r="X349">
+        <v>10</v>
+      </c>
+      <c r="Y349">
+        <v>1.06</v>
+      </c>
+      <c r="Z349">
+        <v>1.65</v>
+      </c>
+      <c r="AA349">
+        <v>3.6</v>
+      </c>
+      <c r="AB349">
+        <v>6.25</v>
+      </c>
+      <c r="AC349">
+        <v>1.06</v>
+      </c>
+      <c r="AD349">
+        <v>9.5</v>
+      </c>
+      <c r="AE349">
+        <v>1.36</v>
+      </c>
+      <c r="AF349">
+        <v>3.1</v>
+      </c>
+      <c r="AG349">
+        <v>2.1</v>
+      </c>
+      <c r="AH349">
+        <v>1.7</v>
+      </c>
+      <c r="AI349">
+        <v>2.05</v>
+      </c>
+      <c r="AJ349">
+        <v>1.7</v>
+      </c>
+      <c r="AK349">
+        <v>1.15</v>
+      </c>
+      <c r="AL349">
+        <v>1.22</v>
+      </c>
+      <c r="AM349">
+        <v>2.25</v>
+      </c>
+      <c r="AN349">
+        <v>1.47</v>
+      </c>
+      <c r="AO349">
+        <v>0.82</v>
+      </c>
+      <c r="AP349">
+        <v>1.44</v>
+      </c>
+      <c r="AQ349">
+        <v>0.83</v>
+      </c>
+      <c r="AR349">
+        <v>1.48</v>
+      </c>
+      <c r="AS349">
+        <v>1.24</v>
+      </c>
+      <c r="AT349">
+        <v>2.72</v>
+      </c>
+      <c r="AU349">
+        <v>4</v>
+      </c>
+      <c r="AV349">
+        <v>4</v>
+      </c>
+      <c r="AW349">
+        <v>16</v>
+      </c>
+      <c r="AX349">
+        <v>7</v>
+      </c>
+      <c r="AY349">
+        <v>26</v>
+      </c>
+      <c r="AZ349">
+        <v>12</v>
+      </c>
+      <c r="BA349">
+        <v>9</v>
+      </c>
+      <c r="BB349">
+        <v>4</v>
+      </c>
+      <c r="BC349">
+        <v>13</v>
+      </c>
+      <c r="BD349">
+        <v>1.47</v>
+      </c>
+      <c r="BE349">
+        <v>9.6</v>
+      </c>
+      <c r="BF349">
+        <v>3.5</v>
+      </c>
+      <c r="BG349">
+        <v>1.15</v>
+      </c>
+      <c r="BH349">
+        <v>4</v>
+      </c>
+      <c r="BI349">
+        <v>1.32</v>
+      </c>
+      <c r="BJ349">
+        <v>2.78</v>
+      </c>
+      <c r="BK349">
+        <v>2</v>
+      </c>
+      <c r="BL349">
+        <v>2.05</v>
+      </c>
+      <c r="BM349">
+        <v>2.04</v>
+      </c>
+      <c r="BN349">
+        <v>1.69</v>
+      </c>
+      <c r="BO349">
+        <v>2.62</v>
+      </c>
+      <c r="BP349">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="350" spans="1:68">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>7373634</v>
+      </c>
+      <c r="C350" t="s">
+        <v>68</v>
+      </c>
+      <c r="D350" t="s">
+        <v>69</v>
+      </c>
+      <c r="E350" s="2">
+        <v>45622.83333333334</v>
+      </c>
+      <c r="F350">
+        <v>35</v>
+      </c>
+      <c r="G350" t="s">
+        <v>86</v>
+      </c>
+      <c r="H350" t="s">
+        <v>87</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350">
+        <v>0</v>
+      </c>
+      <c r="L350">
+        <v>0</v>
+      </c>
+      <c r="M350">
+        <v>0</v>
+      </c>
+      <c r="N350">
+        <v>0</v>
+      </c>
+      <c r="O350" t="s">
+        <v>97</v>
+      </c>
+      <c r="P350" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q350">
+        <v>3.75</v>
+      </c>
+      <c r="R350">
+        <v>2.05</v>
+      </c>
+      <c r="S350">
+        <v>3.1</v>
+      </c>
+      <c r="T350">
+        <v>1.47</v>
+      </c>
+      <c r="U350">
+        <v>2.65</v>
+      </c>
+      <c r="V350">
+        <v>3.25</v>
+      </c>
+      <c r="W350">
+        <v>1.33</v>
+      </c>
+      <c r="X350">
+        <v>8.5</v>
+      </c>
+      <c r="Y350">
+        <v>1.06</v>
+      </c>
+      <c r="Z350">
+        <v>3.1</v>
+      </c>
+      <c r="AA350">
+        <v>3.2</v>
+      </c>
+      <c r="AB350">
+        <v>2.4</v>
+      </c>
+      <c r="AC350">
+        <v>1.07</v>
+      </c>
+      <c r="AD350">
+        <v>8</v>
+      </c>
+      <c r="AE350">
+        <v>1.36</v>
+      </c>
+      <c r="AF350">
+        <v>3.1</v>
+      </c>
+      <c r="AG350">
+        <v>2.1</v>
+      </c>
+      <c r="AH350">
+        <v>1.7</v>
+      </c>
+      <c r="AI350">
+        <v>1.91</v>
+      </c>
+      <c r="AJ350">
+        <v>1.91</v>
+      </c>
+      <c r="AK350">
+        <v>1.47</v>
+      </c>
+      <c r="AL350">
+        <v>1.3</v>
+      </c>
+      <c r="AM350">
+        <v>1.47</v>
+      </c>
+      <c r="AN350">
+        <v>2.53</v>
+      </c>
+      <c r="AO350">
+        <v>1.65</v>
+      </c>
+      <c r="AP350">
+        <v>2.44</v>
+      </c>
+      <c r="AQ350">
+        <v>1.61</v>
+      </c>
+      <c r="AR350">
+        <v>1.38</v>
+      </c>
+      <c r="AS350">
+        <v>1.49</v>
+      </c>
+      <c r="AT350">
+        <v>2.87</v>
+      </c>
+      <c r="AU350">
+        <v>2</v>
+      </c>
+      <c r="AV350">
+        <v>5</v>
+      </c>
+      <c r="AW350">
+        <v>5</v>
+      </c>
+      <c r="AX350">
+        <v>12</v>
+      </c>
+      <c r="AY350">
+        <v>8</v>
+      </c>
+      <c r="AZ350">
+        <v>21</v>
+      </c>
+      <c r="BA350">
+        <v>5</v>
+      </c>
+      <c r="BB350">
+        <v>5</v>
+      </c>
+      <c r="BC350">
+        <v>10</v>
+      </c>
+      <c r="BD350">
+        <v>2.88</v>
+      </c>
+      <c r="BE350">
+        <v>9.5</v>
+      </c>
+      <c r="BF350">
+        <v>1.62</v>
+      </c>
+      <c r="BG350">
+        <v>1.2</v>
+      </c>
+      <c r="BH350">
+        <v>4</v>
+      </c>
+      <c r="BI350">
+        <v>1.4</v>
+      </c>
+      <c r="BJ350">
+        <v>2.75</v>
+      </c>
+      <c r="BK350">
+        <v>2.1</v>
+      </c>
+      <c r="BL350">
+        <v>2</v>
+      </c>
+      <c r="BM350">
+        <v>2.25</v>
+      </c>
+      <c r="BN350">
+        <v>1.57</v>
+      </c>
+      <c r="BO350">
+        <v>3</v>
+      </c>
+      <c r="BP350">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="425">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -967,6 +967,9 @@
     <t>['11', '15', '25']</t>
   </si>
   <si>
+    <t>['73', '81']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -1280,6 +1283,12 @@
   </si>
   <si>
     <t>['1', '18']</t>
+  </si>
+  <si>
+    <t>['22', '67', '90+3']</t>
+  </si>
+  <si>
+    <t>['19', '73', '89']</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP350"/>
+  <dimension ref="A1:BP352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2106,7 +2115,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2187,7 +2196,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ3">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2312,7 +2321,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2518,7 +2527,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2930,7 +2939,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3548,7 +3557,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3629,7 +3638,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3754,7 +3763,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -4656,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ15">
         <v>1.59</v>
@@ -4862,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ16">
         <v>0.83</v>
@@ -6510,7 +6519,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ24">
         <v>0.76</v>
@@ -6716,7 +6725,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ25">
         <v>1.61</v>
@@ -6844,7 +6853,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -7256,7 +7265,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7462,7 +7471,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7543,7 +7552,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ29">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR29">
         <v>1.4</v>
@@ -7668,7 +7677,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7874,7 +7883,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -8286,7 +8295,7 @@
         <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8367,7 +8376,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR33">
         <v>1.46</v>
@@ -9316,7 +9325,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9728,7 +9737,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -10552,7 +10561,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10758,7 +10767,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10964,7 +10973,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11376,7 +11385,7 @@
         <v>97</v>
       </c>
       <c r="P48" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q48">
         <v>2.38</v>
@@ -11454,7 +11463,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ48">
         <v>0.9399999999999999</v>
@@ -11663,7 +11672,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ49">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR49">
         <v>1.5</v>
@@ -11788,7 +11797,7 @@
         <v>97</v>
       </c>
       <c r="P50" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -12612,7 +12621,7 @@
         <v>97</v>
       </c>
       <c r="P54" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12818,7 +12827,7 @@
         <v>97</v>
       </c>
       <c r="P55" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -13311,7 +13320,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ57">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR57">
         <v>1.86</v>
@@ -13517,7 +13526,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ58">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR58">
         <v>1.63</v>
@@ -13642,7 +13651,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q59">
         <v>5.5</v>
@@ -13848,7 +13857,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q60">
         <v>4.75</v>
@@ -14132,7 +14141,7 @@
         <v>1.33</v>
       </c>
       <c r="AP61">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ61">
         <v>0.82</v>
@@ -15084,7 +15093,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -15496,7 +15505,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15908,7 +15917,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -16114,7 +16123,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16526,7 +16535,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q73">
         <v>2.1</v>
@@ -17222,7 +17231,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ76">
         <v>0.67</v>
@@ -17431,7 +17440,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ77">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -17556,7 +17565,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17762,7 +17771,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17968,7 +17977,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -18380,7 +18389,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18792,7 +18801,7 @@
         <v>152</v>
       </c>
       <c r="P84" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -18873,7 +18882,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ84">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR84">
         <v>1.31</v>
@@ -19204,7 +19213,7 @@
         <v>97</v>
       </c>
       <c r="P86" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -19282,7 +19291,7 @@
         <v>2.5</v>
       </c>
       <c r="AP86">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ86">
         <v>1.78</v>
@@ -19410,7 +19419,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -20852,7 +20861,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -21058,7 +21067,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -21342,7 +21351,7 @@
         <v>1.25</v>
       </c>
       <c r="AP96">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ96">
         <v>0.5600000000000001</v>
@@ -21551,7 +21560,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ97">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -21676,7 +21685,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -22500,7 +22509,7 @@
         <v>97</v>
       </c>
       <c r="P102" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22706,7 +22715,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q103">
         <v>2.63</v>
@@ -23196,7 +23205,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ105">
         <v>1.24</v>
@@ -23324,7 +23333,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q106">
         <v>1.83</v>
@@ -23402,10 +23411,10 @@
         <v>0.5</v>
       </c>
       <c r="AP106">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ106">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR106">
         <v>1.72</v>
@@ -24560,7 +24569,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24766,7 +24775,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -25877,7 +25886,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ118">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR118">
         <v>1.41</v>
@@ -26080,7 +26089,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ119">
         <v>0.53</v>
@@ -26495,7 +26504,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ121">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR121">
         <v>1.32</v>
@@ -27522,7 +27531,7 @@
         <v>0.33</v>
       </c>
       <c r="AP126">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ126">
         <v>0.71</v>
@@ -27650,7 +27659,7 @@
         <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27731,7 +27740,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ127">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR127">
         <v>1.11</v>
@@ -28474,7 +28483,7 @@
         <v>134</v>
       </c>
       <c r="P131" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28680,7 +28689,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28758,7 +28767,7 @@
         <v>1.71</v>
       </c>
       <c r="AP132">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ132">
         <v>1.61</v>
@@ -28886,7 +28895,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q133">
         <v>3.75</v>
@@ -29173,7 +29182,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ134">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR134">
         <v>1.52</v>
@@ -29298,7 +29307,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -30740,7 +30749,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -31024,7 +31033,7 @@
         <v>0.86</v>
       </c>
       <c r="AP143">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ143">
         <v>0.82</v>
@@ -31152,7 +31161,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q144">
         <v>2.63</v>
@@ -31770,7 +31779,7 @@
         <v>97</v>
       </c>
       <c r="P147" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32182,7 +32191,7 @@
         <v>178</v>
       </c>
       <c r="P149" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32466,7 +32475,7 @@
         <v>1.13</v>
       </c>
       <c r="AP150">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ150">
         <v>0.53</v>
@@ -32594,7 +32603,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -33006,7 +33015,7 @@
         <v>203</v>
       </c>
       <c r="P153" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -33084,7 +33093,7 @@
         <v>1.57</v>
       </c>
       <c r="AP153">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ153">
         <v>1.18</v>
@@ -33293,7 +33302,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ154">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR154">
         <v>1.2</v>
@@ -33418,7 +33427,7 @@
         <v>123</v>
       </c>
       <c r="P155" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q155">
         <v>2.2</v>
@@ -33830,7 +33839,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34242,7 +34251,7 @@
         <v>97</v>
       </c>
       <c r="P159" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -35066,7 +35075,7 @@
         <v>208</v>
       </c>
       <c r="P163" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q163">
         <v>1.95</v>
@@ -35556,7 +35565,7 @@
         <v>0.89</v>
       </c>
       <c r="AP165">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ165">
         <v>0.76</v>
@@ -36174,7 +36183,7 @@
         <v>0.75</v>
       </c>
       <c r="AP168">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ168">
         <v>0.67</v>
@@ -37413,7 +37422,7 @@
         <v>2</v>
       </c>
       <c r="AQ174">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR174">
         <v>1.59</v>
@@ -37538,7 +37547,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37619,7 +37628,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ175">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR175">
         <v>1.48</v>
@@ -37744,7 +37753,7 @@
         <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q176">
         <v>5</v>
@@ -38156,7 +38165,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38362,7 +38371,7 @@
         <v>218</v>
       </c>
       <c r="P179" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q179">
         <v>2.88</v>
@@ -38568,7 +38577,7 @@
         <v>189</v>
       </c>
       <c r="P180" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -38774,7 +38783,7 @@
         <v>97</v>
       </c>
       <c r="P181" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q181">
         <v>1.91</v>
@@ -38852,7 +38861,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP181">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ181">
         <v>1.06</v>
@@ -39186,7 +39195,7 @@
         <v>97</v>
       </c>
       <c r="P183" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q183">
         <v>2.63</v>
@@ -40010,7 +40019,7 @@
         <v>222</v>
       </c>
       <c r="P187" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q187">
         <v>3.4</v>
@@ -40500,7 +40509,7 @@
         <v>0.5</v>
       </c>
       <c r="AP189">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ189">
         <v>0.71</v>
@@ -40834,7 +40843,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q191">
         <v>2.63</v>
@@ -41246,7 +41255,7 @@
         <v>205</v>
       </c>
       <c r="P193" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41327,7 +41336,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ193">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR193">
         <v>1.49</v>
@@ -41658,7 +41667,7 @@
         <v>97</v>
       </c>
       <c r="P195" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q195">
         <v>2.4</v>
@@ -42151,7 +42160,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ197">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR197">
         <v>1.69</v>
@@ -42482,7 +42491,7 @@
         <v>228</v>
       </c>
       <c r="P199" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q199">
         <v>2.6</v>
@@ -42894,7 +42903,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q201">
         <v>3.2</v>
@@ -43718,7 +43727,7 @@
         <v>233</v>
       </c>
       <c r="P205" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q205">
         <v>4.33</v>
@@ -43799,7 +43808,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ205">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR205">
         <v>1.34</v>
@@ -44542,7 +44551,7 @@
         <v>235</v>
       </c>
       <c r="P209" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q209">
         <v>2.6</v>
@@ -44829,7 +44838,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ210">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR210">
         <v>1.62</v>
@@ -44954,7 +44963,7 @@
         <v>97</v>
       </c>
       <c r="P211" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -45238,7 +45247,7 @@
         <v>1.22</v>
       </c>
       <c r="AP212">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ212">
         <v>0.89</v>
@@ -45366,7 +45375,7 @@
         <v>134</v>
       </c>
       <c r="P213" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q213">
         <v>2.88</v>
@@ -46062,7 +46071,7 @@
         <v>1.2</v>
       </c>
       <c r="AP216">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ216">
         <v>1.18</v>
@@ -46190,7 +46199,7 @@
         <v>239</v>
       </c>
       <c r="P217" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -46396,7 +46405,7 @@
         <v>240</v>
       </c>
       <c r="P218" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46602,7 +46611,7 @@
         <v>201</v>
       </c>
       <c r="P219" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q219">
         <v>2.2</v>
@@ -46683,7 +46692,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ219">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR219">
         <v>1.75</v>
@@ -46808,7 +46817,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -47095,7 +47104,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ221">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR221">
         <v>1.44</v>
@@ -47298,7 +47307,7 @@
         <v>1.2</v>
       </c>
       <c r="AP222">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ222">
         <v>0.89</v>
@@ -47426,7 +47435,7 @@
         <v>97</v>
       </c>
       <c r="P223" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q223">
         <v>2.75</v>
@@ -47504,7 +47513,7 @@
         <v>0.64</v>
       </c>
       <c r="AP223">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ223">
         <v>0.76</v>
@@ -48125,7 +48134,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ226">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR226">
         <v>1.49</v>
@@ -48868,7 +48877,7 @@
         <v>248</v>
       </c>
       <c r="P230" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -49486,7 +49495,7 @@
         <v>249</v>
       </c>
       <c r="P233" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49898,7 +49907,7 @@
         <v>251</v>
       </c>
       <c r="P235" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q235">
         <v>3</v>
@@ -50722,7 +50731,7 @@
         <v>148</v>
       </c>
       <c r="P239" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q239">
         <v>4</v>
@@ -51340,7 +51349,7 @@
         <v>97</v>
       </c>
       <c r="P242" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q242">
         <v>3.75</v>
@@ -51627,7 +51636,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ243">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR243">
         <v>1.33</v>
@@ -51752,7 +51761,7 @@
         <v>256</v>
       </c>
       <c r="P244" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q244">
         <v>2.75</v>
@@ -51958,7 +51967,7 @@
         <v>97</v>
       </c>
       <c r="P245" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q245">
         <v>2.75</v>
@@ -52164,7 +52173,7 @@
         <v>257</v>
       </c>
       <c r="P246" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q246">
         <v>2.63</v>
@@ -52576,7 +52585,7 @@
         <v>259</v>
       </c>
       <c r="P248" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -52860,7 +52869,7 @@
         <v>0.91</v>
       </c>
       <c r="AP249">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ249">
         <v>0.83</v>
@@ -54099,7 +54108,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ255">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR255">
         <v>1.3</v>
@@ -54511,7 +54520,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ257">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR257">
         <v>1.41</v>
@@ -55126,7 +55135,7 @@
         <v>0.62</v>
       </c>
       <c r="AP260">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ260">
         <v>0.5600000000000001</v>
@@ -55254,7 +55263,7 @@
         <v>268</v>
       </c>
       <c r="P261" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q261">
         <v>2.5</v>
@@ -55666,7 +55675,7 @@
         <v>269</v>
       </c>
       <c r="P263" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q263">
         <v>3.75</v>
@@ -56078,7 +56087,7 @@
         <v>270</v>
       </c>
       <c r="P265" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q265">
         <v>3.6</v>
@@ -56284,7 +56293,7 @@
         <v>138</v>
       </c>
       <c r="P266" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q266">
         <v>2.3</v>
@@ -56568,7 +56577,7 @@
         <v>1.33</v>
       </c>
       <c r="AP267">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ267">
         <v>1.06</v>
@@ -57108,7 +57117,7 @@
         <v>272</v>
       </c>
       <c r="P270" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q270">
         <v>3.25</v>
@@ -58962,7 +58971,7 @@
         <v>277</v>
       </c>
       <c r="P279" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q279">
         <v>2.75</v>
@@ -59374,7 +59383,7 @@
         <v>278</v>
       </c>
       <c r="P281" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q281">
         <v>2.3</v>
@@ -59452,7 +59461,7 @@
         <v>0.79</v>
       </c>
       <c r="AP281">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ281">
         <v>1.06</v>
@@ -59661,7 +59670,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ282">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR282">
         <v>1.85</v>
@@ -59786,7 +59795,7 @@
         <v>97</v>
       </c>
       <c r="P283" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q283">
         <v>3.4</v>
@@ -59992,7 +60001,7 @@
         <v>279</v>
       </c>
       <c r="P284" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q284">
         <v>3.1</v>
@@ -60404,7 +60413,7 @@
         <v>125</v>
       </c>
       <c r="P286" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q286">
         <v>2.38</v>
@@ -60485,7 +60494,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ286">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR286">
         <v>1.35</v>
@@ -60610,7 +60619,7 @@
         <v>281</v>
       </c>
       <c r="P287" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q287">
         <v>2.63</v>
@@ -60688,7 +60697,7 @@
         <v>1</v>
       </c>
       <c r="AP287">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ287">
         <v>0.82</v>
@@ -61228,7 +61237,7 @@
         <v>283</v>
       </c>
       <c r="P290" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q290">
         <v>2.2</v>
@@ -62670,7 +62679,7 @@
         <v>286</v>
       </c>
       <c r="P297" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q297">
         <v>5</v>
@@ -63288,7 +63297,7 @@
         <v>288</v>
       </c>
       <c r="P300" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q300">
         <v>1.91</v>
@@ -63369,7 +63378,7 @@
         <v>2</v>
       </c>
       <c r="AQ300">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR300">
         <v>1.66</v>
@@ -63700,7 +63709,7 @@
         <v>290</v>
       </c>
       <c r="P302" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q302">
         <v>1.83</v>
@@ -63778,7 +63787,7 @@
         <v>1.14</v>
       </c>
       <c r="AP302">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ302">
         <v>1.24</v>
@@ -64318,7 +64327,7 @@
         <v>264</v>
       </c>
       <c r="P305" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q305">
         <v>4</v>
@@ -64396,7 +64405,7 @@
         <v>1.4</v>
       </c>
       <c r="AP305">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ305">
         <v>1.59</v>
@@ -64605,7 +64614,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ306">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR306">
         <v>1.46</v>
@@ -65142,7 +65151,7 @@
         <v>293</v>
       </c>
       <c r="P309" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q309">
         <v>3.4</v>
@@ -65554,7 +65563,7 @@
         <v>295</v>
       </c>
       <c r="P311" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q311">
         <v>3</v>
@@ -65966,7 +65975,7 @@
         <v>227</v>
       </c>
       <c r="P313" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q313">
         <v>2.4</v>
@@ -66172,7 +66181,7 @@
         <v>97</v>
       </c>
       <c r="P314" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q314">
         <v>3.25</v>
@@ -66790,7 +66799,7 @@
         <v>97</v>
       </c>
       <c r="P317" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q317">
         <v>2.88</v>
@@ -67898,7 +67907,7 @@
         <v>0.88</v>
       </c>
       <c r="AP322">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ322">
         <v>0.82</v>
@@ -68232,7 +68241,7 @@
         <v>118</v>
       </c>
       <c r="P324" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q324">
         <v>3.75</v>
@@ -68644,7 +68653,7 @@
         <v>302</v>
       </c>
       <c r="P326" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q326">
         <v>2.25</v>
@@ -68850,7 +68859,7 @@
         <v>303</v>
       </c>
       <c r="P327" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q327">
         <v>3.2</v>
@@ -70704,7 +70713,7 @@
         <v>308</v>
       </c>
       <c r="P336" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q336">
         <v>3.6</v>
@@ -70910,7 +70919,7 @@
         <v>309</v>
       </c>
       <c r="P337" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q337">
         <v>4.75</v>
@@ -71116,7 +71125,7 @@
         <v>310</v>
       </c>
       <c r="P338" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q338">
         <v>2.4</v>
@@ -71197,7 +71206,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ338">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AR338">
         <v>1.41</v>
@@ -71400,10 +71409,10 @@
         <v>1.94</v>
       </c>
       <c r="AP339">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ339">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR339">
         <v>1.42</v>
@@ -71528,7 +71537,7 @@
         <v>97</v>
       </c>
       <c r="P340" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q340">
         <v>4</v>
@@ -71734,7 +71743,7 @@
         <v>311</v>
       </c>
       <c r="P341" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q341">
         <v>2.88</v>
@@ -71940,7 +71949,7 @@
         <v>97</v>
       </c>
       <c r="P342" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q342">
         <v>7.5</v>
@@ -72146,7 +72155,7 @@
         <v>217</v>
       </c>
       <c r="P343" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q343">
         <v>1.83</v>
@@ -72558,7 +72567,7 @@
         <v>313</v>
       </c>
       <c r="P345" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q345">
         <v>2.75</v>
@@ -73481,16 +73490,16 @@
         <v>4</v>
       </c>
       <c r="AW349">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AX349">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY349">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AZ349">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA349">
         <v>9</v>
@@ -73687,16 +73696,16 @@
         <v>5</v>
       </c>
       <c r="AW350">
+        <v>4</v>
+      </c>
+      <c r="AX350">
         <v>5</v>
-      </c>
-      <c r="AX350">
-        <v>12</v>
       </c>
       <c r="AY350">
         <v>8</v>
       </c>
       <c r="AZ350">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BA350">
         <v>5</v>
@@ -73745,6 +73754,418 @@
       </c>
       <c r="BP350">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="351" spans="1:68">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>7373642</v>
+      </c>
+      <c r="C351" t="s">
+        <v>68</v>
+      </c>
+      <c r="D351" t="s">
+        <v>69</v>
+      </c>
+      <c r="E351" s="2">
+        <v>45622.89583333334</v>
+      </c>
+      <c r="F351">
+        <v>36</v>
+      </c>
+      <c r="G351" t="s">
+        <v>84</v>
+      </c>
+      <c r="H351" t="s">
+        <v>85</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>1</v>
+      </c>
+      <c r="K351">
+        <v>1</v>
+      </c>
+      <c r="L351">
+        <v>2</v>
+      </c>
+      <c r="M351">
+        <v>3</v>
+      </c>
+      <c r="N351">
+        <v>5</v>
+      </c>
+      <c r="O351" t="s">
+        <v>317</v>
+      </c>
+      <c r="P351" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q351">
+        <v>3.5</v>
+      </c>
+      <c r="R351">
+        <v>1.95</v>
+      </c>
+      <c r="S351">
+        <v>3.5</v>
+      </c>
+      <c r="T351">
+        <v>1.42</v>
+      </c>
+      <c r="U351">
+        <v>2.65</v>
+      </c>
+      <c r="V351">
+        <v>2.88</v>
+      </c>
+      <c r="W351">
+        <v>1.36</v>
+      </c>
+      <c r="X351">
+        <v>7</v>
+      </c>
+      <c r="Y351">
+        <v>1.07</v>
+      </c>
+      <c r="Z351">
+        <v>1.85</v>
+      </c>
+      <c r="AA351">
+        <v>3.3</v>
+      </c>
+      <c r="AB351">
+        <v>3.6</v>
+      </c>
+      <c r="AC351">
+        <v>1.05</v>
+      </c>
+      <c r="AD351">
+        <v>9</v>
+      </c>
+      <c r="AE351">
+        <v>1.3</v>
+      </c>
+      <c r="AF351">
+        <v>3.4</v>
+      </c>
+      <c r="AG351">
+        <v>1.91</v>
+      </c>
+      <c r="AH351">
+        <v>1.73</v>
+      </c>
+      <c r="AI351">
+        <v>1.95</v>
+      </c>
+      <c r="AJ351">
+        <v>1.8</v>
+      </c>
+      <c r="AK351">
+        <v>1.28</v>
+      </c>
+      <c r="AL351">
+        <v>1.25</v>
+      </c>
+      <c r="AM351">
+        <v>1.73</v>
+      </c>
+      <c r="AN351">
+        <v>1.47</v>
+      </c>
+      <c r="AO351">
+        <v>0.53</v>
+      </c>
+      <c r="AP351">
+        <v>1.39</v>
+      </c>
+      <c r="AQ351">
+        <v>0.67</v>
+      </c>
+      <c r="AR351">
+        <v>1.35</v>
+      </c>
+      <c r="AS351">
+        <v>1.16</v>
+      </c>
+      <c r="AT351">
+        <v>2.51</v>
+      </c>
+      <c r="AU351">
+        <v>7</v>
+      </c>
+      <c r="AV351">
+        <v>8</v>
+      </c>
+      <c r="AW351">
+        <v>10</v>
+      </c>
+      <c r="AX351">
+        <v>4</v>
+      </c>
+      <c r="AY351">
+        <v>23</v>
+      </c>
+      <c r="AZ351">
+        <v>15</v>
+      </c>
+      <c r="BA351">
+        <v>9</v>
+      </c>
+      <c r="BB351">
+        <v>5</v>
+      </c>
+      <c r="BC351">
+        <v>14</v>
+      </c>
+      <c r="BD351">
+        <v>2.25</v>
+      </c>
+      <c r="BE351">
+        <v>8.5</v>
+      </c>
+      <c r="BF351">
+        <v>1.95</v>
+      </c>
+      <c r="BG351">
+        <v>1.35</v>
+      </c>
+      <c r="BH351">
+        <v>3.05</v>
+      </c>
+      <c r="BI351">
+        <v>1.62</v>
+      </c>
+      <c r="BJ351">
+        <v>2.2</v>
+      </c>
+      <c r="BK351">
+        <v>2.2</v>
+      </c>
+      <c r="BL351">
+        <v>1.77</v>
+      </c>
+      <c r="BM351">
+        <v>2.65</v>
+      </c>
+      <c r="BN351">
+        <v>1.45</v>
+      </c>
+      <c r="BO351">
+        <v>3.55</v>
+      </c>
+      <c r="BP351">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="352" spans="1:68">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>7373649</v>
+      </c>
+      <c r="C352" t="s">
+        <v>68</v>
+      </c>
+      <c r="D352" t="s">
+        <v>69</v>
+      </c>
+      <c r="E352" s="2">
+        <v>45622.89583333334</v>
+      </c>
+      <c r="F352">
+        <v>36</v>
+      </c>
+      <c r="G352" t="s">
+        <v>83</v>
+      </c>
+      <c r="H352" t="s">
+        <v>88</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>1</v>
+      </c>
+      <c r="K352">
+        <v>1</v>
+      </c>
+      <c r="L352">
+        <v>1</v>
+      </c>
+      <c r="M352">
+        <v>3</v>
+      </c>
+      <c r="N352">
+        <v>4</v>
+      </c>
+      <c r="O352" t="s">
+        <v>315</v>
+      </c>
+      <c r="P352" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q352">
+        <v>2.75</v>
+      </c>
+      <c r="R352">
+        <v>2.1</v>
+      </c>
+      <c r="S352">
+        <v>4.33</v>
+      </c>
+      <c r="T352">
+        <v>1.44</v>
+      </c>
+      <c r="U352">
+        <v>2.8</v>
+      </c>
+      <c r="V352">
+        <v>3</v>
+      </c>
+      <c r="W352">
+        <v>1.36</v>
+      </c>
+      <c r="X352">
+        <v>7.5</v>
+      </c>
+      <c r="Y352">
+        <v>1.07</v>
+      </c>
+      <c r="Z352">
+        <v>1.75</v>
+      </c>
+      <c r="AA352">
+        <v>3.3</v>
+      </c>
+      <c r="AB352">
+        <v>4</v>
+      </c>
+      <c r="AC352">
+        <v>1.05</v>
+      </c>
+      <c r="AD352">
+        <v>10</v>
+      </c>
+      <c r="AE352">
+        <v>1.29</v>
+      </c>
+      <c r="AF352">
+        <v>3.5</v>
+      </c>
+      <c r="AG352">
+        <v>1.95</v>
+      </c>
+      <c r="AH352">
+        <v>1.7</v>
+      </c>
+      <c r="AI352">
+        <v>1.91</v>
+      </c>
+      <c r="AJ352">
+        <v>1.91</v>
+      </c>
+      <c r="AK352">
+        <v>1.22</v>
+      </c>
+      <c r="AL352">
+        <v>1.22</v>
+      </c>
+      <c r="AM352">
+        <v>2</v>
+      </c>
+      <c r="AN352">
+        <v>2.24</v>
+      </c>
+      <c r="AO352">
+        <v>1.88</v>
+      </c>
+      <c r="AP352">
+        <v>2.11</v>
+      </c>
+      <c r="AQ352">
+        <v>1.94</v>
+      </c>
+      <c r="AR352">
+        <v>1.92</v>
+      </c>
+      <c r="AS352">
+        <v>1.39</v>
+      </c>
+      <c r="AT352">
+        <v>3.31</v>
+      </c>
+      <c r="AU352">
+        <v>6</v>
+      </c>
+      <c r="AV352">
+        <v>8</v>
+      </c>
+      <c r="AW352">
+        <v>9</v>
+      </c>
+      <c r="AX352">
+        <v>2</v>
+      </c>
+      <c r="AY352">
+        <v>21</v>
+      </c>
+      <c r="AZ352">
+        <v>14</v>
+      </c>
+      <c r="BA352">
+        <v>5</v>
+      </c>
+      <c r="BB352">
+        <v>7</v>
+      </c>
+      <c r="BC352">
+        <v>12</v>
+      </c>
+      <c r="BD352">
+        <v>1.62</v>
+      </c>
+      <c r="BE352">
+        <v>10.5</v>
+      </c>
+      <c r="BF352">
+        <v>2.78</v>
+      </c>
+      <c r="BG352">
+        <v>1.19</v>
+      </c>
+      <c r="BH352">
+        <v>3.64</v>
+      </c>
+      <c r="BI352">
+        <v>1.39</v>
+      </c>
+      <c r="BJ352">
+        <v>2.59</v>
+      </c>
+      <c r="BK352">
+        <v>1.91</v>
+      </c>
+      <c r="BL352">
+        <v>1.92</v>
+      </c>
+      <c r="BM352">
+        <v>2.14</v>
+      </c>
+      <c r="BN352">
+        <v>1.57</v>
+      </c>
+      <c r="BO352">
+        <v>2.82</v>
+      </c>
+      <c r="BP352">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="425">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1650,7 +1650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP352"/>
+  <dimension ref="A1:BP353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3226,7 +3226,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ8">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ10">
         <v>1.94</v>
@@ -8170,7 +8170,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ32">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR32">
         <v>1.55</v>
@@ -8579,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ34">
         <v>1.06</v>
@@ -16201,7 +16201,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ71">
         <v>0.89</v>
@@ -16616,7 +16616,7 @@
         <v>2</v>
       </c>
       <c r="AQ73">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR73">
         <v>1.61</v>
@@ -20118,7 +20118,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ90">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR90">
         <v>1.34</v>
@@ -20733,7 +20733,7 @@
         <v>0</v>
       </c>
       <c r="AP93">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ93">
         <v>0.76</v>
@@ -23617,7 +23617,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ107">
         <v>0.9399999999999999</v>
@@ -24238,7 +24238,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ110">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR110">
         <v>1.39</v>
@@ -30212,7 +30212,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ139">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR139">
         <v>1.44</v>
@@ -30415,7 +30415,7 @@
         <v>0.29</v>
       </c>
       <c r="AP140">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ140">
         <v>0.71</v>
@@ -33711,7 +33711,7 @@
         <v>0.75</v>
       </c>
       <c r="AP156">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ156">
         <v>0.5600000000000001</v>
@@ -34538,7 +34538,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ160">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR160">
         <v>1.46</v>
@@ -37419,7 +37419,7 @@
         <v>0.29</v>
       </c>
       <c r="AP174">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ174">
         <v>0.67</v>
@@ -38452,7 +38452,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ179">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR179">
         <v>1.71</v>
@@ -41748,7 +41748,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ195">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR195">
         <v>1.75</v>
@@ -42569,7 +42569,7 @@
         <v>1.13</v>
       </c>
       <c r="AP199">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ199">
         <v>1.24</v>
@@ -42984,7 +42984,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ201">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR201">
         <v>1.3</v>
@@ -43393,7 +43393,7 @@
         <v>1.33</v>
       </c>
       <c r="AP203">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ203">
         <v>1.06</v>
@@ -47722,7 +47722,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ224">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR224">
         <v>1.56</v>
@@ -49367,7 +49367,7 @@
         <v>1.2</v>
       </c>
       <c r="AP232">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ232">
         <v>1.59</v>
@@ -50191,7 +50191,7 @@
         <v>0.75</v>
       </c>
       <c r="AP236">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ236">
         <v>0.53</v>
@@ -52666,7 +52666,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ248">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR248">
         <v>1.46</v>
@@ -53281,7 +53281,7 @@
         <v>1</v>
       </c>
       <c r="AP251">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ251">
         <v>1.18</v>
@@ -56786,7 +56786,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ268">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR268">
         <v>1.75</v>
@@ -58019,7 +58019,7 @@
         <v>0.85</v>
       </c>
       <c r="AP274">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ274">
         <v>0.67</v>
@@ -60700,7 +60700,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ287">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR287">
         <v>1.44</v>
@@ -62139,7 +62139,7 @@
         <v>0.93</v>
       </c>
       <c r="AP294">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ294">
         <v>0.82</v>
@@ -62348,7 +62348,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ295">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR295">
         <v>1.73</v>
@@ -65644,7 +65644,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ311">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR311">
         <v>1.45</v>
@@ -67495,7 +67495,7 @@
         <v>1.47</v>
       </c>
       <c r="AP320">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ320">
         <v>1.61</v>
@@ -67910,7 +67910,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ322">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR322">
         <v>1.83</v>
@@ -68731,7 +68731,7 @@
         <v>0.88</v>
       </c>
       <c r="AP326">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ326">
         <v>0.83</v>
@@ -74166,6 +74166,212 @@
       </c>
       <c r="BP352">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="353" spans="1:68">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>7373621</v>
+      </c>
+      <c r="C353" t="s">
+        <v>68</v>
+      </c>
+      <c r="D353" t="s">
+        <v>69</v>
+      </c>
+      <c r="E353" s="2">
+        <v>45623.875</v>
+      </c>
+      <c r="F353">
+        <v>35</v>
+      </c>
+      <c r="G353" t="s">
+        <v>78</v>
+      </c>
+      <c r="H353" t="s">
+        <v>81</v>
+      </c>
+      <c r="I353">
+        <v>1</v>
+      </c>
+      <c r="J353">
+        <v>1</v>
+      </c>
+      <c r="K353">
+        <v>2</v>
+      </c>
+      <c r="L353">
+        <v>1</v>
+      </c>
+      <c r="M353">
+        <v>1</v>
+      </c>
+      <c r="N353">
+        <v>2</v>
+      </c>
+      <c r="O353" t="s">
+        <v>129</v>
+      </c>
+      <c r="P353" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q353">
+        <v>2.75</v>
+      </c>
+      <c r="R353">
+        <v>2.05</v>
+      </c>
+      <c r="S353">
+        <v>4.33</v>
+      </c>
+      <c r="T353">
+        <v>1.5</v>
+      </c>
+      <c r="U353">
+        <v>2.5</v>
+      </c>
+      <c r="V353">
+        <v>3.4</v>
+      </c>
+      <c r="W353">
+        <v>1.3</v>
+      </c>
+      <c r="X353">
+        <v>10</v>
+      </c>
+      <c r="Y353">
+        <v>1.06</v>
+      </c>
+      <c r="Z353">
+        <v>2.05</v>
+      </c>
+      <c r="AA353">
+        <v>3.3</v>
+      </c>
+      <c r="AB353">
+        <v>3.75</v>
+      </c>
+      <c r="AC353">
+        <v>1.07</v>
+      </c>
+      <c r="AD353">
+        <v>9</v>
+      </c>
+      <c r="AE353">
+        <v>1.38</v>
+      </c>
+      <c r="AF353">
+        <v>3</v>
+      </c>
+      <c r="AG353">
+        <v>2.2</v>
+      </c>
+      <c r="AH353">
+        <v>1.65</v>
+      </c>
+      <c r="AI353">
+        <v>1.95</v>
+      </c>
+      <c r="AJ353">
+        <v>1.8</v>
+      </c>
+      <c r="AK353">
+        <v>1.3</v>
+      </c>
+      <c r="AL353">
+        <v>1.28</v>
+      </c>
+      <c r="AM353">
+        <v>1.72</v>
+      </c>
+      <c r="AN353">
+        <v>2</v>
+      </c>
+      <c r="AO353">
+        <v>0.82</v>
+      </c>
+      <c r="AP353">
+        <v>1.94</v>
+      </c>
+      <c r="AQ353">
+        <v>0.83</v>
+      </c>
+      <c r="AR353">
+        <v>1.57</v>
+      </c>
+      <c r="AS353">
+        <v>1.22</v>
+      </c>
+      <c r="AT353">
+        <v>2.79</v>
+      </c>
+      <c r="AU353">
+        <v>4</v>
+      </c>
+      <c r="AV353">
+        <v>5</v>
+      </c>
+      <c r="AW353">
+        <v>10</v>
+      </c>
+      <c r="AX353">
+        <v>3</v>
+      </c>
+      <c r="AY353">
+        <v>20</v>
+      </c>
+      <c r="AZ353">
+        <v>10</v>
+      </c>
+      <c r="BA353">
+        <v>5</v>
+      </c>
+      <c r="BB353">
+        <v>1</v>
+      </c>
+      <c r="BC353">
+        <v>6</v>
+      </c>
+      <c r="BD353">
+        <v>1.55</v>
+      </c>
+      <c r="BE353">
+        <v>7</v>
+      </c>
+      <c r="BF353">
+        <v>2.65</v>
+      </c>
+      <c r="BG353">
+        <v>1.27</v>
+      </c>
+      <c r="BH353">
+        <v>3.3</v>
+      </c>
+      <c r="BI353">
+        <v>1.47</v>
+      </c>
+      <c r="BJ353">
+        <v>2.48</v>
+      </c>
+      <c r="BK353">
+        <v>1.91</v>
+      </c>
+      <c r="BL353">
+        <v>1.94</v>
+      </c>
+      <c r="BM353">
+        <v>2.18</v>
+      </c>
+      <c r="BN353">
+        <v>1.58</v>
+      </c>
+      <c r="BO353">
+        <v>2.8</v>
+      </c>
+      <c r="BP353">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="429">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -970,6 +970,12 @@
     <t>['73', '81']</t>
   </si>
   <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['30', '38']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -1289,6 +1295,12 @@
   </si>
   <si>
     <t>['19', '73', '89']</t>
+  </si>
+  <si>
+    <t>['37', '84']</t>
+  </si>
+  <si>
+    <t>['62', '65', '83', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP353"/>
+  <dimension ref="A1:BP355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1990,7 +2002,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ2">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2115,7 +2127,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2193,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ3">
         <v>0.67</v>
@@ -2321,7 +2333,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2527,7 +2539,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2939,7 +2951,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3557,7 +3569,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3763,7 +3775,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -5080,7 +5092,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ17">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -6316,7 +6328,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ23">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR23">
         <v>1.76</v>
@@ -6853,7 +6865,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6934,7 +6946,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ26">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -7265,7 +7277,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7471,7 +7483,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7677,7 +7689,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7883,7 +7895,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -7961,7 +7973,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ31">
         <v>1.06</v>
@@ -8295,7 +8307,7 @@
         <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -9325,7 +9337,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9737,7 +9749,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -10561,7 +10573,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10767,7 +10779,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10845,7 +10857,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ45">
         <v>1.78</v>
@@ -10973,7 +10985,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11054,7 +11066,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ46">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR46">
         <v>1.46</v>
@@ -11260,7 +11272,7 @@
         <v>2</v>
       </c>
       <c r="AQ47">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR47">
         <v>1.36</v>
@@ -11385,7 +11397,7 @@
         <v>97</v>
       </c>
       <c r="P48" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q48">
         <v>2.38</v>
@@ -11797,7 +11809,7 @@
         <v>97</v>
       </c>
       <c r="P50" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -12621,7 +12633,7 @@
         <v>97</v>
       </c>
       <c r="P54" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12827,7 +12839,7 @@
         <v>97</v>
       </c>
       <c r="P55" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -13111,7 +13123,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ56">
         <v>1.59</v>
@@ -13651,7 +13663,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q59">
         <v>5.5</v>
@@ -13857,7 +13869,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q60">
         <v>4.75</v>
@@ -13935,7 +13947,7 @@
         <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ60">
         <v>1.78</v>
@@ -14144,7 +14156,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ61">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR61">
         <v>1.55</v>
@@ -14965,7 +14977,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ65">
         <v>1.06</v>
@@ -15093,7 +15105,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -15171,7 +15183,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ66">
         <v>0.89</v>
@@ -15505,7 +15517,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15586,7 +15598,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ68">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR68">
         <v>1.17</v>
@@ -15917,7 +15929,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -16123,7 +16135,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16535,7 +16547,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q73">
         <v>2.1</v>
@@ -17565,7 +17577,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17771,7 +17783,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17977,7 +17989,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -18389,7 +18401,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18467,10 +18479,10 @@
         <v>1.25</v>
       </c>
       <c r="AP82">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ82">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR82">
         <v>1.49</v>
@@ -18673,7 +18685,7 @@
         <v>1.33</v>
       </c>
       <c r="AP83">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ83">
         <v>1.24</v>
@@ -18801,7 +18813,7 @@
         <v>152</v>
       </c>
       <c r="P84" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -19213,7 +19225,7 @@
         <v>97</v>
       </c>
       <c r="P86" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -19419,7 +19431,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -20530,7 +20542,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ92">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR92">
         <v>1.69</v>
@@ -20861,7 +20873,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -21067,7 +21079,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -21148,7 +21160,7 @@
         <v>2</v>
       </c>
       <c r="AQ95">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR95">
         <v>1.65</v>
@@ -21557,7 +21569,7 @@
         <v>2</v>
       </c>
       <c r="AP97">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ97">
         <v>1.94</v>
@@ -21685,7 +21697,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21969,7 +21981,7 @@
         <v>1.4</v>
       </c>
       <c r="AP99">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ99">
         <v>0.53</v>
@@ -22384,7 +22396,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ101">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR101">
         <v>1.66</v>
@@ -22509,7 +22521,7 @@
         <v>97</v>
       </c>
       <c r="P102" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22715,7 +22727,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q103">
         <v>2.63</v>
@@ -23333,7 +23345,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q106">
         <v>1.83</v>
@@ -24569,7 +24581,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24775,7 +24787,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -25677,7 +25689,7 @@
         <v>0.83</v>
       </c>
       <c r="AP117">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ117">
         <v>0.5600000000000001</v>
@@ -26298,7 +26310,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ120">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR120">
         <v>1.52</v>
@@ -27325,7 +27337,7 @@
         <v>1.8</v>
       </c>
       <c r="AP125">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ125">
         <v>1.59</v>
@@ -27534,7 +27546,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ126">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR126">
         <v>1.89</v>
@@ -27659,7 +27671,7 @@
         <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -27737,7 +27749,7 @@
         <v>1.57</v>
       </c>
       <c r="AP127">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ127">
         <v>1.94</v>
@@ -27943,7 +27955,7 @@
         <v>0.71</v>
       </c>
       <c r="AP128">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ128">
         <v>0.76</v>
@@ -28483,7 +28495,7 @@
         <v>134</v>
       </c>
       <c r="P131" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28689,7 +28701,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28895,7 +28907,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q133">
         <v>3.75</v>
@@ -29307,7 +29319,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -30418,7 +30430,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ140">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR140">
         <v>1.67</v>
@@ -30749,7 +30761,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -31036,7 +31048,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ143">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR143">
         <v>1.9</v>
@@ -31161,7 +31173,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q144">
         <v>2.63</v>
@@ -31779,7 +31791,7 @@
         <v>97</v>
       </c>
       <c r="P147" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32066,7 +32078,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ148">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR148">
         <v>1.43</v>
@@ -32191,7 +32203,7 @@
         <v>178</v>
       </c>
       <c r="P149" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32272,7 +32284,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ149">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR149">
         <v>1.66</v>
@@ -32603,7 +32615,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -32887,7 +32899,7 @@
         <v>0</v>
       </c>
       <c r="AP152">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ152">
         <v>0.76</v>
@@ -33015,7 +33027,7 @@
         <v>203</v>
       </c>
       <c r="P153" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -33427,7 +33439,7 @@
         <v>123</v>
       </c>
       <c r="P155" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q155">
         <v>2.2</v>
@@ -33839,7 +33851,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34251,7 +34263,7 @@
         <v>97</v>
       </c>
       <c r="P159" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -35075,7 +35087,7 @@
         <v>208</v>
       </c>
       <c r="P163" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q163">
         <v>1.95</v>
@@ -35980,7 +35992,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ167">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR167">
         <v>1.59</v>
@@ -37007,7 +37019,7 @@
         <v>0.13</v>
       </c>
       <c r="AP172">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ172">
         <v>0.76</v>
@@ -37213,7 +37225,7 @@
         <v>1.14</v>
       </c>
       <c r="AP173">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ173">
         <v>1.24</v>
@@ -37547,7 +37559,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37753,7 +37765,7 @@
         <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q176">
         <v>5</v>
@@ -38165,7 +38177,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38246,7 +38258,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ178">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR178">
         <v>1.48</v>
@@ -38371,7 +38383,7 @@
         <v>218</v>
       </c>
       <c r="P179" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q179">
         <v>2.88</v>
@@ -38577,7 +38589,7 @@
         <v>189</v>
       </c>
       <c r="P180" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -38783,7 +38795,7 @@
         <v>97</v>
       </c>
       <c r="P181" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q181">
         <v>1.91</v>
@@ -39195,7 +39207,7 @@
         <v>97</v>
       </c>
       <c r="P183" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q183">
         <v>2.63</v>
@@ -40019,7 +40031,7 @@
         <v>222</v>
       </c>
       <c r="P187" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q187">
         <v>3.4</v>
@@ -40097,7 +40109,7 @@
         <v>1.22</v>
       </c>
       <c r="AP187">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ187">
         <v>0.9399999999999999</v>
@@ -40512,7 +40524,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ189">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR189">
         <v>1.45</v>
@@ -40843,7 +40855,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q191">
         <v>2.63</v>
@@ -41127,7 +41139,7 @@
         <v>1.5</v>
       </c>
       <c r="AP192">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ192">
         <v>1.06</v>
@@ -41255,7 +41267,7 @@
         <v>205</v>
       </c>
       <c r="P193" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41667,7 +41679,7 @@
         <v>97</v>
       </c>
       <c r="P195" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q195">
         <v>2.4</v>
@@ -41954,7 +41966,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ196">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR196">
         <v>1.4</v>
@@ -42491,7 +42503,7 @@
         <v>228</v>
       </c>
       <c r="P199" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q199">
         <v>2.6</v>
@@ -42903,7 +42915,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q201">
         <v>3.2</v>
@@ -42981,7 +42993,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP201">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ201">
         <v>0.83</v>
@@ -43727,7 +43739,7 @@
         <v>233</v>
       </c>
       <c r="P205" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q205">
         <v>4.33</v>
@@ -44551,7 +44563,7 @@
         <v>235</v>
       </c>
       <c r="P209" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q209">
         <v>2.6</v>
@@ -44963,7 +44975,7 @@
         <v>97</v>
       </c>
       <c r="P211" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -45044,7 +45056,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ211">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR211">
         <v>1.43</v>
@@ -45375,7 +45387,7 @@
         <v>134</v>
       </c>
       <c r="P213" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q213">
         <v>2.88</v>
@@ -45662,7 +45674,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ214">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR214">
         <v>1.43</v>
@@ -46199,7 +46211,7 @@
         <v>239</v>
       </c>
       <c r="P217" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -46277,7 +46289,7 @@
         <v>0.6</v>
       </c>
       <c r="AP217">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ217">
         <v>0.67</v>
@@ -46405,7 +46417,7 @@
         <v>240</v>
       </c>
       <c r="P218" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46611,7 +46623,7 @@
         <v>201</v>
       </c>
       <c r="P219" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q219">
         <v>2.2</v>
@@ -46817,7 +46829,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -47435,7 +47447,7 @@
         <v>97</v>
       </c>
       <c r="P223" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q223">
         <v>2.75</v>
@@ -47719,7 +47731,7 @@
         <v>0.8</v>
       </c>
       <c r="AP224">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ224">
         <v>0.83</v>
@@ -47928,7 +47940,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ225">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR225">
         <v>1.36</v>
@@ -48877,7 +48889,7 @@
         <v>248</v>
       </c>
       <c r="P230" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -49161,7 +49173,7 @@
         <v>0.67</v>
       </c>
       <c r="AP231">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ231">
         <v>0.5600000000000001</v>
@@ -49495,7 +49507,7 @@
         <v>249</v>
       </c>
       <c r="P233" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49573,7 +49585,7 @@
         <v>1</v>
       </c>
       <c r="AP233">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ233">
         <v>0.83</v>
@@ -49907,7 +49919,7 @@
         <v>251</v>
       </c>
       <c r="P235" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q235">
         <v>3</v>
@@ -50606,7 +50618,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ238">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR238">
         <v>1.43</v>
@@ -50731,7 +50743,7 @@
         <v>148</v>
       </c>
       <c r="P239" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q239">
         <v>4</v>
@@ -51349,7 +51361,7 @@
         <v>97</v>
       </c>
       <c r="P242" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q242">
         <v>3.75</v>
@@ -51633,7 +51645,7 @@
         <v>0.5</v>
       </c>
       <c r="AP243">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ243">
         <v>0.67</v>
@@ -51761,7 +51773,7 @@
         <v>256</v>
       </c>
       <c r="P244" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q244">
         <v>2.75</v>
@@ -51967,7 +51979,7 @@
         <v>97</v>
       </c>
       <c r="P245" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q245">
         <v>2.75</v>
@@ -52173,7 +52185,7 @@
         <v>257</v>
       </c>
       <c r="P246" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q246">
         <v>2.63</v>
@@ -52460,7 +52472,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ247">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR247">
         <v>1.71</v>
@@ -52585,7 +52597,7 @@
         <v>259</v>
       </c>
       <c r="P248" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -54726,7 +54738,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ258">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR258">
         <v>1.35</v>
@@ -55263,7 +55275,7 @@
         <v>268</v>
       </c>
       <c r="P261" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q261">
         <v>2.5</v>
@@ -55547,7 +55559,7 @@
         <v>0.92</v>
       </c>
       <c r="AP262">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ262">
         <v>0.76</v>
@@ -55675,7 +55687,7 @@
         <v>269</v>
       </c>
       <c r="P263" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q263">
         <v>3.75</v>
@@ -55959,7 +55971,7 @@
         <v>1.25</v>
       </c>
       <c r="AP264">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ264">
         <v>0.9399999999999999</v>
@@ -56087,7 +56099,7 @@
         <v>270</v>
       </c>
       <c r="P265" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q265">
         <v>3.6</v>
@@ -56293,7 +56305,7 @@
         <v>138</v>
       </c>
       <c r="P266" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q266">
         <v>2.3</v>
@@ -57117,7 +57129,7 @@
         <v>272</v>
       </c>
       <c r="P270" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q270">
         <v>3.25</v>
@@ -57198,7 +57210,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ270">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR270">
         <v>1.42</v>
@@ -58637,7 +58649,7 @@
         <v>0.64</v>
       </c>
       <c r="AP277">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ277">
         <v>0.53</v>
@@ -58971,7 +58983,7 @@
         <v>277</v>
       </c>
       <c r="P279" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q279">
         <v>2.75</v>
@@ -59383,7 +59395,7 @@
         <v>278</v>
       </c>
       <c r="P281" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q281">
         <v>2.3</v>
@@ -59795,7 +59807,7 @@
         <v>97</v>
       </c>
       <c r="P283" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q283">
         <v>3.4</v>
@@ -60001,7 +60013,7 @@
         <v>279</v>
       </c>
       <c r="P284" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q284">
         <v>3.1</v>
@@ -60285,7 +60297,7 @@
         <v>1.15</v>
       </c>
       <c r="AP285">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ285">
         <v>1.18</v>
@@ -60413,7 +60425,7 @@
         <v>125</v>
       </c>
       <c r="P286" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q286">
         <v>2.38</v>
@@ -60619,7 +60631,7 @@
         <v>281</v>
       </c>
       <c r="P287" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q287">
         <v>2.63</v>
@@ -61237,7 +61249,7 @@
         <v>283</v>
       </c>
       <c r="P290" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q290">
         <v>2.2</v>
@@ -62142,7 +62154,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ294">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR294">
         <v>1.54</v>
@@ -62679,7 +62691,7 @@
         <v>286</v>
       </c>
       <c r="P297" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q297">
         <v>5</v>
@@ -63297,7 +63309,7 @@
         <v>288</v>
       </c>
       <c r="P300" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q300">
         <v>1.91</v>
@@ -63709,7 +63721,7 @@
         <v>290</v>
       </c>
       <c r="P302" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q302">
         <v>1.83</v>
@@ -64327,7 +64339,7 @@
         <v>264</v>
       </c>
       <c r="P305" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q305">
         <v>4</v>
@@ -64817,7 +64829,7 @@
         <v>1.07</v>
       </c>
       <c r="AP307">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ307">
         <v>1.18</v>
@@ -65023,10 +65035,10 @@
         <v>0.4</v>
       </c>
       <c r="AP308">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ308">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR308">
         <v>1.27</v>
@@ -65151,7 +65163,7 @@
         <v>293</v>
       </c>
       <c r="P309" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q309">
         <v>3.4</v>
@@ -65232,7 +65244,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ309">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR309">
         <v>1.31</v>
@@ -65563,7 +65575,7 @@
         <v>295</v>
       </c>
       <c r="P311" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q311">
         <v>3</v>
@@ -65975,7 +65987,7 @@
         <v>227</v>
       </c>
       <c r="P313" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q313">
         <v>2.4</v>
@@ -66181,7 +66193,7 @@
         <v>97</v>
       </c>
       <c r="P314" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q314">
         <v>3.25</v>
@@ -66799,7 +66811,7 @@
         <v>97</v>
       </c>
       <c r="P317" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q317">
         <v>2.88</v>
@@ -68241,7 +68253,7 @@
         <v>118</v>
       </c>
       <c r="P324" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q324">
         <v>3.75</v>
@@ -68322,7 +68334,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ324">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR324">
         <v>1.28</v>
@@ -68653,7 +68665,7 @@
         <v>302</v>
       </c>
       <c r="P326" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q326">
         <v>2.25</v>
@@ -68859,7 +68871,7 @@
         <v>303</v>
       </c>
       <c r="P327" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q327">
         <v>3.2</v>
@@ -68940,7 +68952,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ327">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR327">
         <v>1.46</v>
@@ -70173,7 +70185,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP333">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ333">
         <v>1.06</v>
@@ -70713,7 +70725,7 @@
         <v>308</v>
       </c>
       <c r="P336" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q336">
         <v>3.6</v>
@@ -70919,7 +70931,7 @@
         <v>309</v>
       </c>
       <c r="P337" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q337">
         <v>4.75</v>
@@ -70997,7 +71009,7 @@
         <v>1.56</v>
       </c>
       <c r="AP337">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ337">
         <v>1.61</v>
@@ -71125,7 +71137,7 @@
         <v>310</v>
       </c>
       <c r="P338" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q338">
         <v>2.4</v>
@@ -71537,7 +71549,7 @@
         <v>97</v>
       </c>
       <c r="P340" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q340">
         <v>4</v>
@@ -71743,7 +71755,7 @@
         <v>311</v>
       </c>
       <c r="P341" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q341">
         <v>2.88</v>
@@ -71949,7 +71961,7 @@
         <v>97</v>
       </c>
       <c r="P342" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q342">
         <v>7.5</v>
@@ -72155,7 +72167,7 @@
         <v>217</v>
       </c>
       <c r="P343" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q343">
         <v>1.83</v>
@@ -72567,7 +72579,7 @@
         <v>313</v>
       </c>
       <c r="P345" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q345">
         <v>2.75</v>
@@ -73803,7 +73815,7 @@
         <v>317</v>
       </c>
       <c r="P351" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q351">
         <v>3.5</v>
@@ -74009,7 +74021,7 @@
         <v>315</v>
       </c>
       <c r="P352" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q352">
         <v>2.75</v>
@@ -74372,6 +74384,418 @@
       </c>
       <c r="BP353">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="354" spans="1:68">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>7373656</v>
+      </c>
+      <c r="C354" t="s">
+        <v>68</v>
+      </c>
+      <c r="D354" t="s">
+        <v>69</v>
+      </c>
+      <c r="E354" s="2">
+        <v>45626.8125</v>
+      </c>
+      <c r="F354">
+        <v>36</v>
+      </c>
+      <c r="G354" t="s">
+        <v>89</v>
+      </c>
+      <c r="H354" t="s">
+        <v>80</v>
+      </c>
+      <c r="I354">
+        <v>1</v>
+      </c>
+      <c r="J354">
+        <v>1</v>
+      </c>
+      <c r="K354">
+        <v>2</v>
+      </c>
+      <c r="L354">
+        <v>1</v>
+      </c>
+      <c r="M354">
+        <v>2</v>
+      </c>
+      <c r="N354">
+        <v>3</v>
+      </c>
+      <c r="O354" t="s">
+        <v>318</v>
+      </c>
+      <c r="P354" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q354">
+        <v>4.75</v>
+      </c>
+      <c r="R354">
+        <v>2.1</v>
+      </c>
+      <c r="S354">
+        <v>2.5</v>
+      </c>
+      <c r="T354">
+        <v>1.48</v>
+      </c>
+      <c r="U354">
+        <v>2.5</v>
+      </c>
+      <c r="V354">
+        <v>3.1</v>
+      </c>
+      <c r="W354">
+        <v>1.33</v>
+      </c>
+      <c r="X354">
+        <v>8</v>
+      </c>
+      <c r="Y354">
+        <v>1.05</v>
+      </c>
+      <c r="Z354">
+        <v>4.5</v>
+      </c>
+      <c r="AA354">
+        <v>3.4</v>
+      </c>
+      <c r="AB354">
+        <v>1.85</v>
+      </c>
+      <c r="AC354">
+        <v>1.08</v>
+      </c>
+      <c r="AD354">
+        <v>7.5</v>
+      </c>
+      <c r="AE354">
+        <v>1.4</v>
+      </c>
+      <c r="AF354">
+        <v>2.9</v>
+      </c>
+      <c r="AG354">
+        <v>2.15</v>
+      </c>
+      <c r="AH354">
+        <v>1.67</v>
+      </c>
+      <c r="AI354">
+        <v>1.95</v>
+      </c>
+      <c r="AJ354">
+        <v>1.8</v>
+      </c>
+      <c r="AK354">
+        <v>1.77</v>
+      </c>
+      <c r="AL354">
+        <v>1.28</v>
+      </c>
+      <c r="AM354">
+        <v>1.25</v>
+      </c>
+      <c r="AN354">
+        <v>0.82</v>
+      </c>
+      <c r="AO354">
+        <v>0.82</v>
+      </c>
+      <c r="AP354">
+        <v>0.78</v>
+      </c>
+      <c r="AQ354">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR354">
+        <v>1.27</v>
+      </c>
+      <c r="AS354">
+        <v>1.31</v>
+      </c>
+      <c r="AT354">
+        <v>2.58</v>
+      </c>
+      <c r="AU354">
+        <v>3</v>
+      </c>
+      <c r="AV354">
+        <v>4</v>
+      </c>
+      <c r="AW354">
+        <v>9</v>
+      </c>
+      <c r="AX354">
+        <v>8</v>
+      </c>
+      <c r="AY354">
+        <v>13</v>
+      </c>
+      <c r="AZ354">
+        <v>14</v>
+      </c>
+      <c r="BA354">
+        <v>3</v>
+      </c>
+      <c r="BB354">
+        <v>4</v>
+      </c>
+      <c r="BC354">
+        <v>7</v>
+      </c>
+      <c r="BD354">
+        <v>2.43</v>
+      </c>
+      <c r="BE354">
+        <v>6.5</v>
+      </c>
+      <c r="BF354">
+        <v>1.67</v>
+      </c>
+      <c r="BG354">
+        <v>1.32</v>
+      </c>
+      <c r="BH354">
+        <v>3.05</v>
+      </c>
+      <c r="BI354">
+        <v>1.54</v>
+      </c>
+      <c r="BJ354">
+        <v>2.28</v>
+      </c>
+      <c r="BK354">
+        <v>2.38</v>
+      </c>
+      <c r="BL354">
+        <v>1.8</v>
+      </c>
+      <c r="BM354">
+        <v>2.35</v>
+      </c>
+      <c r="BN354">
+        <v>1.5</v>
+      </c>
+      <c r="BO354">
+        <v>3.05</v>
+      </c>
+      <c r="BP354">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:68">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>7373658</v>
+      </c>
+      <c r="C355" t="s">
+        <v>68</v>
+      </c>
+      <c r="D355" t="s">
+        <v>69</v>
+      </c>
+      <c r="E355" s="2">
+        <v>45626.8125</v>
+      </c>
+      <c r="F355">
+        <v>36</v>
+      </c>
+      <c r="G355" t="s">
+        <v>71</v>
+      </c>
+      <c r="H355" t="s">
+        <v>77</v>
+      </c>
+      <c r="I355">
+        <v>2</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>2</v>
+      </c>
+      <c r="L355">
+        <v>2</v>
+      </c>
+      <c r="M355">
+        <v>4</v>
+      </c>
+      <c r="N355">
+        <v>6</v>
+      </c>
+      <c r="O355" t="s">
+        <v>319</v>
+      </c>
+      <c r="P355" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q355">
+        <v>4</v>
+      </c>
+      <c r="R355">
+        <v>2.05</v>
+      </c>
+      <c r="S355">
+        <v>3</v>
+      </c>
+      <c r="T355">
+        <v>1.5</v>
+      </c>
+      <c r="U355">
+        <v>2.5</v>
+      </c>
+      <c r="V355">
+        <v>3.4</v>
+      </c>
+      <c r="W355">
+        <v>1.3</v>
+      </c>
+      <c r="X355">
+        <v>10</v>
+      </c>
+      <c r="Y355">
+        <v>1.06</v>
+      </c>
+      <c r="Z355">
+        <v>3.3</v>
+      </c>
+      <c r="AA355">
+        <v>3.25</v>
+      </c>
+      <c r="AB355">
+        <v>2.25</v>
+      </c>
+      <c r="AC355">
+        <v>1.07</v>
+      </c>
+      <c r="AD355">
+        <v>8</v>
+      </c>
+      <c r="AE355">
+        <v>1.42</v>
+      </c>
+      <c r="AF355">
+        <v>2.8</v>
+      </c>
+      <c r="AG355">
+        <v>2.15</v>
+      </c>
+      <c r="AH355">
+        <v>1.67</v>
+      </c>
+      <c r="AI355">
+        <v>1.91</v>
+      </c>
+      <c r="AJ355">
+        <v>1.91</v>
+      </c>
+      <c r="AK355">
+        <v>1.57</v>
+      </c>
+      <c r="AL355">
+        <v>1.28</v>
+      </c>
+      <c r="AM355">
+        <v>1.36</v>
+      </c>
+      <c r="AN355">
+        <v>1.35</v>
+      </c>
+      <c r="AO355">
+        <v>0.71</v>
+      </c>
+      <c r="AP355">
+        <v>1.28</v>
+      </c>
+      <c r="AQ355">
+        <v>0.83</v>
+      </c>
+      <c r="AR355">
+        <v>1.52</v>
+      </c>
+      <c r="AS355">
+        <v>1.21</v>
+      </c>
+      <c r="AT355">
+        <v>2.73</v>
+      </c>
+      <c r="AU355">
+        <v>5</v>
+      </c>
+      <c r="AV355">
+        <v>12</v>
+      </c>
+      <c r="AW355">
+        <v>8</v>
+      </c>
+      <c r="AX355">
+        <v>8</v>
+      </c>
+      <c r="AY355">
+        <v>17</v>
+      </c>
+      <c r="AZ355">
+        <v>25</v>
+      </c>
+      <c r="BA355">
+        <v>3</v>
+      </c>
+      <c r="BB355">
+        <v>7</v>
+      </c>
+      <c r="BC355">
+        <v>10</v>
+      </c>
+      <c r="BD355">
+        <v>1.94</v>
+      </c>
+      <c r="BE355">
+        <v>6.75</v>
+      </c>
+      <c r="BF355">
+        <v>2</v>
+      </c>
+      <c r="BG355">
+        <v>1.19</v>
+      </c>
+      <c r="BH355">
+        <v>4.1</v>
+      </c>
+      <c r="BI355">
+        <v>1.33</v>
+      </c>
+      <c r="BJ355">
+        <v>2.95</v>
+      </c>
+      <c r="BK355">
+        <v>1.83</v>
+      </c>
+      <c r="BL355">
+        <v>2.28</v>
+      </c>
+      <c r="BM355">
+        <v>1.85</v>
+      </c>
+      <c r="BN355">
+        <v>1.85</v>
+      </c>
+      <c r="BO355">
+        <v>2.32</v>
+      </c>
+      <c r="BP355">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="431">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -976,6 +976,9 @@
     <t>['30', '38']</t>
   </si>
   <si>
+    <t>['75', '90+3']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -1301,6 +1304,9 @@
   </si>
   <si>
     <t>['62', '65', '83', '90+4']</t>
+  </si>
+  <si>
+    <t>['21', '56']</t>
   </si>
 </sst>
 </file>
@@ -1662,7 +1668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP355"/>
+  <dimension ref="A1:BP356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2127,7 +2133,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2333,7 +2339,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2539,7 +2545,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2951,7 +2957,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3235,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ8">
         <v>0.83</v>
@@ -3569,7 +3575,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3775,7 +3781,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -5710,7 +5716,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ20">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -6865,7 +6871,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -7277,7 +7283,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7483,7 +7489,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7689,7 +7695,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7767,7 +7773,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ30">
         <v>0.83</v>
@@ -7895,7 +7901,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -8307,7 +8313,7 @@
         <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -9337,7 +9343,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9418,7 +9424,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ38">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR38">
         <v>2.13</v>
@@ -9749,7 +9755,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -10573,7 +10579,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10779,7 +10785,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10985,7 +10991,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11397,7 +11403,7 @@
         <v>97</v>
       </c>
       <c r="P48" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q48">
         <v>2.38</v>
@@ -11809,7 +11815,7 @@
         <v>97</v>
       </c>
       <c r="P50" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -12093,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ51">
         <v>1.06</v>
@@ -12633,7 +12639,7 @@
         <v>97</v>
       </c>
       <c r="P54" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12839,7 +12845,7 @@
         <v>97</v>
       </c>
       <c r="P55" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -12920,7 +12926,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ55">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR55">
         <v>1.23</v>
@@ -13663,7 +13669,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q59">
         <v>5.5</v>
@@ -13741,7 +13747,7 @@
         <v>1.67</v>
       </c>
       <c r="AP59">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ59">
         <v>1.61</v>
@@ -13869,7 +13875,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q60">
         <v>4.75</v>
@@ -14774,7 +14780,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ64">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR64">
         <v>1.58</v>
@@ -15105,7 +15111,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -15517,7 +15523,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15929,7 +15935,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -16135,7 +16141,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16547,7 +16553,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q73">
         <v>2.1</v>
@@ -17577,7 +17583,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17658,7 +17664,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ78">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR78">
         <v>1.81</v>
@@ -17783,7 +17789,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17989,7 +17995,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -18401,7 +18407,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18813,7 +18819,7 @@
         <v>152</v>
       </c>
       <c r="P84" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -19097,7 +19103,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ85">
         <v>0.76</v>
@@ -19225,7 +19231,7 @@
         <v>97</v>
       </c>
       <c r="P86" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -19431,7 +19437,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -20873,7 +20879,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -21079,7 +21085,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -21697,7 +21703,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -21984,7 +21990,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ99">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR99">
         <v>1.16</v>
@@ -22187,7 +22193,7 @@
         <v>1.6</v>
       </c>
       <c r="AP100">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ100">
         <v>1.18</v>
@@ -22521,7 +22527,7 @@
         <v>97</v>
       </c>
       <c r="P102" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22727,7 +22733,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q103">
         <v>2.63</v>
@@ -23345,7 +23351,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q106">
         <v>1.83</v>
@@ -24581,7 +24587,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24787,7 +24793,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -25895,7 +25901,7 @@
         <v>1.67</v>
       </c>
       <c r="AP118">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ118">
         <v>1.94</v>
@@ -26104,7 +26110,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ119">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR119">
         <v>1.55</v>
@@ -27671,7 +27677,7 @@
         <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -28161,7 +28167,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ129">
         <v>1.24</v>
@@ -28370,7 +28376,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ130">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR130">
         <v>1.4</v>
@@ -28495,7 +28501,7 @@
         <v>134</v>
       </c>
       <c r="P131" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28701,7 +28707,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28907,7 +28913,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q133">
         <v>3.75</v>
@@ -29319,7 +29325,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -30761,7 +30767,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -31173,7 +31179,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q144">
         <v>2.63</v>
@@ -31791,7 +31797,7 @@
         <v>97</v>
       </c>
       <c r="P147" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32075,7 +32081,7 @@
         <v>0.25</v>
       </c>
       <c r="AP148">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ148">
         <v>0.83</v>
@@ -32203,7 +32209,7 @@
         <v>178</v>
       </c>
       <c r="P149" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32490,7 +32496,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ150">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR150">
         <v>1.83</v>
@@ -32615,7 +32621,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -33027,7 +33033,7 @@
         <v>203</v>
       </c>
       <c r="P153" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -33439,7 +33445,7 @@
         <v>123</v>
       </c>
       <c r="P155" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q155">
         <v>2.2</v>
@@ -33851,7 +33857,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34263,7 +34269,7 @@
         <v>97</v>
       </c>
       <c r="P159" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -35087,7 +35093,7 @@
         <v>208</v>
       </c>
       <c r="P163" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q163">
         <v>1.95</v>
@@ -36816,7 +36822,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ171">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR171">
         <v>1.42</v>
@@ -37559,7 +37565,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37765,7 +37771,7 @@
         <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q176">
         <v>5</v>
@@ -38177,7 +38183,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38383,7 +38389,7 @@
         <v>218</v>
       </c>
       <c r="P179" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q179">
         <v>2.88</v>
@@ -38589,7 +38595,7 @@
         <v>189</v>
       </c>
       <c r="P180" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -38795,7 +38801,7 @@
         <v>97</v>
       </c>
       <c r="P181" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q181">
         <v>1.91</v>
@@ -39207,7 +39213,7 @@
         <v>97</v>
       </c>
       <c r="P183" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q183">
         <v>2.63</v>
@@ -39906,7 +39912,7 @@
         <v>2</v>
       </c>
       <c r="AQ186">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR186">
         <v>1.68</v>
@@ -40031,7 +40037,7 @@
         <v>222</v>
       </c>
       <c r="P187" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q187">
         <v>3.4</v>
@@ -40855,7 +40861,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q191">
         <v>2.63</v>
@@ -40933,7 +40939,7 @@
         <v>0.67</v>
       </c>
       <c r="AP191">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ191">
         <v>0.5600000000000001</v>
@@ -41267,7 +41273,7 @@
         <v>205</v>
       </c>
       <c r="P193" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41679,7 +41685,7 @@
         <v>97</v>
       </c>
       <c r="P195" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q195">
         <v>2.4</v>
@@ -42503,7 +42509,7 @@
         <v>228</v>
       </c>
       <c r="P199" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q199">
         <v>2.6</v>
@@ -42915,7 +42921,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q201">
         <v>3.2</v>
@@ -43611,7 +43617,7 @@
         <v>0.7</v>
       </c>
       <c r="AP204">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ204">
         <v>0.76</v>
@@ -43739,7 +43745,7 @@
         <v>233</v>
       </c>
       <c r="P205" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q205">
         <v>4.33</v>
@@ -44232,7 +44238,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ207">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR207">
         <v>1.49</v>
@@ -44563,7 +44569,7 @@
         <v>235</v>
       </c>
       <c r="P209" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q209">
         <v>2.6</v>
@@ -44975,7 +44981,7 @@
         <v>97</v>
       </c>
       <c r="P211" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -45387,7 +45393,7 @@
         <v>134</v>
       </c>
       <c r="P213" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q213">
         <v>2.88</v>
@@ -46211,7 +46217,7 @@
         <v>239</v>
       </c>
       <c r="P217" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -46417,7 +46423,7 @@
         <v>240</v>
       </c>
       <c r="P218" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46623,7 +46629,7 @@
         <v>201</v>
       </c>
       <c r="P219" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q219">
         <v>2.2</v>
@@ -46829,7 +46835,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -47447,7 +47453,7 @@
         <v>97</v>
       </c>
       <c r="P223" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q223">
         <v>2.75</v>
@@ -48889,7 +48895,7 @@
         <v>248</v>
       </c>
       <c r="P230" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -48967,7 +48973,7 @@
         <v>1.36</v>
       </c>
       <c r="AP230">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ230">
         <v>0.9399999999999999</v>
@@ -49507,7 +49513,7 @@
         <v>249</v>
       </c>
       <c r="P233" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49919,7 +49925,7 @@
         <v>251</v>
       </c>
       <c r="P235" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q235">
         <v>3</v>
@@ -50206,7 +50212,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ236">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR236">
         <v>1.55</v>
@@ -50743,7 +50749,7 @@
         <v>148</v>
       </c>
       <c r="P239" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q239">
         <v>4</v>
@@ -51361,7 +51367,7 @@
         <v>97</v>
       </c>
       <c r="P242" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q242">
         <v>3.75</v>
@@ -51773,7 +51779,7 @@
         <v>256</v>
       </c>
       <c r="P244" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q244">
         <v>2.75</v>
@@ -51979,7 +51985,7 @@
         <v>97</v>
       </c>
       <c r="P245" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q245">
         <v>2.75</v>
@@ -52185,7 +52191,7 @@
         <v>257</v>
       </c>
       <c r="P246" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q246">
         <v>2.63</v>
@@ -52597,7 +52603,7 @@
         <v>259</v>
       </c>
       <c r="P248" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -54326,7 +54332,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ256">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR256">
         <v>1.79</v>
@@ -54941,7 +54947,7 @@
         <v>1.58</v>
       </c>
       <c r="AP259">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ259">
         <v>1.78</v>
@@ -55275,7 +55281,7 @@
         <v>268</v>
       </c>
       <c r="P261" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q261">
         <v>2.5</v>
@@ -55687,7 +55693,7 @@
         <v>269</v>
       </c>
       <c r="P263" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q263">
         <v>3.75</v>
@@ -56099,7 +56105,7 @@
         <v>270</v>
       </c>
       <c r="P265" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q265">
         <v>3.6</v>
@@ -56305,7 +56311,7 @@
         <v>138</v>
       </c>
       <c r="P266" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q266">
         <v>2.3</v>
@@ -57129,7 +57135,7 @@
         <v>272</v>
       </c>
       <c r="P270" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q270">
         <v>3.25</v>
@@ -58652,7 +58658,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ277">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR277">
         <v>1.57</v>
@@ -58983,7 +58989,7 @@
         <v>277</v>
       </c>
       <c r="P279" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q279">
         <v>2.75</v>
@@ -59395,7 +59401,7 @@
         <v>278</v>
       </c>
       <c r="P281" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q281">
         <v>2.3</v>
@@ -59807,7 +59813,7 @@
         <v>97</v>
       </c>
       <c r="P283" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q283">
         <v>3.4</v>
@@ -60013,7 +60019,7 @@
         <v>279</v>
       </c>
       <c r="P284" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q284">
         <v>3.1</v>
@@ -60425,7 +60431,7 @@
         <v>125</v>
       </c>
       <c r="P286" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q286">
         <v>2.38</v>
@@ -60503,7 +60509,7 @@
         <v>0.5</v>
       </c>
       <c r="AP286">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ286">
         <v>0.67</v>
@@ -60631,7 +60637,7 @@
         <v>281</v>
       </c>
       <c r="P287" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q287">
         <v>2.63</v>
@@ -61249,7 +61255,7 @@
         <v>283</v>
       </c>
       <c r="P290" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q290">
         <v>2.2</v>
@@ -62691,7 +62697,7 @@
         <v>286</v>
       </c>
       <c r="P297" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q297">
         <v>5</v>
@@ -63181,7 +63187,7 @@
         <v>0.93</v>
       </c>
       <c r="AP299">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ299">
         <v>0.89</v>
@@ -63309,7 +63315,7 @@
         <v>288</v>
       </c>
       <c r="P300" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q300">
         <v>1.91</v>
@@ -63721,7 +63727,7 @@
         <v>290</v>
       </c>
       <c r="P302" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q302">
         <v>1.83</v>
@@ -64008,7 +64014,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ303">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR303">
         <v>1.42</v>
@@ -64339,7 +64345,7 @@
         <v>264</v>
       </c>
       <c r="P305" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q305">
         <v>4</v>
@@ -65163,7 +65169,7 @@
         <v>293</v>
       </c>
       <c r="P309" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q309">
         <v>3.4</v>
@@ -65241,7 +65247,7 @@
         <v>0.93</v>
       </c>
       <c r="AP309">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ309">
         <v>0.9399999999999999</v>
@@ -65575,7 +65581,7 @@
         <v>295</v>
       </c>
       <c r="P311" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q311">
         <v>3</v>
@@ -65987,7 +65993,7 @@
         <v>227</v>
       </c>
       <c r="P313" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q313">
         <v>2.4</v>
@@ -66193,7 +66199,7 @@
         <v>97</v>
       </c>
       <c r="P314" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q314">
         <v>3.25</v>
@@ -66811,7 +66817,7 @@
         <v>97</v>
       </c>
       <c r="P317" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q317">
         <v>2.88</v>
@@ -68253,7 +68259,7 @@
         <v>118</v>
       </c>
       <c r="P324" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q324">
         <v>3.75</v>
@@ -68665,7 +68671,7 @@
         <v>302</v>
       </c>
       <c r="P326" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q326">
         <v>2.25</v>
@@ -68871,7 +68877,7 @@
         <v>303</v>
       </c>
       <c r="P327" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q327">
         <v>3.2</v>
@@ -70394,7 +70400,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ334">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR334">
         <v>1.87</v>
@@ -70725,7 +70731,7 @@
         <v>308</v>
       </c>
       <c r="P336" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q336">
         <v>3.6</v>
@@ -70931,7 +70937,7 @@
         <v>309</v>
       </c>
       <c r="P337" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q337">
         <v>4.75</v>
@@ -71137,7 +71143,7 @@
         <v>310</v>
       </c>
       <c r="P338" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q338">
         <v>2.4</v>
@@ -71549,7 +71555,7 @@
         <v>97</v>
       </c>
       <c r="P340" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q340">
         <v>4</v>
@@ -71627,7 +71633,7 @@
         <v>1.5</v>
       </c>
       <c r="AP340">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ340">
         <v>1.59</v>
@@ -71755,7 +71761,7 @@
         <v>311</v>
       </c>
       <c r="P341" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q341">
         <v>2.88</v>
@@ -71961,7 +71967,7 @@
         <v>97</v>
       </c>
       <c r="P342" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q342">
         <v>7.5</v>
@@ -72167,7 +72173,7 @@
         <v>217</v>
       </c>
       <c r="P343" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q343">
         <v>1.83</v>
@@ -72579,7 +72585,7 @@
         <v>313</v>
       </c>
       <c r="P345" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q345">
         <v>2.75</v>
@@ -73815,7 +73821,7 @@
         <v>317</v>
       </c>
       <c r="P351" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q351">
         <v>3.5</v>
@@ -74021,7 +74027,7 @@
         <v>315</v>
       </c>
       <c r="P352" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q352">
         <v>2.75</v>
@@ -74433,7 +74439,7 @@
         <v>318</v>
       </c>
       <c r="P354" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q354">
         <v>4.75</v>
@@ -74532,16 +74538,16 @@
         <v>4</v>
       </c>
       <c r="AW354">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX354">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AY354">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ354">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA354">
         <v>3</v>
@@ -74639,7 +74645,7 @@
         <v>319</v>
       </c>
       <c r="P355" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q355">
         <v>4</v>
@@ -74738,16 +74744,16 @@
         <v>12</v>
       </c>
       <c r="AW355">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX355">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AY355">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ355">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="BA355">
         <v>3</v>
@@ -74796,6 +74802,212 @@
       </c>
       <c r="BP355">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="356" spans="1:68">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>7373648</v>
+      </c>
+      <c r="C356" t="s">
+        <v>68</v>
+      </c>
+      <c r="D356" t="s">
+        <v>69</v>
+      </c>
+      <c r="E356" s="2">
+        <v>45626.89583333334</v>
+      </c>
+      <c r="F356">
+        <v>36</v>
+      </c>
+      <c r="G356" t="s">
+        <v>76</v>
+      </c>
+      <c r="H356" t="s">
+        <v>75</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356">
+        <v>1</v>
+      </c>
+      <c r="K356">
+        <v>1</v>
+      </c>
+      <c r="L356">
+        <v>2</v>
+      </c>
+      <c r="M356">
+        <v>2</v>
+      </c>
+      <c r="N356">
+        <v>4</v>
+      </c>
+      <c r="O356" t="s">
+        <v>320</v>
+      </c>
+      <c r="P356" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q356">
+        <v>2.3</v>
+      </c>
+      <c r="R356">
+        <v>2.2</v>
+      </c>
+      <c r="S356">
+        <v>5.5</v>
+      </c>
+      <c r="T356">
+        <v>1.4</v>
+      </c>
+      <c r="U356">
+        <v>2.9</v>
+      </c>
+      <c r="V356">
+        <v>2.9</v>
+      </c>
+      <c r="W356">
+        <v>1.38</v>
+      </c>
+      <c r="X356">
+        <v>7</v>
+      </c>
+      <c r="Y356">
+        <v>1.08</v>
+      </c>
+      <c r="Z356">
+        <v>1.67</v>
+      </c>
+      <c r="AA356">
+        <v>3.6</v>
+      </c>
+      <c r="AB356">
+        <v>5.5</v>
+      </c>
+      <c r="AC356">
+        <v>1.05</v>
+      </c>
+      <c r="AD356">
+        <v>10</v>
+      </c>
+      <c r="AE356">
+        <v>1.3</v>
+      </c>
+      <c r="AF356">
+        <v>3.4</v>
+      </c>
+      <c r="AG356">
+        <v>2</v>
+      </c>
+      <c r="AH356">
+        <v>1.8</v>
+      </c>
+      <c r="AI356">
+        <v>1.95</v>
+      </c>
+      <c r="AJ356">
+        <v>1.8</v>
+      </c>
+      <c r="AK356">
+        <v>1.11</v>
+      </c>
+      <c r="AL356">
+        <v>1.2</v>
+      </c>
+      <c r="AM356">
+        <v>2.5</v>
+      </c>
+      <c r="AN356">
+        <v>1.82</v>
+      </c>
+      <c r="AO356">
+        <v>0.53</v>
+      </c>
+      <c r="AP356">
+        <v>1.78</v>
+      </c>
+      <c r="AQ356">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR356">
+        <v>1.32</v>
+      </c>
+      <c r="AS356">
+        <v>1.44</v>
+      </c>
+      <c r="AT356">
+        <v>2.76</v>
+      </c>
+      <c r="AU356">
+        <v>8</v>
+      </c>
+      <c r="AV356">
+        <v>7</v>
+      </c>
+      <c r="AW356">
+        <v>8</v>
+      </c>
+      <c r="AX356">
+        <v>5</v>
+      </c>
+      <c r="AY356">
+        <v>18</v>
+      </c>
+      <c r="AZ356">
+        <v>13</v>
+      </c>
+      <c r="BA356">
+        <v>5</v>
+      </c>
+      <c r="BB356">
+        <v>3</v>
+      </c>
+      <c r="BC356">
+        <v>8</v>
+      </c>
+      <c r="BD356">
+        <v>1.56</v>
+      </c>
+      <c r="BE356">
+        <v>7</v>
+      </c>
+      <c r="BF356">
+        <v>2.65</v>
+      </c>
+      <c r="BG356">
+        <v>1.28</v>
+      </c>
+      <c r="BH356">
+        <v>3.2</v>
+      </c>
+      <c r="BI356">
+        <v>1.5</v>
+      </c>
+      <c r="BJ356">
+        <v>2.38</v>
+      </c>
+      <c r="BK356">
+        <v>2.1</v>
+      </c>
+      <c r="BL356">
+        <v>1.86</v>
+      </c>
+      <c r="BM356">
+        <v>2.3</v>
+      </c>
+      <c r="BN356">
+        <v>1.53</v>
+      </c>
+      <c r="BO356">
+        <v>2.95</v>
+      </c>
+      <c r="BP356">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -74553,22 +74553,22 @@
         <v>7</v>
       </c>
       <c r="AX354">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY354">
         <v>12</v>
       </c>
       <c r="AZ354">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA354">
         <v>3</v>
       </c>
       <c r="BB354">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC354">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD354">
         <v>2.43</v>
@@ -75168,16 +75168,16 @@
         <v>7</v>
       </c>
       <c r="AW357">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX357">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY357">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ357">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA357">
         <v>6</v>
@@ -75374,16 +75374,16 @@
         <v>3</v>
       </c>
       <c r="AW358">
+        <v>2</v>
+      </c>
+      <c r="AX358">
+        <v>3</v>
+      </c>
+      <c r="AY358">
+        <v>17</v>
+      </c>
+      <c r="AZ358">
         <v>8</v>
-      </c>
-      <c r="AX358">
-        <v>5</v>
-      </c>
-      <c r="AY358">
-        <v>22</v>
-      </c>
-      <c r="AZ358">
-        <v>9</v>
       </c>
       <c r="BA358">
         <v>10</v>
@@ -75786,16 +75786,16 @@
         <v>5</v>
       </c>
       <c r="AW360">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX360">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AY360">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ360">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BA360">
         <v>3</v>
@@ -75992,16 +75992,16 @@
         <v>3</v>
       </c>
       <c r="AW361">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AX361">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AY361">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ361">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA361">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="436">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -991,6 +991,9 @@
     <t>['9', '37']</t>
   </si>
   <si>
+    <t>['12', '45+4', '61']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -1680,7 +1683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP361"/>
+  <dimension ref="A1:BP362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2020,7 +2023,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ2">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2145,7 +2148,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2351,7 +2354,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q4">
         <v>2.63</v>
@@ -2557,7 +2560,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
@@ -2969,7 +2972,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -3459,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>1.06</v>
@@ -3587,7 +3590,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -3793,7 +3796,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -6883,7 +6886,7 @@
         <v>111</v>
       </c>
       <c r="P26" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q26">
         <v>3.5</v>
@@ -6964,7 +6967,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ26">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -7295,7 +7298,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q28">
         <v>3.5</v>
@@ -7501,7 +7504,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q29">
         <v>2.38</v>
@@ -7707,7 +7710,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q30">
         <v>2.1</v>
@@ -7913,7 +7916,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q31">
         <v>4.33</v>
@@ -8325,7 +8328,7 @@
         <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -8815,7 +8818,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>0.78</v>
@@ -9355,7 +9358,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q38">
         <v>2.2</v>
@@ -9767,7 +9770,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -10257,7 +10260,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>1.17</v>
@@ -10591,7 +10594,7 @@
         <v>123</v>
       </c>
       <c r="P44" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10797,7 +10800,7 @@
         <v>97</v>
       </c>
       <c r="P45" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -11003,7 +11006,7 @@
         <v>95</v>
       </c>
       <c r="P46" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -11084,7 +11087,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ46">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR46">
         <v>1.46</v>
@@ -11415,7 +11418,7 @@
         <v>97</v>
       </c>
       <c r="P48" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q48">
         <v>2.38</v>
@@ -11827,7 +11830,7 @@
         <v>97</v>
       </c>
       <c r="P50" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q50">
         <v>3.6</v>
@@ -12651,7 +12654,7 @@
         <v>97</v>
       </c>
       <c r="P54" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
@@ -12857,7 +12860,7 @@
         <v>97</v>
       </c>
       <c r="P55" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q55">
         <v>2.88</v>
@@ -13553,7 +13556,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
         <v>1.94</v>
@@ -13681,7 +13684,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q59">
         <v>5.5</v>
@@ -13887,7 +13890,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q60">
         <v>4.75</v>
@@ -14174,7 +14177,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ61">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR61">
         <v>1.55</v>
@@ -15123,7 +15126,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -15535,7 +15538,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15947,7 +15950,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q70">
         <v>3.25</v>
@@ -16153,7 +16156,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16565,7 +16568,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q73">
         <v>2.1</v>
@@ -17595,7 +17598,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q78">
         <v>2.63</v>
@@ -17801,7 +17804,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -17879,7 +17882,7 @@
         <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
         <v>1.11</v>
@@ -18007,7 +18010,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -18419,7 +18422,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18500,7 +18503,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ82">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR82">
         <v>1.49</v>
@@ -18831,7 +18834,7 @@
         <v>152</v>
       </c>
       <c r="P84" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -19243,7 +19246,7 @@
         <v>97</v>
       </c>
       <c r="P86" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -19449,7 +19452,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q87">
         <v>2.38</v>
@@ -20891,7 +20894,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -21097,7 +21100,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q95">
         <v>2.2</v>
@@ -21178,7 +21181,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ95">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR95">
         <v>1.65</v>
@@ -21715,7 +21718,7 @@
         <v>97</v>
       </c>
       <c r="P98" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q98">
         <v>3.5</v>
@@ -22539,7 +22542,7 @@
         <v>97</v>
       </c>
       <c r="P102" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22745,7 +22748,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q103">
         <v>2.63</v>
@@ -23363,7 +23366,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q106">
         <v>1.83</v>
@@ -24059,7 +24062,7 @@
         <v>1.2</v>
       </c>
       <c r="AP109">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ109">
         <v>0.89</v>
@@ -24599,7 +24602,7 @@
         <v>138</v>
       </c>
       <c r="P112" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24805,7 +24808,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -26328,7 +26331,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ120">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR120">
         <v>1.52</v>
@@ -27689,7 +27692,7 @@
         <v>132</v>
       </c>
       <c r="P127" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q127">
         <v>3.6</v>
@@ -28513,7 +28516,7 @@
         <v>134</v>
       </c>
       <c r="P131" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28719,7 +28722,7 @@
         <v>184</v>
       </c>
       <c r="P132" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28925,7 +28928,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q133">
         <v>3.75</v>
@@ -29337,7 +29340,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q135">
         <v>2.5</v>
@@ -29415,7 +29418,7 @@
         <v>0.83</v>
       </c>
       <c r="AP135">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ135">
         <v>1.06</v>
@@ -30779,7 +30782,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -31066,7 +31069,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ143">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR143">
         <v>1.9</v>
@@ -31191,7 +31194,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q144">
         <v>2.63</v>
@@ -31809,7 +31812,7 @@
         <v>97</v>
       </c>
       <c r="P147" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32221,7 +32224,7 @@
         <v>178</v>
       </c>
       <c r="P149" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32302,7 +32305,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ149">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR149">
         <v>1.66</v>
@@ -32633,7 +32636,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q151">
         <v>2.2</v>
@@ -33045,7 +33048,7 @@
         <v>203</v>
       </c>
       <c r="P153" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -33457,7 +33460,7 @@
         <v>123</v>
       </c>
       <c r="P155" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q155">
         <v>2.2</v>
@@ -33869,7 +33872,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34153,7 +34156,7 @@
         <v>1.17</v>
       </c>
       <c r="AP158">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ158">
         <v>0.83</v>
@@ -34281,7 +34284,7 @@
         <v>97</v>
       </c>
       <c r="P159" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -35105,7 +35108,7 @@
         <v>208</v>
       </c>
       <c r="P163" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q163">
         <v>1.95</v>
@@ -37577,7 +37580,7 @@
         <v>215</v>
       </c>
       <c r="P175" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q175">
         <v>3.1</v>
@@ -37783,7 +37786,7 @@
         <v>216</v>
       </c>
       <c r="P176" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q176">
         <v>5</v>
@@ -38195,7 +38198,7 @@
         <v>189</v>
       </c>
       <c r="P178" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q178">
         <v>3.5</v>
@@ -38276,7 +38279,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ178">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR178">
         <v>1.48</v>
@@ -38401,7 +38404,7 @@
         <v>218</v>
       </c>
       <c r="P179" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q179">
         <v>2.88</v>
@@ -38479,7 +38482,7 @@
         <v>0.14</v>
       </c>
       <c r="AP179">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ179">
         <v>0.83</v>
@@ -38607,7 +38610,7 @@
         <v>189</v>
       </c>
       <c r="P180" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -38813,7 +38816,7 @@
         <v>97</v>
       </c>
       <c r="P181" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q181">
         <v>1.91</v>
@@ -39225,7 +39228,7 @@
         <v>97</v>
       </c>
       <c r="P183" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q183">
         <v>2.63</v>
@@ -40049,7 +40052,7 @@
         <v>222</v>
       </c>
       <c r="P187" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q187">
         <v>3.4</v>
@@ -40873,7 +40876,7 @@
         <v>225</v>
       </c>
       <c r="P191" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q191">
         <v>2.63</v>
@@ -41285,7 +41288,7 @@
         <v>205</v>
       </c>
       <c r="P193" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q193">
         <v>3.6</v>
@@ -41697,7 +41700,7 @@
         <v>97</v>
       </c>
       <c r="P195" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q195">
         <v>2.4</v>
@@ -41984,7 +41987,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ196">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR196">
         <v>1.4</v>
@@ -42187,7 +42190,7 @@
         <v>0.25</v>
       </c>
       <c r="AP197">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ197">
         <v>0.67</v>
@@ -42521,7 +42524,7 @@
         <v>228</v>
       </c>
       <c r="P199" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q199">
         <v>2.6</v>
@@ -42933,7 +42936,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q201">
         <v>3.2</v>
@@ -43217,7 +43220,7 @@
         <v>0.7</v>
       </c>
       <c r="AP202">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ202">
         <v>0.5600000000000001</v>
@@ -43757,7 +43760,7 @@
         <v>233</v>
       </c>
       <c r="P205" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q205">
         <v>4.33</v>
@@ -44581,7 +44584,7 @@
         <v>235</v>
       </c>
       <c r="P209" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q209">
         <v>2.6</v>
@@ -44993,7 +44996,7 @@
         <v>97</v>
       </c>
       <c r="P211" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q211">
         <v>3.1</v>
@@ -45074,7 +45077,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ211">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR211">
         <v>1.43</v>
@@ -45405,7 +45408,7 @@
         <v>134</v>
       </c>
       <c r="P213" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q213">
         <v>2.88</v>
@@ -46229,7 +46232,7 @@
         <v>239</v>
       </c>
       <c r="P217" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q217">
         <v>3</v>
@@ -46435,7 +46438,7 @@
         <v>240</v>
       </c>
       <c r="P218" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46641,7 +46644,7 @@
         <v>201</v>
       </c>
       <c r="P219" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q219">
         <v>2.2</v>
@@ -46847,7 +46850,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -47465,7 +47468,7 @@
         <v>97</v>
       </c>
       <c r="P223" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q223">
         <v>2.75</v>
@@ -48907,7 +48910,7 @@
         <v>248</v>
       </c>
       <c r="P230" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -49525,7 +49528,7 @@
         <v>249</v>
       </c>
       <c r="P233" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q233">
         <v>2.75</v>
@@ -49937,7 +49940,7 @@
         <v>251</v>
       </c>
       <c r="P235" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q235">
         <v>3</v>
@@ -50427,7 +50430,7 @@
         <v>1.64</v>
       </c>
       <c r="AP237">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ237">
         <v>1.61</v>
@@ -50636,7 +50639,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ238">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR238">
         <v>1.43</v>
@@ -50761,7 +50764,7 @@
         <v>148</v>
       </c>
       <c r="P239" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q239">
         <v>4</v>
@@ -51379,7 +51382,7 @@
         <v>97</v>
       </c>
       <c r="P242" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q242">
         <v>3.75</v>
@@ -51791,7 +51794,7 @@
         <v>256</v>
       </c>
       <c r="P244" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q244">
         <v>2.75</v>
@@ -51997,7 +52000,7 @@
         <v>97</v>
       </c>
       <c r="P245" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q245">
         <v>2.75</v>
@@ -52203,7 +52206,7 @@
         <v>257</v>
       </c>
       <c r="P246" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q246">
         <v>2.63</v>
@@ -52615,7 +52618,7 @@
         <v>259</v>
       </c>
       <c r="P248" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q248">
         <v>2.88</v>
@@ -54341,7 +54344,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP256">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ256">
         <v>0.5600000000000001</v>
@@ -54756,7 +54759,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ258">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR258">
         <v>1.35</v>
@@ -55293,7 +55296,7 @@
         <v>268</v>
       </c>
       <c r="P261" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q261">
         <v>2.5</v>
@@ -55705,7 +55708,7 @@
         <v>269</v>
       </c>
       <c r="P263" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q263">
         <v>3.75</v>
@@ -56117,7 +56120,7 @@
         <v>270</v>
       </c>
       <c r="P265" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q265">
         <v>3.6</v>
@@ -56323,7 +56326,7 @@
         <v>138</v>
       </c>
       <c r="P266" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q266">
         <v>2.3</v>
@@ -57147,7 +57150,7 @@
         <v>272</v>
       </c>
       <c r="P270" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q270">
         <v>3.25</v>
@@ -59001,7 +59004,7 @@
         <v>277</v>
       </c>
       <c r="P279" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q279">
         <v>2.75</v>
@@ -59413,7 +59416,7 @@
         <v>278</v>
       </c>
       <c r="P281" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q281">
         <v>2.3</v>
@@ -59825,7 +59828,7 @@
         <v>97</v>
       </c>
       <c r="P283" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q283">
         <v>3.4</v>
@@ -60031,7 +60034,7 @@
         <v>279</v>
       </c>
       <c r="P284" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q284">
         <v>3.1</v>
@@ -60109,7 +60112,7 @@
         <v>1.43</v>
       </c>
       <c r="AP284">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ284">
         <v>1.5</v>
@@ -60443,7 +60446,7 @@
         <v>125</v>
       </c>
       <c r="P286" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q286">
         <v>2.38</v>
@@ -60649,7 +60652,7 @@
         <v>281</v>
       </c>
       <c r="P287" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q287">
         <v>2.63</v>
@@ -61267,7 +61270,7 @@
         <v>283</v>
       </c>
       <c r="P290" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q290">
         <v>2.2</v>
@@ -61345,7 +61348,7 @@
         <v>1.14</v>
       </c>
       <c r="AP290">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ290">
         <v>0.9399999999999999</v>
@@ -62172,7 +62175,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ294">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR294">
         <v>1.54</v>
@@ -62709,7 +62712,7 @@
         <v>286</v>
       </c>
       <c r="P297" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q297">
         <v>5</v>
@@ -63327,7 +63330,7 @@
         <v>288</v>
       </c>
       <c r="P300" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q300">
         <v>1.91</v>
@@ -63739,7 +63742,7 @@
         <v>290</v>
       </c>
       <c r="P302" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q302">
         <v>1.83</v>
@@ -64357,7 +64360,7 @@
         <v>264</v>
       </c>
       <c r="P305" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q305">
         <v>4</v>
@@ -65181,7 +65184,7 @@
         <v>293</v>
       </c>
       <c r="P309" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q309">
         <v>3.4</v>
@@ -65262,7 +65265,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ309">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR309">
         <v>1.31</v>
@@ -65593,7 +65596,7 @@
         <v>295</v>
       </c>
       <c r="P311" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q311">
         <v>3</v>
@@ -66005,7 +66008,7 @@
         <v>227</v>
       </c>
       <c r="P313" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q313">
         <v>2.4</v>
@@ -66211,7 +66214,7 @@
         <v>97</v>
       </c>
       <c r="P314" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q314">
         <v>3.25</v>
@@ -66495,7 +66498,7 @@
         <v>1.73</v>
       </c>
       <c r="AP315">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ315">
         <v>1.78</v>
@@ -66829,7 +66832,7 @@
         <v>97</v>
       </c>
       <c r="P317" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q317">
         <v>2.88</v>
@@ -68271,7 +68274,7 @@
         <v>118</v>
       </c>
       <c r="P324" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q324">
         <v>3.75</v>
@@ -68683,7 +68686,7 @@
         <v>302</v>
       </c>
       <c r="P326" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q326">
         <v>2.25</v>
@@ -68970,7 +68973,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ327">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR327">
         <v>1.46</v>
@@ -69997,7 +70000,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP332">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ332">
         <v>0.78</v>
@@ -70743,7 +70746,7 @@
         <v>308</v>
       </c>
       <c r="P336" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q336">
         <v>3.6</v>
@@ -70949,7 +70952,7 @@
         <v>309</v>
       </c>
       <c r="P337" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q337">
         <v>4.75</v>
@@ -71155,7 +71158,7 @@
         <v>310</v>
       </c>
       <c r="P338" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q338">
         <v>2.4</v>
@@ -71567,7 +71570,7 @@
         <v>97</v>
       </c>
       <c r="P340" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q340">
         <v>4</v>
@@ -71773,7 +71776,7 @@
         <v>311</v>
       </c>
       <c r="P341" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q341">
         <v>2.88</v>
@@ -71979,7 +71982,7 @@
         <v>97</v>
       </c>
       <c r="P342" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q342">
         <v>7.5</v>
@@ -72185,7 +72188,7 @@
         <v>217</v>
       </c>
       <c r="P343" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q343">
         <v>1.83</v>
@@ -72597,7 +72600,7 @@
         <v>313</v>
       </c>
       <c r="P345" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q345">
         <v>2.75</v>
@@ -73293,7 +73296,7 @@
         <v>0.71</v>
       </c>
       <c r="AP348">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ348">
         <v>0.67</v>
@@ -73833,7 +73836,7 @@
         <v>317</v>
       </c>
       <c r="P351" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q351">
         <v>3.5</v>
@@ -74039,7 +74042,7 @@
         <v>315</v>
       </c>
       <c r="P352" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q352">
         <v>2.75</v>
@@ -74451,7 +74454,7 @@
         <v>318</v>
       </c>
       <c r="P354" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q354">
         <v>4.75</v>
@@ -74532,7 +74535,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ354">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR354">
         <v>1.27</v>
@@ -74657,7 +74660,7 @@
         <v>319</v>
       </c>
       <c r="P355" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q355">
         <v>4</v>
@@ -74863,7 +74866,7 @@
         <v>320</v>
       </c>
       <c r="P356" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q356">
         <v>2.3</v>
@@ -75069,7 +75072,7 @@
         <v>321</v>
       </c>
       <c r="P357" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q357">
         <v>2.88</v>
@@ -75275,7 +75278,7 @@
         <v>322</v>
       </c>
       <c r="P358" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q358">
         <v>3.2</v>
@@ -75687,7 +75690,7 @@
         <v>323</v>
       </c>
       <c r="P360" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q360">
         <v>3</v>
@@ -76049,6 +76052,212 @@
         <v>2.75</v>
       </c>
       <c r="BP361">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="362" spans="1:68">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>7373670</v>
+      </c>
+      <c r="C362" t="s">
+        <v>68</v>
+      </c>
+      <c r="D362" t="s">
+        <v>69</v>
+      </c>
+      <c r="E362" s="2">
+        <v>45629.83333333334</v>
+      </c>
+      <c r="F362">
+        <v>37</v>
+      </c>
+      <c r="G362" t="s">
+        <v>77</v>
+      </c>
+      <c r="H362" t="s">
+        <v>80</v>
+      </c>
+      <c r="I362">
+        <v>2</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>2</v>
+      </c>
+      <c r="L362">
+        <v>3</v>
+      </c>
+      <c r="M362">
+        <v>0</v>
+      </c>
+      <c r="N362">
+        <v>3</v>
+      </c>
+      <c r="O362" t="s">
+        <v>325</v>
+      </c>
+      <c r="P362" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q362">
+        <v>2.2</v>
+      </c>
+      <c r="R362">
+        <v>2.3</v>
+      </c>
+      <c r="S362">
+        <v>5</v>
+      </c>
+      <c r="T362">
+        <v>1.36</v>
+      </c>
+      <c r="U362">
+        <v>2.9</v>
+      </c>
+      <c r="V362">
+        <v>2.65</v>
+      </c>
+      <c r="W362">
+        <v>1.42</v>
+      </c>
+      <c r="X362">
+        <v>6.25</v>
+      </c>
+      <c r="Y362">
+        <v>1.08</v>
+      </c>
+      <c r="Z362">
+        <v>1.62</v>
+      </c>
+      <c r="AA362">
+        <v>4</v>
+      </c>
+      <c r="AB362">
+        <v>5.25</v>
+      </c>
+      <c r="AC362">
+        <v>1.04</v>
+      </c>
+      <c r="AD362">
+        <v>11</v>
+      </c>
+      <c r="AE362">
+        <v>1.22</v>
+      </c>
+      <c r="AF362">
+        <v>4.1</v>
+      </c>
+      <c r="AG362">
+        <v>1.73</v>
+      </c>
+      <c r="AH362">
+        <v>2.08</v>
+      </c>
+      <c r="AI362">
+        <v>1.75</v>
+      </c>
+      <c r="AJ362">
+        <v>2</v>
+      </c>
+      <c r="AK362">
+        <v>1.18</v>
+      </c>
+      <c r="AL362">
+        <v>1.22</v>
+      </c>
+      <c r="AM362">
+        <v>2.05</v>
+      </c>
+      <c r="AN362">
+        <v>1.94</v>
+      </c>
+      <c r="AO362">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP362">
+        <v>2</v>
+      </c>
+      <c r="AQ362">
+        <v>0.89</v>
+      </c>
+      <c r="AR362">
+        <v>1.75</v>
+      </c>
+      <c r="AS362">
+        <v>1.31</v>
+      </c>
+      <c r="AT362">
+        <v>3.06</v>
+      </c>
+      <c r="AU362">
+        <v>8</v>
+      </c>
+      <c r="AV362">
+        <v>3</v>
+      </c>
+      <c r="AW362">
+        <v>7</v>
+      </c>
+      <c r="AX362">
+        <v>7</v>
+      </c>
+      <c r="AY362">
+        <v>19</v>
+      </c>
+      <c r="AZ362">
+        <v>13</v>
+      </c>
+      <c r="BA362">
+        <v>7</v>
+      </c>
+      <c r="BB362">
+        <v>4</v>
+      </c>
+      <c r="BC362">
+        <v>11</v>
+      </c>
+      <c r="BD362">
+        <v>1.57</v>
+      </c>
+      <c r="BE362">
+        <v>9</v>
+      </c>
+      <c r="BF362">
+        <v>2.9</v>
+      </c>
+      <c r="BG362">
+        <v>1.14</v>
+      </c>
+      <c r="BH362">
+        <v>4.25</v>
+      </c>
+      <c r="BI362">
+        <v>1.29</v>
+      </c>
+      <c r="BJ362">
+        <v>2.92</v>
+      </c>
+      <c r="BK362">
+        <v>2.2</v>
+      </c>
+      <c r="BL362">
+        <v>2.17</v>
+      </c>
+      <c r="BM362">
+        <v>1.95</v>
+      </c>
+      <c r="BN362">
+        <v>1.77</v>
+      </c>
+      <c r="BO362">
+        <v>2.49</v>
+      </c>
+      <c r="BP362">
         <v>1.42</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -77888,10 +77888,10 @@
         <v>6</v>
       </c>
       <c r="BB370">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC370">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD370">
         <v>1.59</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -77888,10 +77888,10 @@
         <v>6</v>
       </c>
       <c r="BB370">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC370">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD370">
         <v>1.59</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Brazil Serie A_2024.xlsx
@@ -78303,22 +78303,22 @@
         <v>2.69</v>
       </c>
       <c r="AU372">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV372">
         <v>7</v>
       </c>
       <c r="AW372">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AX372">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AY372">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AZ372">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BA372">
         <v>6</v>
@@ -78515,13 +78515,13 @@
         <v>5</v>
       </c>
       <c r="AW373">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX373">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY373">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ373">
         <v>8</v>
@@ -78721,16 +78721,16 @@
         <v>3</v>
       </c>
       <c r="AW374">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AX374">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AY374">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ374">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA374">
         <v>4</v>
@@ -78927,16 +78927,16 @@
         <v>6</v>
       </c>
       <c r="AW375">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AX375">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY375">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AZ375">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA375">
         <v>6</v>
@@ -79133,16 +79133,16 @@
         <v>2</v>
       </c>
       <c r="AW376">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX376">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY376">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ376">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA376">
         <v>3</v>
@@ -79339,7 +79339,7 @@
         <v>6</v>
       </c>
       <c r="AW377">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX377">
         <v>2</v>
@@ -79545,13 +79545,13 @@
         <v>5</v>
       </c>
       <c r="AW378">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AX378">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY378">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AZ378">
         <v>8</v>
@@ -79751,16 +79751,16 @@
         <v>2</v>
       </c>
       <c r="AW379">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX379">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AY379">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ379">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA379">
         <v>4</v>
@@ -79957,16 +79957,16 @@
         <v>5</v>
       </c>
       <c r="AW380">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX380">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AY380">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ380">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA380">
         <v>2</v>
@@ -80157,22 +80157,22 @@
         <v>2.77</v>
       </c>
       <c r="AU381">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV381">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW381">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AX381">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY381">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AZ381">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA381">
         <v>8</v>
